--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="104" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="104" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="670">
   <si>
     <t>Hash</t>
   </si>
@@ -578,7 +578,7 @@
     <t>EPi</t>
   </si>
   <si>
-    <t>^0x[a-f0-9]{60}\s0x[a-f0-9]{40}$/i</t>
+    <t>^0x[a-f0-9]{60}(\s0x[a-f0-9]{40})?$/i</t>
   </si>
   <si>
     <t>0x326C6D7B4E4F794B79474E36704F35723958397163735263516265456E31 0xAFC55E260B8F45C0C6512BCE776C1AD8312B56E6</t>
@@ -653,7 +653,7 @@
     <t>Fortigate(FortiOS)</t>
   </si>
   <si>
-    <t>^[a-z0-9]{47}$/i</t>
+    <t>^[a-z0-9=]{47}$/i</t>
   </si>
   <si>
     <t>AK1AAECAwQFBgcICRARNGqgeC3is8gv2xWWRony9NJnDgEA</t>
@@ -809,7 +809,7 @@
     <t>iSCSI CHAP Authentication</t>
   </si>
   <si>
-    <t>^[a-f0-9]{32}:[0-9]{32}:[0-9]{2}$/i</t>
+    <t>^(\$chap\$0\*)?[a-f0-9]{32}[\*:][a-f0-9]{32}(:[0-9]{2})?$/i</t>
   </si>
   <si>
     <t>afd09efdd6f8ca9f18ec77c5869788c3:01020304050607080910111213141516:01</t>
@@ -1064,7 +1064,7 @@
     <t>Microsoft Office ≤ 2003 (MD5+RC4)</t>
   </si>
   <si>
-    <t>^\$oldoffice\$[01]\*[0-9]{32}\*[a-f0-9]{32}\*[a-f0-9]{32}$/i</t>
+    <t>^\$oldoffice\$[01]\*[a-f0-9]{32}\*[a-f0-9]{32}\*[a-f0-9]{32}$/i</t>
   </si>
   <si>
     <t>$oldoffice$1*04477077758555626246182730342136*b1b72ff351e41a7c68f6b45c4e938bd6*0d95331895e99f73ef8b6fbc4a78ac1a</t>
@@ -1076,7 +1076,7 @@
     <t>Microsoft Office ≤ 2003 (SHA1+RC4)</t>
   </si>
   <si>
-    <t>^\$oldoffice\$[34]\*[0-9]{32}\*[a-f0-9]{32}\*[a-f0-9]{40}$/i</t>
+    <t>^\$oldoffice\$[34]\*[a-f0-9]{32}\*[a-f0-9]{32}\*[a-f0-9]{40}$/i</t>
   </si>
   <si>
     <t>$oldoffice$3*83328705222323020515404251156288*2855956a165ff6511bc7f4cd77b9e101*941861655e73a09c40f7b1e9dfd0c256ed285acd</t>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t>RAdmin v2.x</t>
+  </si>
+  <si>
+    <t>^(\$radmin2\$)?[a-f0-9]{32}$/i</t>
   </si>
   <si>
     <t>9900</t>
@@ -2029,8 +2032,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2084,7 +2087,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2093,107 +2096,107 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2205,11 +2208,11 @@
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B136" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.25"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.5663265306122"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.8673469387755"/>
@@ -2221,7 +2224,7 @@
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>69</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>84</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>88</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>91</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>94</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>101</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>103</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>106</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>109</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>113</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>117</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>120</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
         <v>122</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>139</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>151</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>157</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>165</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>166</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>174</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>177</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>180</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
         <v>184</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>186</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
         <v>189</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>193</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>196</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>200</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>202</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
         <v>204</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
         <v>208</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>211</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>214</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
         <v>216</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
         <v>218</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>220</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>223</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>227</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>229</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>230</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>232</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
         <v>235</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
         <v>237</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
         <v>240</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
         <v>243</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>245</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
         <v>250</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
         <v>254</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
         <v>257</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>260</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
         <v>263</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>267</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
         <v>269</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>273</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
         <v>278</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
         <v>283</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
         <v>287</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
         <v>291</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
         <v>295</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
         <v>298</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
         <v>301</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>305</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
         <v>309</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>314</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>317</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
         <v>318</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
         <v>321</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
         <v>324</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>327</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="96">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
         <v>328</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="97">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
         <v>333</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>335</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
         <v>336</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
         <v>337</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
         <v>338</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
         <v>344</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>347</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
         <v>348</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="103">
+    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
         <v>352</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="104">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>355</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="105">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>358</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="106">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>361</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="107">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
         <v>364</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
         <v>368</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="109">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
         <v>372</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>376</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="110">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
         <v>377</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="111">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
         <v>382</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="112">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
         <v>383</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="113">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
         <v>386</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>388</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="114">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
         <v>389</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="115">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
         <v>393</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>396</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="116">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="12" t="s">
         <v>397</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>401</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="117">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
         <v>402</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="118">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
         <v>404</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="119">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
         <v>407</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="120">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>410</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="121">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
         <v>414</v>
       </c>
@@ -4403,7 +4406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="122">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
         <v>418</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>421</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="123">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
         <v>422</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="124">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
         <v>425</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>429</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="125">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
         <v>430</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>432</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
         <v>433</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>436</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
         <v>437</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="128">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
         <v>440</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="129">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
         <v>443</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="130">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
         <v>446</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
         <v>449</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>452</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="132">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
         <v>453</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>456</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="133">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
         <v>457</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>460</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="134">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>461</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>464</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="135">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>465</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="136">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
         <v>469</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="137">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>473</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="138">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>476</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>480</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="139">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>481</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>484</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
         <v>485</v>
       </c>
@@ -4740,46 +4743,46 @@
         <v>489</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="141">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
         <v>490</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="142">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C142" s="7" t="n">
         <v>7600</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="143">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>172</v>
@@ -4787,16 +4790,16 @@
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>175</v>
@@ -4806,16 +4809,16 @@
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="145">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>221</v>
@@ -4823,154 +4826,154 @@
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="146">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="147">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="148">
-      <c r="A148" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="149">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="150">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C150" s="7" t="n">
         <v>7700</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="151">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C151" s="7" t="n">
         <v>7800</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="152">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="153">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C153" s="5" t="n">
         <v>8900</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="154">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>175</v>
@@ -4979,34 +4982,34 @@
         <v>100</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="155">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="156">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>411</v>
@@ -5022,9 +5025,9 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="157">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>238</v>
@@ -5032,35 +5035,35 @@
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="158">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="159">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>221</v>
@@ -5069,22 +5072,22 @@
         <v>1400</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C160" s="7" t="n">
         <v>7400</v>
@@ -5093,58 +5096,58 @@
         <v>124</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="161">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C162" s="7" t="n">
         <v>1700</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="163">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C163" s="7" t="n">
         <v>1800</v>
@@ -5153,15 +5156,15 @@
         <v>124</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="164">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>241</v>
@@ -5169,116 +5172,116 @@
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="165">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="166">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="167">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="168">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="169">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="170">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="171">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>221</v>
@@ -5286,16 +5289,16 @@
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="172">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>172</v>
@@ -5303,16 +5306,16 @@
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="173">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>175</v>
@@ -5320,16 +5323,16 @@
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F173" s="7"/>
       <c r="G173" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="174">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>241</v>
@@ -5337,33 +5340,33 @@
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="175">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F175" s="7"/>
       <c r="G175" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="176">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>172</v>
@@ -5371,16 +5374,16 @@
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="177">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>175</v>
@@ -5388,16 +5391,16 @@
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="178">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>241</v>
@@ -5405,16 +5408,16 @@
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="179">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>221</v>
@@ -5422,68 +5425,68 @@
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F179" s="7"/>
       <c r="G179" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="180">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F180" s="7"/>
       <c r="G180" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="181">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C181" s="5" t="n">
         <v>23</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="182">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C182" s="7" t="n">
         <v>121</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="183">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>172</v>
@@ -5491,16 +5494,16 @@
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="184">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>221</v>
@@ -5508,19 +5511,19 @@
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C185" s="7" t="n">
         <v>111</v>
@@ -5533,9 +5536,9 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="186">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>292</v>
@@ -5551,47 +5554,47 @@
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C187" s="7" t="n">
         <v>3300</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="188">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C188" s="7" t="n">
         <v>8000</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="189">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>172</v>
@@ -5599,16 +5602,16 @@
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="190">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>175</v>
@@ -5616,16 +5619,16 @@
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="191">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>238</v>
@@ -5633,16 +5636,16 @@
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="192">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>123</v>
@@ -5651,54 +5654,54 @@
         <v>1500</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="193">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C193" s="7" t="n">
         <v>2611</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="194">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C194" s="7" t="n">
         <v>2711</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="195">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>221</v>
@@ -5706,87 +5709,87 @@
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="197">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C197" s="7" t="n">
         <v>3721</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="198">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C198" s="7" t="n">
         <v>6100</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="199">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C199" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D199" s="10"/>
       <c r="E199" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="200">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>49</v>
@@ -5794,15 +5797,15 @@
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="201">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>274</v>
@@ -5812,16 +5815,16 @@
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="202">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>474</v>
@@ -5831,16 +5834,16 @@
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="203">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>16</v>
@@ -5848,16 +5851,16 @@
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="204">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>434</v>
@@ -5867,28 +5870,28 @@
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="205">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>172</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F205" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="707">
   <si>
     <t>Hash</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Hashcat Mode</t>
   </si>
   <si>
-    <t>JTR Formats</t>
+    <t>JTR Format</t>
   </si>
   <si>
     <t>Example Hash</t>
@@ -80,6 +80,9 @@
     <t>^{smd5}[a-z0-9$\/.]{31}$/i</t>
   </si>
   <si>
+    <t>aix-smd5</t>
+  </si>
+  <si>
     <t>{smd5}01234567$yOImZPvBC8dg1HjGYfH7j.</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>^{ssha1}[a-z0-9$\/.]{47}$/i</t>
   </si>
   <si>
+    <t>aix-ssha1</t>
+  </si>
+  <si>
     <t>{ssha1}06$0123456789abcdef$pPDynUWwKgFKx8N5CP.d8D5C.wZ</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
     <t>^{ssha256}[a-z0-9$\/.]{63}$/i</t>
   </si>
   <si>
+    <t>aix-ssha256</t>
+  </si>
+  <si>
     <t>{ssha256}06$0123456789abcdef$9zHeDVOh2swHIvL1O9LPvTDeWwv0zbsB5n531R3J.UP</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t>^{ssha512}[0-9]{2}\$[a-z0-9\/.]{16,48}\$[a-z0-9\/.]{86}$/i</t>
   </si>
   <si>
+    <t>aix-ssha512</t>
+  </si>
+  <si>
     <t>{ssha512}06$otYx2eSXx.OkEY4F$71vDkRp8S0GNO96tgcvKDz7y8YYEenW8/mltpQsHuiueaHxSEMl1LMzQZTGQt7w.NLWoyb0WKZZfLuVtFIK...</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
     <t>^\$bcrypt-sha256\$(2[axy]|2)\,[0-9]+\$[a-z0-9\/.]{22}\$[a-z0-9\/.]{31}$/i</t>
   </si>
   <si>
+    <t>bcrypt</t>
+  </si>
+  <si>
     <t>$bcrypt-sha256$2a,12$LrmaIX5x4TRtAwEfwJZa1.$2ehnw6LvuIUTM0iz4iz9hTxv21B6KFO</t>
   </si>
   <si>
@@ -182,7 +197,7 @@
     <t>^_[a-z0-9\/.]{19}$/i</t>
   </si>
   <si>
-    <t>bsdi</t>
+    <t>bsdicrypt</t>
   </si>
   <si>
     <t>_EQ0.jzhSVeUyoSqLupI</t>
@@ -275,6 +290,9 @@
     <t>^[a-f0-9]{49}$/i</t>
   </si>
   <si>
+    <t>citrix_ns10</t>
+  </si>
+  <si>
     <t>14dfca1e6c0f5f3d96526c3ce70849992b7fad3e324cf6b0f</t>
   </si>
   <si>
@@ -554,6 +572,9 @@
     <t>^\$S\$[a-z0-9\/.]{52}$/i</t>
   </si>
   <si>
+    <t>drupal7</t>
+  </si>
+  <si>
     <t>$S$C12345678DZ5MRSrL1r2lsmcx47tViKr9s/gaIJN5ruRSS.X6BRk</t>
   </si>
   <si>
@@ -581,6 +602,9 @@
     <t>^0x[a-f0-9]{60}(\s0x[a-f0-9]{40})?$/i</t>
   </si>
   <si>
+    <t>epi</t>
+  </si>
+  <si>
     <t>0x326C6D7B4E4F794B79474E36704F35723958397163735263516265456E31 0xAFC55E260B8F45C0C6512BCE776C1AD8312B56E6</t>
   </si>
   <si>
@@ -590,6 +614,9 @@
     <t>^\$episerver\$\*0\*[a-z0-9=*+]{52}$/i</t>
   </si>
   <si>
+    <t>episerver</t>
+  </si>
+  <si>
     <t>$episerver$*0*bEtiVGhPNlZpcUN4a3ExTg==*utkfN0EOgljbv5FoZ6+AcZD5iLk</t>
   </si>
   <si>
@@ -656,6 +683,9 @@
     <t>^[a-z0-9=]{47}$/i</t>
   </si>
   <si>
+    <t>fortigate</t>
+  </si>
+  <si>
     <t>AK1AAECAwQFBgcICRARNGqgeC3is8gv2xWWRony9NJnDgEA</t>
   </si>
   <si>
@@ -683,6 +713,9 @@
     <t>^[a-f0-9]{64}$/i</t>
   </si>
   <si>
+    <t>gost</t>
+  </si>
+  <si>
     <t>ce85b99cc46752fffee35cab9a7b0278abb4c2d2055cff685af4912c49490f8d</t>
   </si>
   <si>
@@ -716,6 +749,9 @@
     <t>Haval-128</t>
   </si>
   <si>
+    <t>haval-128-4</t>
+  </si>
+  <si>
     <t>c68f39913f901f3ddf44c707357a7d70</t>
   </si>
   <si>
@@ -749,6 +785,9 @@
     <t>Haval-256</t>
   </si>
   <si>
+    <t>haval-256-3</t>
+  </si>
+  <si>
     <t>4f6938531f0bc8991f62da7bbd6f7de3fad44562b8c6f4ebf146d5b4e46f7c17</t>
   </si>
   <si>
@@ -812,6 +851,9 @@
     <t>^(\$chap\$0\*)?[a-f0-9]{32}[\*:][a-f0-9]{32}(:[0-9]{2})?$/i</t>
   </si>
   <si>
+    <t>chap</t>
+  </si>
+  <si>
     <t>afd09efdd6f8ca9f18ec77c5869788c3:01020304050607080910111213141516:01</t>
   </si>
   <si>
@@ -914,6 +956,9 @@
     <t>LinkedIn</t>
   </si>
   <si>
+    <t>raw-sha1-linkedin</t>
+  </si>
+  <si>
     <t>4d39d3da4fe662e3a4a6a006e450612b55123416</t>
   </si>
   <si>
@@ -1067,6 +1112,9 @@
     <t>^\$oldoffice\$[01]\*[a-f0-9]{32}\*[a-f0-9]{32}\*[a-f0-9]{32}$/i</t>
   </si>
   <si>
+    <t>oldoffice</t>
+  </si>
+  <si>
     <t>$oldoffice$1*04477077758555626246182730342136*b1b72ff351e41a7c68f6b45c4e938bd6*0d95331895e99f73ef8b6fbc4a78ac1a</t>
   </si>
   <si>
@@ -1088,6 +1136,9 @@
     <t>^\$office\$\*2007\*[0-9]{2}\*[0-9]{3}\*[0-9]{2}\*[a-z0-9]{32}\*[a-z0-9]{32}\*[a-z0-9]{40}$/i</t>
   </si>
   <si>
+    <t>office</t>
+  </si>
+  <si>
     <t>$office$*2007*20*128*16*411a51284e0d0200b131a8949aaaa5cc*117d532441c63968bee7647d9b7df7d6*df1d601ccf905b375575108f42ef838fb88e1cde</t>
   </si>
   <si>
@@ -1172,18 +1223,21 @@
     <t>^0x0200[a-f0-9]{136}$/i</t>
   </si>
   <si>
+    <t>msql12</t>
+  </si>
+  <si>
     <t>0x02000102030434ea1b17802fd95ea6316bd61d2c94622ca3812793e8fb1672487b5c904a45a31b2ab4a78890d563d2fcf5663e46fe797d71550494be50cf4915d3f4d55ec375</t>
   </si>
   <si>
     <t>MSSQL(2014)</t>
   </si>
   <si>
+    <t>0x0200F733058A07892C5CACE899768F89965F6BD1DED7955FE89E1C9A10E27849B0B213B5CE92CC9347ECCB34C3EFADAF2FD99BFFECD8D9150DD6AACB5D409A9D2652A4E0AF16</t>
+  </si>
+  <si>
     <t>https://hashcat.net/forum/thread-3282.html</t>
   </si>
   <si>
-    <t>hash needed</t>
-  </si>
-  <si>
     <t>MyBB ≥ v1.2+</t>
   </si>
   <si>
@@ -1406,6 +1460,9 @@
     <t>^\$pbkdf2-sha(1|256|512)\$[0-9]+\$[a-z0-9\/.]{22}\$([a-z0-9\/.]{27}|[a-z0-9\/.]{43}|[a-z0-9\/.]{86})$/i</t>
   </si>
   <si>
+    <t>pbkdf2-hmac-sha256</t>
+  </si>
+  <si>
     <t>$pbkdf2-sha256$6400$0ZrzXitFSGltTQnBWOsdAw$Y11AchqV4b0sUisdZd0Xr97KWoymNE0LNNrnEgY4H9M</t>
   </si>
   <si>
@@ -1427,7 +1484,7 @@
     <t>PHPass' Portable Hash</t>
   </si>
   <si>
-    <t>phpass-md5</t>
+    <t>phpass</t>
   </si>
   <si>
     <t>$P$8ohUJ.1sdFw09/bMaAQPTGDNi2BIUt1</t>
@@ -1481,6 +1538,9 @@
     <t>8500</t>
   </si>
   <si>
+    <t>racf</t>
+  </si>
+  <si>
     <t>$racf$*AAAAAAAA*3c44ee7f409c9a9b</t>
   </si>
   <si>
@@ -1496,6 +1556,9 @@
     <t>9900</t>
   </si>
   <si>
+    <t>radmin</t>
+  </si>
+  <si>
     <t>6d0bb00954ceb7fbee436bb55a8397a9</t>
   </si>
   <si>
@@ -1514,12 +1577,18 @@
     <t>RIPEMD-128</t>
   </si>
   <si>
+    <t>ripemd-128</t>
+  </si>
+  <si>
     <t>cdf26213a150dc3ecb610f18f6b38b46</t>
   </si>
   <si>
     <t>RIPEMD-160</t>
   </si>
   <si>
+    <t>ripemd-160</t>
+  </si>
+  <si>
     <t>9c1185a5c5e9fc54612808977ee8f548b2258d31</t>
   </si>
   <si>
@@ -1637,6 +1706,9 @@
     <t>^\$sha1\$[0-9]+\$[a-z0-9\/.]{0,64}\$[a-z0-9\/.]{28}$/i</t>
   </si>
   <si>
+    <t>sha1crypt</t>
+  </si>
+  <si>
     <t>$sha1$40000$jtNX3nZ2$hBNaIXkt4wBI2o5rsi8KejSjNqIq</t>
   </si>
   <si>
@@ -1676,6 +1748,9 @@
     <t>^\$5\$(rounds=[0-9]+\$)?[a-z0-9\/.]{0,16}\$[a-z0-9\/.]{43}$/i</t>
   </si>
   <si>
+    <t>sha256crypt</t>
+  </si>
+  <si>
     <t>$5$12345678$.HyoD5rKr323EFaYphs1fdfWCCzEk7P6k0DJaT/MJg2</t>
   </si>
   <si>
@@ -1709,6 +1784,9 @@
     <t>^\$6\$(rounds=[0-9]+\$)?[a-z0-9\/.]{0,16}\$[a-z0-9\/.]{86}$/i</t>
   </si>
   <si>
+    <t>sha512crypt</t>
+  </si>
+  <si>
     <t>$6$12345678$QVQOdGAbBeNuQxcdIGKZUFvrf5FWFHOxEqGdQYM6Wzv6h05r45/gcV9xuGJH763.lCwMenMyTVmmXx2j6AZTB0</t>
   </si>
   <si>
@@ -1730,6 +1808,9 @@
     <t>5000</t>
   </si>
   <si>
+    <t>raw-keccak-256</t>
+  </si>
+  <si>
     <t>bc8a27e5be2d4c2ea01f7ff6bc6ae4731d28c993ccf1da2e8bda8f88cffe8f45</t>
   </si>
   <si>
@@ -1742,6 +1823,9 @@
     <t>SHA3-512</t>
   </si>
   <si>
+    <t>raw-keccak</t>
+  </si>
+  <si>
     <t>2d7421aeb3bae997944090ba7e1c1df448dd92af995af28fa58737d2cc0b0ecc955a9c747cd701e70edfe41e8e3d76740700df60926886c540a80cfa76854da5</t>
   </si>
   <si>
@@ -1769,6 +1853,9 @@
     <t>Skein-256</t>
   </si>
   <si>
+    <t>skein-256</t>
+  </si>
+  <si>
     <t>31947ae23c6b0022d6e69280675dd57c385441887c422892c0ba805298408c1d</t>
   </si>
   <si>
@@ -1793,6 +1880,9 @@
     <t>Skein-512</t>
   </si>
   <si>
+    <t>skein-512</t>
+  </si>
+  <si>
     <t>6a7f3568a6dfc8d74f478d787e10617787ea35557a909152c13cdc9ef3e8cce28560269748e0f2d58ea76cad67f70583e821d73220982fa5c9c68809edd43568</t>
   </si>
   <si>
@@ -1850,12 +1940,18 @@
     <t>Snefru-128</t>
   </si>
   <si>
+    <t>snefru-128</t>
+  </si>
+  <si>
     <t>1dc9a09e23a3f8184b8e40f3ad872842</t>
   </si>
   <si>
     <t>Snefru-256</t>
   </si>
   <si>
+    <t>snefru-256</t>
+  </si>
+  <si>
     <t>cce3b171a7ede4c0a2d1a2db832035547226fade66980c7a62bd86c3ec1e82d1</t>
   </si>
   <si>
@@ -1868,12 +1964,18 @@
     <t>SSHA-512(Base64)</t>
   </si>
   <si>
+    <t>ssha512</t>
+  </si>
+  <si>
     <t>Sun MD5 Crypt</t>
   </si>
   <si>
     <t>^(\$md5,rounds=[0-9]+\$|\$md5\$rounds=[0-9]+\$|\$md5\$)[a-z0-9\/.]{0,16}(\$|\$\$)[a-z0-9\/.]{22}$/i</t>
   </si>
   <si>
+    <t>sunmd5</t>
+  </si>
+  <si>
     <t>$md5,rounds=5000$GUBv0xjJ$$mSwgIswdjlTY0YxV7HBVm0</t>
   </si>
   <si>
@@ -1910,6 +2012,9 @@
     <t>Tiger-192</t>
   </si>
   <si>
+    <t>tiger</t>
+  </si>
+  <si>
     <t>9123dc36b0b67ce3e79d0142820f3dc7b3945967b4e7196c</t>
   </si>
   <si>
@@ -1952,6 +2057,9 @@
     <t>^\$vnc\$\*[a-f0-9]{32}\*[a-f0-9]{32}$/i</t>
   </si>
   <si>
+    <t>vnc</t>
+  </si>
+  <si>
     <t>$vnc$*84076F040550EEA9341967633B5F3855*DD96D21781A70DA49443279975404DD0</t>
   </si>
   <si>
@@ -1971,6 +2079,9 @@
   </si>
   <si>
     <t>Whirlpool</t>
+  </si>
+  <si>
+    <t>whirlpool</t>
   </si>
   <si>
     <t>19fa61d75522a4669b44e39c1d2e1726c530232130d407f89afee0964997f7a73e83be698b288febcf88e3e03c4f0757ea8964e59b63d93708b138cc42a66eb3</t>
@@ -2208,8 +2319,8 @@
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B136" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2217,7 +2328,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.5663265306122"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5459183673469"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.1224489795918"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.5255102040816"/>
@@ -2316,12 +2427,14 @@
       <c r="C5" s="7" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
@@ -2329,20 +2442,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>11</v>
@@ -2350,20 +2465,22 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>11</v>
@@ -2371,20 +2488,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
@@ -2392,192 +2511,194 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>8800</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>5800</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>1600</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>3200</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>9200</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>9300</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>2410</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>18</v>
@@ -2585,17 +2706,17 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>5700</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>18</v>
@@ -2603,53 +2724,55 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>2400</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>8100</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>18</v>
@@ -2657,15 +2780,15 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
@@ -2674,15 +2797,15 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
@@ -2691,15 +2814,15 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>18</v>
@@ -2707,7 +2830,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>16</v>
@@ -2715,7 +2838,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
@@ -2724,7 +2847,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>16</v>
@@ -2732,7 +2855,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
@@ -2741,15 +2864,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
@@ -2758,15 +2881,15 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
@@ -2775,65 +2898,65 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>3100</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
@@ -2842,130 +2965,130 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C36" s="6"/>
       <c r="E36" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C37" s="6"/>
       <c r="E37" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C38" s="6"/>
       <c r="E38" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C39" s="6"/>
       <c r="E39" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>10000</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>800</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8" t="s">
@@ -2974,15 +3097,15 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
@@ -2991,75 +3114,75 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C44" s="10" t="n">
         <v>8300</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>1100</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>2100</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C47" s="10" t="n">
         <v>2600</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>18</v>
@@ -3067,17 +3190,17 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C48" s="10" t="n">
         <v>4500</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>18</v>
@@ -3085,17 +3208,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>7900</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="E49" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="8" t="s">
@@ -3104,17 +3229,17 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="8" t="s">
@@ -3123,7 +3248,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>16</v>
@@ -3131,7 +3256,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8" t="s">
@@ -3140,17 +3265,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C52" s="7" t="n">
         <v>123</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>18</v>
@@ -3158,20 +3285,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C53" s="7" t="n">
         <v>141</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="E53" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>11</v>
@@ -3179,20 +3308,20 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C54" s="7" t="n">
         <v>1441</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>11</v>
@@ -3200,31 +3329,31 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8" t="s">
@@ -3233,7 +3362,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>16</v>
@@ -3241,7 +3370,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8" t="s">
@@ -3250,7 +3379,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>16</v>
@@ -3258,7 +3387,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8" t="s">
@@ -3267,7 +3396,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>16</v>
@@ -3275,7 +3404,7 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8" t="s">
@@ -3284,33 +3413,35 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C61" s="7" t="n">
         <v>7000</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="E61" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>18</v>
@@ -3318,19 +3449,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C62" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>18</v>
@@ -3338,7 +3469,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>16</v>
@@ -3346,7 +3477,7 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="8" t="s">
@@ -3355,7 +3486,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>16</v>
@@ -3363,7 +3494,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="8" t="s">
@@ -3372,17 +3503,19 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C65" s="7" t="n">
         <v>6900</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="E65" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="8" t="s">
@@ -3391,51 +3524,51 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C66" s="7" t="n">
         <v>7200</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C67" s="7" t="n">
         <v>5100</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="8" t="s">
@@ -3444,120 +3577,124 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="E69" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+      <c r="D73" s="10" t="s">
+        <v>256</v>
+      </c>
       <c r="E73" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C74" s="10" t="n">
         <v>1421</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C75" s="5" t="n">
         <v>5300</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>11</v>
@@ -3565,20 +3702,20 @@
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C76" s="5" t="n">
         <v>5400</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>11</v>
@@ -3586,17 +3723,17 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C77" s="7" t="n">
         <v>2811</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>18</v>
@@ -3604,17 +3741,17 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C78" s="10" t="n">
         <v>7300</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>18</v>
@@ -3622,25 +3759,27 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C79" s="7" t="n">
         <v>4800</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="E79" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>16</v>
@@ -3648,7 +3787,7 @@
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>18</v>
@@ -3656,76 +3795,76 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C81" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C83" s="7" t="n">
         <v>22</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C84" s="7" t="n">
         <v>7500</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>11</v>
@@ -3733,51 +3872,51 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C85" s="7" t="n">
         <v>6800</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C86" s="7" t="n">
         <v>1711</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8" t="s">
@@ -3786,57 +3925,59 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C88" s="7" t="n">
         <v>190</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E88" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C89" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>18</v>
@@ -3844,19 +3985,19 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>18</v>
@@ -3864,346 +4005,354 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C92" s="5" t="n">
         <v>9100</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C95" s="7" t="n">
         <v>900</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C97" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C98" s="7" t="n">
         <v>1600</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C99" s="7" t="n">
         <v>4800</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="E99" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C102" s="5" t="n">
         <v>9700</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="E102" s="15" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C103" s="5" t="n">
         <v>9800</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C104" s="5" t="n">
         <v>9400</v>
       </c>
+      <c r="D104" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E104" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C105" s="5" t="n">
         <v>9500</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C106" s="5" t="n">
         <v>9600</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C109" s="7" t="n">
         <v>131</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C110" s="7" t="n">
         <v>132</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C111" s="10" t="n">
         <v>132</v>
@@ -4216,17 +4365,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C112" s="7" t="n">
         <v>1731</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="E112" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>18</v>
@@ -4234,96 +4385,98 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C113" s="7" t="n">
         <v>1731</v>
       </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
+      <c r="D113" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="F113" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>388</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C114" s="7" t="n">
         <v>2811</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C115" s="7" t="n">
         <v>200</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="12" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C116" s="7" t="n">
         <v>300</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C117" s="7" t="n">
         <v>300</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="8" t="s">
@@ -4332,17 +4485,17 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C118" s="7" t="n">
         <v>5500</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>18</v>
@@ -4350,17 +4503,17 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="C119" s="7" t="n">
         <v>5600</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>18</v>
@@ -4368,19 +4521,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C120" s="7" t="n">
         <v>101</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>18</v>
@@ -4388,19 +4541,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C121" s="7" t="n">
         <v>111</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>18</v>
@@ -4408,35 +4561,35 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C123" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>18</v>
@@ -4444,75 +4597,75 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C124" s="7" t="n">
         <v>112</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C125" s="7" t="n">
         <v>3100</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C126" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C127" s="7" t="n">
         <v>122</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>18</v>
@@ -4520,17 +4673,17 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="C128" s="7" t="n">
         <v>1722</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>18</v>
@@ -4538,17 +4691,17 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="C129" s="7" t="n">
         <v>7100</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>18</v>
@@ -4556,15 +4709,15 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="8" t="s">
@@ -4573,117 +4726,121 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C131" s="6"/>
       <c r="E131" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
       <c r="E133" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
+      <c r="D134" s="10" t="s">
+        <v>481</v>
+      </c>
       <c r="E134" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C135" s="5" t="n">
         <v>133</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C136" s="7" t="n">
         <v>400</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C137" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="D137" s="7"/>
+      <c r="D137" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="E137" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="8" t="s">
@@ -4692,70 +4849,74 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="C138" s="5" t="n">
         <v>2612</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C139" s="6"/>
       <c r="E139" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="D140" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>507</v>
+      </c>
       <c r="E140" s="7" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="D141" s="10"/>
+        <v>512</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>513</v>
+      </c>
       <c r="E141" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="8" t="s">
@@ -4764,33 +4925,35 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C142" s="7" t="n">
         <v>7600</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
+      <c r="D143" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="E143" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="8" t="s">
@@ -4799,17 +4962,19 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C144" s="7" t="n">
         <v>6000</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="7" t="s">
+        <v>523</v>
+      </c>
       <c r="E144" s="7" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="8" t="s">
@@ -4818,15 +4983,15 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="8" t="s">
@@ -4835,15 +5000,15 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="8" t="s">
@@ -4852,120 +5017,120 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="7" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C150" s="7" t="n">
         <v>7700</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="C151" s="7" t="n">
         <v>7800</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="C153" s="5" t="n">
         <v>8900</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>11</v>
@@ -4973,53 +5138,55 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C154" s="10" t="n">
         <v>100</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
+      <c r="D155" s="10" t="s">
+        <v>563</v>
+      </c>
       <c r="E155" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C156" s="7" t="n">
         <v>101</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>18</v>
@@ -5027,15 +5194,15 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="8" t="s">
@@ -5044,17 +5211,17 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="8" t="s">
@@ -5063,19 +5230,19 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C159" s="7" t="n">
         <v>1400</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="8" t="s">
@@ -5084,37 +5251,37 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="C160" s="7" t="n">
         <v>7400</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>124</v>
+        <v>577</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="8" t="s">
@@ -5123,19 +5290,19 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C162" s="7" t="n">
         <v>1700</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="8" t="s">
@@ -5144,101 +5311,105 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="C163" s="7" t="n">
         <v>1800</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>124</v>
+        <v>589</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="D165" s="10"/>
+        <v>596</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>597</v>
+      </c>
       <c r="E165" s="7" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="7" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
+      <c r="D167" s="10" t="s">
+        <v>602</v>
+      </c>
       <c r="E167" s="7" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="7" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="8" t="s">
@@ -5247,15 +5418,15 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="8" t="s">
@@ -5264,15 +5435,15 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="8" t="s">
@@ -5281,15 +5452,17 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+      <c r="D171" s="10" t="s">
+        <v>612</v>
+      </c>
       <c r="E171" s="7" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="8" t="s">
@@ -5298,15 +5471,15 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="7" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="8" t="s">
@@ -5315,15 +5488,15 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="7" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="F173" s="7"/>
       <c r="G173" s="8" t="s">
@@ -5332,15 +5505,15 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="7" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="8" t="s">
@@ -5349,15 +5522,17 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
+      <c r="D175" s="10" t="s">
+        <v>621</v>
+      </c>
       <c r="E175" s="7" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="F175" s="7"/>
       <c r="G175" s="8" t="s">
@@ -5366,15 +5541,15 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="7" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="8" t="s">
@@ -5383,15 +5558,15 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="7" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="8" t="s">
@@ -5400,15 +5575,15 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="7" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="8" t="s">
@@ -5417,15 +5592,15 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="7" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F179" s="7"/>
       <c r="G179" s="8" t="s">
@@ -5434,15 +5609,15 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="7" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="F180" s="7"/>
       <c r="G180" s="8" t="s">
@@ -5451,34 +5626,34 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="C181" s="5" t="n">
         <v>23</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="C182" s="7" t="n">
         <v>121</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>18</v>
@@ -5486,15 +5661,17 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
+      <c r="D183" s="10" t="s">
+        <v>641</v>
+      </c>
       <c r="E183" s="7" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="8" t="s">
@@ -5503,15 +5680,17 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
+      <c r="D184" s="10" t="s">
+        <v>644</v>
+      </c>
       <c r="E184" s="7" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="8" t="s">
@@ -5520,17 +5699,17 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C185" s="7" t="n">
         <v>111</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>18</v>
@@ -5538,71 +5717,75 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C186" s="7" t="n">
         <v>1711</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="7" t="s">
+        <v>649</v>
+      </c>
       <c r="E186" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="C187" s="7" t="n">
         <v>3300</v>
       </c>
-      <c r="D187" s="7"/>
+      <c r="D187" s="7" t="s">
+        <v>652</v>
+      </c>
       <c r="E187" s="7" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="C188" s="7" t="n">
         <v>8000</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="7" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="8" t="s">
@@ -5611,15 +5794,15 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="7" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="8" t="s">
@@ -5628,15 +5811,17 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
+      <c r="D191" s="10" t="s">
+        <v>665</v>
+      </c>
       <c r="E191" s="7" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="8" t="s">
@@ -5645,37 +5830,37 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C192" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="C193" s="7" t="n">
         <v>2611</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>18</v>
@@ -5683,17 +5868,17 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="C194" s="7" t="n">
         <v>2711</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>18</v>
@@ -5701,15 +5886,15 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="7" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="8" t="s">
@@ -5718,51 +5903,55 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
+      <c r="D196" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="E196" s="7" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="C197" s="7" t="n">
         <v>3721</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C198" s="7" t="n">
         <v>6100</v>
       </c>
-      <c r="D198" s="7"/>
+      <c r="D198" s="7" t="s">
+        <v>688</v>
+      </c>
       <c r="E198" s="7" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="8" t="s">
@@ -5771,51 +5960,51 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="C199" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D199" s="10"/>
       <c r="E199" s="7" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="7" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C201" s="7" t="n">
         <v>400</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="8" t="s">
@@ -5824,17 +6013,19 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C202" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="D202" s="7"/>
+      <c r="D202" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="E202" s="7" t="s">
-        <v>663</v>
+        <v>700</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="8" t="s">
@@ -5843,7 +6034,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
-        <v>664</v>
+        <v>701</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>16</v>
@@ -5851,7 +6042,7 @@
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="7" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="8" t="s">
@@ -5860,17 +6051,17 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C204" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>18</v>
@@ -5878,13 +6069,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="F205" s="7"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="709">
   <si>
     <t>Hash</t>
   </si>
@@ -1028,6 +1028,9 @@
     <t>MD2</t>
   </si>
   <si>
+    <t>^(\$md2\$)?[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
     <t>8350e5a3e24c153df2275c9f80692773</t>
   </si>
   <si>
@@ -1349,7 +1352,7 @@
     <t>Oracle 11g/12c</t>
   </si>
   <si>
-    <t>^S:[a-f0-9]{60}$/i</t>
+    <t>^(S:)?[a-f0-9]{40}(:)?[a-f0-9]{20}$/i</t>
   </si>
   <si>
     <t>oracle11</t>
@@ -1947,6 +1950,9 @@
   </si>
   <si>
     <t>Snefru-256</t>
+  </si>
+  <si>
+    <t>^(\$snefru\$)?[a-f0-9]{64}$/i</t>
   </si>
   <si>
     <t>snefru-256</t>
@@ -2320,7 +2326,7 @@
   <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4041,20 +4047,20 @@
         <v>336</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>178</v>
@@ -4063,38 +4069,38 @@
         <v>900</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>79</v>
@@ -4104,15 +4110,15 @@
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>45</v>
@@ -4130,7 +4136,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>277</v>
@@ -4150,209 +4156,209 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C102" s="5" t="n">
         <v>9700</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C103" s="5" t="n">
         <v>9800</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C104" s="5" t="n">
         <v>9400</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C105" s="5" t="n">
         <v>9500</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C106" s="5" t="n">
         <v>9600</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C109" s="7" t="n">
         <v>131</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C110" s="7" t="n">
         <v>132</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C111" s="10" t="n">
         <v>132</v>
@@ -4365,19 +4371,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C112" s="7" t="n">
         <v>1731</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>18</v>
@@ -4385,46 +4391,46 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C113" s="7" t="n">
         <v>1731</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C114" s="7" t="n">
         <v>2811</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>110</v>
@@ -4433,50 +4439,50 @@
         <v>200</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C116" s="7" t="n">
         <v>300</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C117" s="7" t="n">
         <v>300</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="8" t="s">
@@ -4485,17 +4491,17 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C118" s="7" t="n">
         <v>5500</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>18</v>
@@ -4503,17 +4509,17 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C119" s="7" t="n">
         <v>5600</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>18</v>
@@ -4521,19 +4527,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C120" s="7" t="n">
         <v>101</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>18</v>
@@ -4541,19 +4547,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C121" s="7" t="n">
         <v>111</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>18</v>
@@ -4561,35 +4567,35 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C123" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>18</v>
@@ -4597,27 +4603,27 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C124" s="7" t="n">
         <v>112</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>110</v>
@@ -4627,33 +4633,33 @@
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C126" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>250</v>
@@ -4662,10 +4668,10 @@
         <v>122</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>18</v>
@@ -4673,17 +4679,17 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C128" s="7" t="n">
         <v>1722</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>18</v>
@@ -4691,17 +4697,17 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C129" s="7" t="n">
         <v>7100</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>18</v>
@@ -4709,15 +4715,15 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="8" t="s">
@@ -4726,89 +4732,89 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C131" s="6"/>
       <c r="E131" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
       <c r="E133" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C135" s="5" t="n">
         <v>133</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>288</v>
@@ -4817,30 +4823,30 @@
         <v>400</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C137" s="7" t="n">
         <v>400</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="8" t="s">
@@ -4849,74 +4855,74 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C138" s="5" t="n">
         <v>2612</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C139" s="6"/>
       <c r="E139" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="8" t="s">
@@ -4925,35 +4931,35 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C142" s="7" t="n">
         <v>7600</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="8" t="s">
@@ -4962,7 +4968,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>181</v>
@@ -4971,10 +4977,10 @@
         <v>6000</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="8" t="s">
@@ -4983,7 +4989,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>231</v>
@@ -4991,7 +4997,7 @@
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="8" t="s">
@@ -5000,15 +5006,15 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="8" t="s">
@@ -5017,120 +5023,120 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C150" s="7" t="n">
         <v>7700</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C151" s="7" t="n">
         <v>7800</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C153" s="5" t="n">
         <v>8900</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>11</v>
@@ -5138,7 +5144,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>181</v>
@@ -5147,46 +5153,46 @@
         <v>100</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C156" s="7" t="n">
         <v>101</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>18</v>
@@ -5194,7 +5200,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>250</v>
@@ -5202,7 +5208,7 @@
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="8" t="s">
@@ -5211,17 +5217,17 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="8" t="s">
@@ -5230,7 +5236,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>231</v>
@@ -5239,10 +5245,10 @@
         <v>1400</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="8" t="s">
@@ -5251,37 +5257,37 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C160" s="7" t="n">
         <v>7400</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="8" t="s">
@@ -5290,19 +5296,19 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C162" s="7" t="n">
         <v>1700</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="8" t="s">
@@ -5311,27 +5317,27 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C163" s="7" t="n">
         <v>1800</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>253</v>
@@ -5339,77 +5345,77 @@
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="8" t="s">
@@ -5418,15 +5424,15 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="8" t="s">
@@ -5435,15 +5441,15 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="8" t="s">
@@ -5452,17 +5458,17 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="8" t="s">
@@ -5471,7 +5477,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>178</v>
@@ -5479,7 +5485,7 @@
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="8" t="s">
@@ -5488,7 +5494,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>181</v>
@@ -5496,7 +5502,7 @@
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F173" s="7"/>
       <c r="G173" s="8" t="s">
@@ -5505,7 +5511,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>253</v>
@@ -5513,7 +5519,7 @@
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="8" t="s">
@@ -5522,17 +5528,17 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F175" s="7"/>
       <c r="G175" s="8" t="s">
@@ -5541,7 +5547,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>178</v>
@@ -5549,7 +5555,7 @@
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="8" t="s">
@@ -5558,7 +5564,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>181</v>
@@ -5566,7 +5572,7 @@
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="8" t="s">
@@ -5575,7 +5581,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>253</v>
@@ -5583,7 +5589,7 @@
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="8" t="s">
@@ -5592,7 +5598,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>231</v>
@@ -5600,7 +5606,7 @@
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F179" s="7"/>
       <c r="G179" s="8" t="s">
@@ -5609,15 +5615,15 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F180" s="7"/>
       <c r="G180" s="8" t="s">
@@ -5626,34 +5632,34 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C181" s="5" t="n">
         <v>23</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C182" s="7" t="n">
         <v>121</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>18</v>
@@ -5661,17 +5667,17 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="8" t="s">
@@ -5680,17 +5686,17 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>231</v>
+        <v>645</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="8" t="s">
@@ -5699,17 +5705,17 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C185" s="7" t="n">
         <v>111</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>18</v>
@@ -5717,7 +5723,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>306</v>
@@ -5726,7 +5732,7 @@
         <v>1711</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>307</v>
@@ -5737,47 +5743,47 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C187" s="7" t="n">
         <v>3300</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C188" s="7" t="n">
         <v>8000</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>178</v>
@@ -5785,7 +5791,7 @@
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="8" t="s">
@@ -5794,7 +5800,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>181</v>
@@ -5802,7 +5808,7 @@
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="8" t="s">
@@ -5811,17 +5817,17 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="8" t="s">
@@ -5830,7 +5836,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>129</v>
@@ -5839,10 +5845,10 @@
         <v>1500</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>132</v>
@@ -5850,17 +5856,17 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C193" s="7" t="n">
         <v>2611</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>18</v>
@@ -5868,17 +5874,17 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C194" s="7" t="n">
         <v>2711</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>18</v>
@@ -5886,7 +5892,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>231</v>
@@ -5894,7 +5900,7 @@
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="8" t="s">
@@ -5903,55 +5909,55 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C197" s="7" t="n">
         <v>3721</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C198" s="7" t="n">
         <v>6100</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="8" t="s">
@@ -5960,25 +5966,25 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C199" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D199" s="10"/>
       <c r="E199" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>54</v>
@@ -5986,15 +5992,15 @@
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>288</v>
@@ -6004,7 +6010,7 @@
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="8" t="s">
@@ -6013,19 +6019,19 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C202" s="7" t="n">
         <v>400</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="8" t="s">
@@ -6034,7 +6040,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>16</v>
@@ -6042,7 +6048,7 @@
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="8" t="s">
@@ -6051,17 +6057,17 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C204" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>18</v>
@@ -6069,13 +6075,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F205" s="7"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="713">
   <si>
     <t>Hash</t>
   </si>
@@ -1668,6 +1668,18 @@
   </si>
   <si>
     <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB</t>
+  </si>
+  <si>
+    <t>SAP CODVN H (PWDSALTEDHASH) iSSHA-1 </t>
+  </si>
+  <si>
+    <t>^{x-issha,\s[0-9]{4}}[a-z0-9\/+=]+$/i</t>
+  </si>
+  <si>
+    <t>saph</t>
+  </si>
+  <si>
+    <t>{x-issha, 1024}C0624EvGSdAMCtuWnBBYBGA0chvqAflKY74oEpw/rpY= </t>
   </si>
   <si>
     <t>SCRAM Hash</t>
@@ -2237,13 +2249,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2254,6 +2274,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2262,16 +2286,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2323,44 +2339,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G138" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3928571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.5459183673469"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.5255102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2368,20 +2384,19 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="8" t="n">
         <v>6600</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2389,129 +2404,128 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="8" t="n">
         <v>8200</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="9" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="9" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="9" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="9" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2519,13 +2533,13 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="8" t="n">
         <v>8800</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2533,94 +2547,94 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="9" t="n">
         <v>3200</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2628,13 +2642,13 @@
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="8" t="n">
         <v>9200</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2645,13 +2659,13 @@
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="8" t="n">
         <v>9300</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2659,162 +2673,162 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="9" t="n">
         <v>2410</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="9" t="n">
         <v>5700</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="9" t="n">
         <v>2400</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="9" t="n">
         <v>8100</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2822,170 +2836,170 @@
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="7" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="7" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2993,14 +3007,13 @@
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="8" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3008,14 +3021,13 @@
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3023,14 +3035,13 @@
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3038,14 +3049,13 @@
       <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3053,16 +3063,16 @@
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3070,17 +3080,17 @@
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3088,16 +3098,16 @@
       <c r="A42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3105,16 +3115,16 @@
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="7" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3122,57 +3132,57 @@
       <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="10" t="n">
+      <c r="C44" s="11" t="n">
         <v>8300</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="11"/>
+      <c r="E44" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="9" t="n">
         <v>2100</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3180,17 +3190,17 @@
       <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="10" t="n">
+      <c r="C47" s="11" t="n">
         <v>2600</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3198,138 +3208,138 @@
       <c r="A48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="10" t="n">
+      <c r="C48" s="11" t="n">
         <v>4500</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="9" t="n">
         <v>7900</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="7" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="9" t="n">
         <v>141</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="9" t="n">
         <v>1441</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
         <v>204</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3337,331 +3347,331 @@
       <c r="A55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="7" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="7" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="7" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="7" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="7" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="7" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="9" t="n">
         <v>7000</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="7" t="n">
+      <c r="C62" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="7" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="7" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C65" s="7" t="n">
+      <c r="C65" s="9" t="n">
         <v>6900</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C66" s="7" t="n">
+      <c r="C66" s="9" t="n">
         <v>7200</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="7" t="n">
+      <c r="C67" s="9" t="n">
         <v>5100</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="7" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8" t="s">
+      <c r="F68" s="9"/>
+      <c r="G68" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="7" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="7" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="7" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3669,79 +3679,77 @@
       <c r="A74" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="10" t="n">
+      <c r="C74" s="11" t="n">
         <v>1421</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="9" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="5" t="n">
+      <c r="C75" s="8" t="n">
         <v>5300</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" s="8" t="n">
         <v>5400</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="7" t="n">
+      <c r="C77" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3749,263 +3757,263 @@
       <c r="A78" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C78" s="10" t="n">
+      <c r="C78" s="11" t="n">
         <v>7300</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="7" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C79" s="7" t="n">
+      <c r="C79" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="7" t="s">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="7" t="n">
+      <c r="C81" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="7" t="n">
+      <c r="C83" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="7" t="n">
+      <c r="C84" s="9" t="n">
         <v>7500</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C85" s="7" t="n">
+      <c r="C85" s="9" t="n">
         <v>6800</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C86" s="7" t="n">
+      <c r="C86" s="9" t="n">
         <v>1711</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="7" t="s">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8" t="s">
+      <c r="F87" s="9"/>
+      <c r="G87" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="7" t="n">
+      <c r="C88" s="9" t="n">
         <v>190</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="7" t="n">
+      <c r="C89" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4013,197 +4021,197 @@
       <c r="A92" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="8" t="n">
         <v>9100</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="7" t="s">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="9" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="7" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="7" t="n">
+      <c r="C95" s="9" t="n">
         <v>900</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="9" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="7" t="n">
+      <c r="C97" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="9" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="7" t="n">
+      <c r="C98" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7" t="s">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C99" s="7" t="n">
+      <c r="C99" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="7" t="s">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C102" s="5" t="n">
+      <c r="C102" s="8" t="n">
         <v>9700</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="16" t="s">
         <v>367</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -4211,16 +4219,16 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C103" s="5" t="n">
+      <c r="C103" s="8" t="n">
         <v>9800</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="8" t="s">
         <v>371</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -4231,16 +4239,16 @@
       <c r="A104" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C104" s="5" t="n">
+      <c r="C104" s="8" t="n">
         <v>9400</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="9" t="s">
         <v>375</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -4251,13 +4259,13 @@
       <c r="A105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C105" s="5" t="n">
+      <c r="C105" s="8" t="n">
         <v>9500</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="17" t="s">
         <v>378</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -4268,13 +4276,13 @@
       <c r="A106" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="8" t="n">
         <v>9600</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="8" t="s">
         <v>381</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -4282,498 +4290,496 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="7" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="9" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="7" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C109" s="7" t="n">
+      <c r="C109" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="9" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C110" s="7" t="n">
+      <c r="C110" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="9" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C111" s="10" t="n">
+      <c r="C111" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="7"/>
-      <c r="G111" s="8" t="s">
+      <c r="D111" s="11"/>
+      <c r="E111" s="9"/>
+      <c r="G111" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C112" s="7" t="n">
+      <c r="C112" s="9" t="n">
         <v>1731</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C113" s="7" t="n">
+      <c r="C113" s="9" t="n">
         <v>1731</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C114" s="7" t="n">
+      <c r="C114" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7" t="s">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="7" t="n">
+      <c r="C115" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="9" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C116" s="7" t="n">
+      <c r="C116" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="9" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C117" s="7" t="n">
+      <c r="C117" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8" t="s">
+      <c r="F117" s="9"/>
+      <c r="G117" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C118" s="7" t="n">
+      <c r="C118" s="9" t="n">
         <v>5500</v>
       </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7" t="s">
+      <c r="D118" s="9"/>
+      <c r="E118" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G118" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C119" s="7" t="n">
+      <c r="C119" s="9" t="n">
         <v>5600</v>
       </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7" t="s">
+      <c r="D119" s="9"/>
+      <c r="E119" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C120" s="7" t="n">
+      <c r="C120" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C121" s="7" t="n">
+      <c r="C121" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="7" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="9" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C123" s="7" t="n">
+      <c r="C123" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="7" t="n">
+      <c r="C124" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="9" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="7" t="n">
+      <c r="C125" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7" t="s">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="9" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C126" s="7" t="n">
+      <c r="C126" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7" t="s">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="9" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="7" t="n">
+      <c r="C127" s="9" t="n">
         <v>122</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G127" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C128" s="7" t="n">
+      <c r="C128" s="9" t="n">
         <v>1722</v>
       </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7" t="s">
+      <c r="D128" s="9"/>
+      <c r="E128" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C129" s="7" t="n">
+      <c r="C129" s="9" t="n">
         <v>7100</v>
       </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7" t="s">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="7" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F130" s="7"/>
-      <c r="G130" s="8" t="s">
+      <c r="F130" s="9"/>
+      <c r="G130" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="7" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="9" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="7" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="9" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4781,17 +4787,17 @@
       <c r="A134" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="9" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4799,36 +4805,36 @@
       <c r="A135" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C135" s="5" t="n">
+      <c r="C135" s="8" t="n">
         <v>133</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="8" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C136" s="7" t="n">
+      <c r="C136" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="9" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4836,20 +4842,20 @@
       <c r="A137" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C137" s="7" t="n">
+      <c r="C137" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="8" t="s">
+      <c r="F137" s="9"/>
+      <c r="G137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4857,19 +4863,19 @@
       <c r="A138" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C138" s="5" t="n">
+      <c r="C138" s="8" t="n">
         <v>2612</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="9" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4877,1213 +4883,1228 @@
       <c r="A139" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="8" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="9" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="F141" s="7"/>
-      <c r="G141" s="8" t="s">
+      <c r="F141" s="9"/>
+      <c r="G141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C142" s="7" t="n">
+      <c r="C142" s="9" t="n">
         <v>7600</v>
       </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7" t="s">
+      <c r="D142" s="9"/>
+      <c r="E142" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="9" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10" t="s">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="F143" s="7"/>
-      <c r="G143" s="8" t="s">
+      <c r="F143" s="9"/>
+      <c r="G143" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C144" s="7" t="n">
+      <c r="C144" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="8" t="s">
+      <c r="F144" s="9"/>
+      <c r="G144" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="7" t="s">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="8" t="s">
+      <c r="F145" s="9"/>
+      <c r="G145" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="7" t="s">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="8" t="s">
+      <c r="F146" s="9"/>
+      <c r="G146" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="7" t="s">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="9" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="7" t="s">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="9" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="7" t="s">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" s="9" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C150" s="7" t="n">
+      <c r="C150" s="9" t="n">
         <v>7700</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="9" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C151" s="7" t="n">
+      <c r="C151" s="9" t="n">
         <v>7800</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" s="9" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="s">
+    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="7" t="s">
+      <c r="C152" s="15" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="E152" s="14" t="s">
         <v>554</v>
       </c>
+      <c r="G152" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C153" s="5" t="n">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C154" s="8" t="n">
         <v>8900</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G153" s="8" t="s">
+      <c r="E154" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C154" s="10" t="n">
+      <c r="C155" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="D154" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="D155" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10" t="s">
+      <c r="E155" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="F155" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="F155" s="7" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="10" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="s">
+      <c r="B156" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C156" s="7" t="n">
+      <c r="C157" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7" t="s">
+      <c r="D157" s="9"/>
+      <c r="E157" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="G156" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="G157" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B158" s="7" t="s">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F158" s="9"/>
+      <c r="G158" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F159" s="9"/>
+      <c r="G159" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C159" s="7" t="n">
+      <c r="C160" s="9" t="n">
         <v>1400</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="C160" s="7" t="n">
+      <c r="D160" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F160" s="9"/>
+      <c r="G160" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C161" s="9" t="n">
         <v>7400</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B161" s="7" t="s">
+      <c r="D161" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10" t="s">
+      <c r="E161" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="F161" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F162" s="9"/>
+      <c r="G162" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C162" s="7" t="n">
+      <c r="C163" s="9" t="n">
         <v>1700</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F163" s="9"/>
+      <c r="G163" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C164" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="F162" s="7"/>
-      <c r="G162" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C163" s="7" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="B164" s="7" t="s">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="F169" s="9"/>
+      <c r="G169" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F170" s="9"/>
+      <c r="G170" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F171" s="9"/>
+      <c r="G171" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F174" s="9"/>
+      <c r="G174" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B165" s="7" t="s">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F175" s="9"/>
+      <c r="G175" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F176" s="9"/>
+      <c r="G176" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F177" s="9"/>
+      <c r="G177" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F178" s="9"/>
+      <c r="G178" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F179" s="9"/>
+      <c r="G179" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="B167" s="7" t="s">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F180" s="9"/>
+      <c r="G180" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F181" s="9"/>
+      <c r="G181" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C182" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C183" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F184" s="9"/>
+      <c r="G184" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="F185" s="9"/>
+      <c r="G185" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C186" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C187" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C188" s="9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C189" s="9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="F190" s="9"/>
+      <c r="G190" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="F191" s="9"/>
+      <c r="G191" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="F192" s="9"/>
+      <c r="G192" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" s="9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C194" s="9" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C195" s="9" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="F196" s="9"/>
+      <c r="G196" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C198" s="9" t="n">
+        <v>3721</v>
+      </c>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="F168" s="7"/>
-      <c r="G168" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F170" s="7"/>
-      <c r="G170" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="F172" s="7"/>
-      <c r="G172" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="F173" s="7"/>
-      <c r="G173" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="F174" s="7"/>
-      <c r="G174" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F175" s="7"/>
-      <c r="G175" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F176" s="7"/>
-      <c r="G176" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="F177" s="7"/>
-      <c r="G177" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="F179" s="7"/>
-      <c r="G179" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C181" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="C182" s="7" t="n">
-        <v>121</v>
-      </c>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="F183" s="7"/>
-      <c r="G183" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="F184" s="7"/>
-      <c r="G184" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="C185" s="7" t="n">
-        <v>111</v>
-      </c>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G185" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C186" s="7" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C187" s="7" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C188" s="7" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F190" s="7"/>
-      <c r="G190" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F191" s="7"/>
-      <c r="G191" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C192" s="7" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="C193" s="7" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C194" s="7" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C197" s="7" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C198" s="7" t="n">
+      <c r="C199" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="D198" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F198" s="7"/>
-      <c r="G198" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C199" s="10" t="n">
+      <c r="D199" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="F199" s="9"/>
+      <c r="G199" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C200" s="11" t="n">
         <v>8400</v>
       </c>
-      <c r="D199" s="10"/>
-      <c r="E199" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="B200" s="7" t="s">
+      <c r="D200" s="11"/>
+      <c r="E200" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C201" s="7" t="n">
-        <v>400</v>
-      </c>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="F201" s="7"/>
-      <c r="G201" s="8" t="s">
-        <v>18</v>
+      <c r="E201" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B202" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C202" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F202" s="9"/>
+      <c r="G202" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C202" s="7" t="n">
+      <c r="C203" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D203" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E202" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="F202" s="7"/>
-      <c r="G202" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="B203" s="7" t="s">
+      <c r="E203" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F203" s="9"/>
+      <c r="G203" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="F203" s="7"/>
-      <c r="G203" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="B204" s="7" t="s">
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="F204" s="9"/>
+      <c r="G204" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C204" s="7" t="n">
+      <c r="C205" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B205" s="7" t="s">
+      <c r="D205" s="9"/>
+      <c r="E205" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E205" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="F205" s="7"/>
+      <c r="E206" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="F206" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="717">
   <si>
     <t>Hash</t>
   </si>
@@ -182,7 +182,7 @@
     <t>^(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/.]{53}$/i</t>
   </si>
   <si>
-    <t>bf</t>
+    <t>bcrypt </t>
   </si>
   <si>
     <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
@@ -257,6 +257,9 @@
     <t>^\$1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}(:.*)?$/i</t>
   </si>
   <si>
+    <t>md5crypt </t>
+  </si>
+  <si>
     <t>$1$28772684$iEwNOgGugqO9.bIz5sk8k/</t>
   </si>
   <si>
@@ -407,7 +410,7 @@
     <t>^[a-z0-9\/.]{13}$/i</t>
   </si>
   <si>
-    <t>crypt</t>
+    <t>descrypt </t>
   </si>
   <si>
     <t>G8n0KRCTGO8SY</t>
@@ -692,9 +695,6 @@
     <t>FreeBSD MD5</t>
   </si>
   <si>
-    <t>md5</t>
-  </si>
-  <si>
     <t>GHash-32-3</t>
   </si>
   <si>
@@ -914,6 +914,9 @@
     <t>^\$krb5pa\$23\$user\$realm\$salt\$[a-f0-9]{104}$/i</t>
   </si>
   <si>
+    <t>krb5pa-md5 </t>
+  </si>
+  <si>
     <t>$krb5pa$23$user$realm$salt$034acfc70afba542690b8bc912fcd7fed6a848493a3ff0d7af641a263b71dcc72902995df4085ba458b733d8092e6b348e3e3990</t>
   </si>
   <si>
@@ -1301,6 +1304,9 @@
     <t>^[^\\\/:*?"&lt;&gt;|]{1,20}::[^\\\/:*?"&lt;&gt;|]{1,20}:[a-f0-9]{16}:[a-f0-9]{32}:[a-f0-9]+$/i</t>
   </si>
   <si>
+    <t>netntlmv2 </t>
+  </si>
+  <si>
     <t>admin::N46iSNekpT:08ca45b7d7ea58ee:88dcbe4446168966a153a0064958dac6:5c7830315c7830310000000000000b45c67103d07d7b95acd12ffa11230e0000000052920b85f78d013c31cdb3b92f5d765c783030</t>
   </si>
   <si>
@@ -1400,6 +1406,9 @@
     <t>^[a-f0-9]{136}$/i</t>
   </si>
   <si>
+    <t>xsha512 </t>
+  </si>
+  <si>
     <t>648742485c9b0acd786a233b2330197223118111b481abfa0ab8b3e8ede5f014fc7c523991c007db6882680b09962d16fd9c45568260531bdb34804a5e31c22b4cfeb32d</t>
   </si>
   <si>
@@ -1409,6 +1418,9 @@
     <t>^\$ml\$[0-9]+\$[a-f0-9]{64}\$[a-f0-9]{128}$/i</t>
   </si>
   <si>
+    <t>pbkdf2-hmac-sha512 </t>
+  </si>
+  <si>
     <t>$ml$35460$93a94bd24b5de64d79a5e49fa372827e739f4d7b6975c752c9a0ff1e5cf72e05$752351df64dd2ce9dc9c64a72ad91de6581a15c19176266b44d98919dfa81f0f96cbcb20a1ffb400718c20382030f637892f776627d34e021bad4f81b7de8222</t>
   </si>
   <si>
@@ -1670,7 +1682,7 @@
     <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB</t>
   </si>
   <si>
-    <t>SAP CODVN H (PWDSALTEDHASH) iSSHA-1 </t>
+    <t>SAP CODVN H (PWDSALTEDHASH) iSSHA-1</t>
   </si>
   <si>
     <t>^{x-issha,\s[0-9]{4}}[a-z0-9\/+=]+$/i</t>
@@ -1679,7 +1691,7 @@
     <t>saph</t>
   </si>
   <si>
-    <t>{x-issha, 1024}C0624EvGSdAMCtuWnBBYBGA0chvqAflKY74oEpw/rpY= </t>
+    <t>{x-issha, 1024}C0624EvGSdAMCtuWnBBYBGA0chvqAflKY74oEpw/rpY=</t>
   </si>
   <si>
     <t>SCRAM Hash</t>
@@ -1733,6 +1745,9 @@
     <t>SHA-1(Base64)</t>
   </si>
   <si>
+    <t>nsldap </t>
+  </si>
+  <si>
     <t>SHA-1(Oracle)</t>
   </si>
   <si>
@@ -2037,9 +2052,6 @@
   </si>
   <si>
     <t>Traditional DES</t>
-  </si>
-  <si>
-    <t>des</t>
   </si>
   <si>
     <t>JQMuyS6H.AGMo</t>
@@ -2298,16 +2310,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2341,8 +2353,8 @@
   </sheetPr>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G138" activeCellId="0" sqref="G:G"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2350,7 +2362,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3928571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.5204081632653"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.1224489795918"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.5255102040816"/>
@@ -2380,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
@@ -2610,7 +2622,7 @@
       <c r="C13" s="9" t="n">
         <v>3200</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -2620,8 +2632,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2638,7 +2650,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
@@ -2716,9 +2728,11 @@
       <c r="C19" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="E19" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>18</v>
@@ -2726,73 +2740,73 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="9" t="n">
         <v>5700</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="9" t="n">
         <v>2400</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="9" t="n">
         <v>8100</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>18</v>
@@ -2800,15 +2814,15 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="3" t="s">
@@ -2817,15 +2831,15 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="3" t="s">
@@ -2834,15 +2848,15 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>18</v>
@@ -2850,7 +2864,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>16</v>
@@ -2858,7 +2872,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="3" t="s">
@@ -2867,7 +2881,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>16</v>
@@ -2875,7 +2889,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="3" t="s">
@@ -2884,15 +2898,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="3" t="s">
@@ -2901,210 +2915,210 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>3100</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>128</v>
+    <row r="35" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>130</v>
+      <c r="D35" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" s="9" t="n">
         <v>800</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="3" t="s">
@@ -3113,92 +3127,92 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" s="11" t="n">
         <v>8300</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" s="9" t="n">
         <v>2100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>2600</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>18</v>
@@ -3206,17 +3220,17 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" s="11" t="n">
         <v>4500</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>18</v>
@@ -3224,19 +3238,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" s="9" t="n">
         <v>7900</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="3" t="s">
@@ -3245,17 +3259,17 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="3" t="s">
@@ -3264,7 +3278,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>16</v>
@@ -3272,7 +3286,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="3" t="s">
@@ -3281,19 +3295,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C52" s="9" t="n">
         <v>123</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>18</v>
@@ -3301,22 +3315,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" s="9" t="n">
         <v>141</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>11</v>
@@ -3324,52 +3338,52 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" s="9" t="n">
         <v>1441</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="3" t="s">
@@ -3378,7 +3392,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>16</v>
@@ -3386,7 +3400,7 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="3" t="s">
@@ -3395,7 +3409,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>16</v>
@@ -3403,7 +3417,7 @@
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="3" t="s">
@@ -3412,7 +3426,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>16</v>
@@ -3420,52 +3434,52 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C61" s="9" t="n">
         <v>7000</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>79</v>
@@ -3473,11 +3487,11 @@
       <c r="C62" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>225</v>
+      <c r="D62" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>18</v>
@@ -3538,7 +3552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
         <v>234</v>
       </c>
@@ -3556,12 +3570,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
         <v>238</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" s="9" t="n">
         <v>5100</v>
@@ -3579,7 +3593,7 @@
         <v>241</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -3591,12 +3605,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
@@ -3609,12 +3623,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
         <v>247</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3625,7 +3639,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
         <v>249</v>
       </c>
@@ -3641,7 +3655,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
         <v>252</v>
       </c>
@@ -3657,7 +3671,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
         <v>255</v>
       </c>
@@ -3675,7 +3689,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>258</v>
       </c>
@@ -3695,8 +3709,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
+    <row r="75" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="s">
         <v>263</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -3715,8 +3729,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
+    <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="s">
         <v>267</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -3736,7 +3750,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -3771,7 +3785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
         <v>276</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
         <v>283</v>
       </c>
@@ -3825,7 +3839,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
         <v>287</v>
       </c>
@@ -3843,7 +3857,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
         <v>292</v>
       </c>
@@ -3863,7 +3877,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
         <v>297</v>
       </c>
@@ -3873,125 +3887,127 @@
       <c r="C84" s="9" t="n">
         <v>7500</v>
       </c>
-      <c r="D84" s="9"/>
+      <c r="D84" s="12" t="s">
+        <v>299</v>
+      </c>
       <c r="E84" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C85" s="9" t="n">
         <v>6800</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C86" s="9" t="n">
         <v>1711</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C88" s="9" t="n">
         <v>190</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>18</v>
@@ -3999,116 +4015,116 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C92" s="8" t="n">
         <v>9100</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C95" s="9" t="n">
         <v>900</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>79</v>
@@ -4116,17 +4132,19 @@
       <c r="C97" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D97" s="9"/>
+      <c r="D97" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="E97" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>45</v>
@@ -4142,9 +4160,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>277</v>
@@ -4162,211 +4180,211 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
         <v>364</v>
       </c>
+    </row>
+    <row r="102" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="s">
+        <v>365</v>
+      </c>
       <c r="B102" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C102" s="8" t="n">
         <v>9700</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
         <v>369</v>
       </c>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="12" t="s">
+        <v>370</v>
+      </c>
       <c r="B103" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C103" s="8" t="n">
         <v>9800</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C104" s="8" t="n">
         <v>9400</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C105" s="8" t="n">
         <v>9500</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C106" s="8" t="n">
         <v>9600</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C109" s="9" t="n">
         <v>131</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C110" s="9" t="n">
         <v>132</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C111" s="11" t="n">
         <v>132</v>
@@ -4379,117 +4397,117 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C112" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="C113" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C114" s="9" t="n">
         <v>2811</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C115" s="9" t="n">
         <v>200</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="s">
         <v>416</v>
       </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="14" t="s">
+        <v>417</v>
+      </c>
       <c r="B116" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C116" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C117" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="3" t="s">
@@ -4498,35 +4516,37 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C118" s="9" t="n">
         <v>5500</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C119" s="9" t="n">
         <v>5600</v>
       </c>
-      <c r="D119" s="9"/>
+      <c r="D119" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="E119" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>18</v>
@@ -4534,19 +4554,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>18</v>
@@ -4554,119 +4574,119 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C121" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C123" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C124" s="9" t="n">
         <v>112</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C125" s="9" t="n">
         <v>3100</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C126" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>250</v>
@@ -4675,46 +4695,50 @@
         <v>122</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C128" s="9" t="n">
         <v>1722</v>
       </c>
-      <c r="D128" s="9"/>
+      <c r="D128" s="12" t="s">
+        <v>463</v>
+      </c>
       <c r="E128" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C129" s="9" t="n">
         <v>7100</v>
       </c>
-      <c r="D129" s="9"/>
+      <c r="D129" s="12" t="s">
+        <v>467</v>
+      </c>
       <c r="E129" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>18</v>
@@ -4722,105 +4746,105 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C135" s="8" t="n">
         <v>133</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>288</v>
@@ -4829,142 +4853,142 @@
         <v>400</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C137" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C138" s="8" t="n">
         <v>2612</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C142" s="9" t="n">
         <v>7600</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="3" t="s">
@@ -4973,19 +4997,19 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C144" s="9" t="n">
         <v>6000</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="3" t="s">
@@ -4994,7 +5018,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>231</v>
@@ -5002,7 +5026,7 @@
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="3" t="s">
@@ -5011,213 +5035,215 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="9" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="9" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="9" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="9" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C150" s="9" t="n">
         <v>7700</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C151" s="9" t="n">
         <v>7800</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E151" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C152" s="15" t="n">
         <v>10300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="9" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C154" s="8" t="n">
         <v>8900</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C155" s="11" t="n">
         <v>100</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C157" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D157" s="9"/>
+      <c r="D157" s="12" t="s">
+        <v>576</v>
+      </c>
       <c r="E157" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>18</v>
@@ -5225,7 +5251,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>250</v>
@@ -5233,7 +5259,7 @@
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="9" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="3" t="s">
@@ -5242,17 +5268,17 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>253</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="3" t="s">
@@ -5261,7 +5287,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>231</v>
@@ -5270,49 +5296,49 @@
         <v>1400</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C161" s="9" t="n">
         <v>7400</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="3" t="s">
@@ -5321,124 +5347,124 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C163" s="9" t="n">
         <v>1700</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C164" s="9" t="n">
         <v>1800</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>253</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="9" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="9" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="3" t="s">
@@ -5447,15 +5473,15 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="9" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="3" t="s">
@@ -5464,15 +5490,15 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="9" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="3" t="s">
@@ -5481,17 +5507,17 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="3" t="s">
@@ -5500,15 +5526,15 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="9" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="3" t="s">
@@ -5517,15 +5543,15 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="9" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="3" t="s">
@@ -5534,7 +5560,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>253</v>
@@ -5542,7 +5568,7 @@
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="9" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="3" t="s">
@@ -5551,17 +5577,17 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="3" t="s">
@@ -5570,15 +5596,15 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="9" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="3" t="s">
@@ -5587,15 +5613,15 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="9" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="3" t="s">
@@ -5604,7 +5630,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>253</v>
@@ -5612,7 +5638,7 @@
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="9" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="3" t="s">
@@ -5621,7 +5647,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>231</v>
@@ -5629,7 +5655,7 @@
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="9" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="3" t="s">
@@ -5638,51 +5664,51 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="9" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C182" s="8" t="n">
         <v>23</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C183" s="9" t="n">
         <v>121</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>18</v>
@@ -5690,17 +5716,17 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="3" t="s">
@@ -5709,17 +5735,17 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="3" t="s">
@@ -5728,93 +5754,93 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C186" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C187" s="9" t="n">
         <v>1711</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C188" s="9" t="n">
         <v>3300</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C189" s="9" t="n">
         <v>8000</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="9" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="3" t="s">
@@ -5823,15 +5849,15 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="9" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="3" t="s">
@@ -5840,56 +5866,56 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C193" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D193" s="9" t="s">
-        <v>674</v>
+      <c r="D193" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C194" s="9" t="n">
         <v>2611</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>18</v>
@@ -5897,17 +5923,17 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C195" s="9" t="n">
         <v>2711</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>18</v>
@@ -5915,7 +5941,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>231</v>
@@ -5923,105 +5949,105 @@
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="9" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C198" s="9" t="n">
         <v>3721</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C199" s="9" t="n">
         <v>6100</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C200" s="11" t="n">
         <v>8400</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="9" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>288</v>
@@ -6031,7 +6057,7 @@
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="3" t="s">
@@ -6040,19 +6066,19 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C203" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="3" t="s">
@@ -6061,7 +6087,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>16</v>
@@ -6069,7 +6095,7 @@
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="9" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="3" t="s">
@@ -6078,17 +6104,17 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C205" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>18</v>
@@ -6096,13 +6122,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F206" s="9"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="733">
   <si>
     <t>Hash</t>
   </si>
@@ -71,198 +71,198 @@
     <t>08950272</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Adler-32</t>
+  </si>
+  <si>
+    <t>AIX(smd5)</t>
+  </si>
+  <si>
+    <t>^{smd5}[a-z0-9$\/.]{31}$/i</t>
+  </si>
+  <si>
+    <t>aix-smd5</t>
+  </si>
+  <si>
+    <t>{smd5}01234567$yOImZPvBC8dg1HjGYfH7j.</t>
+  </si>
+  <si>
+    <t>http://hashcat.net/forum/thread-2247-post-13532.html#pid13532</t>
+  </si>
+  <si>
+    <t>AIX(ssha1)</t>
+  </si>
+  <si>
+    <t>^{ssha1}[a-z0-9$\/.]{47}$/i</t>
+  </si>
+  <si>
+    <t>aix-ssha1</t>
+  </si>
+  <si>
+    <t>{ssha1}06$0123456789abcdef$pPDynUWwKgFKx8N5CP.d8D5C.wZ</t>
+  </si>
+  <si>
+    <t>AIX(ssha256)</t>
+  </si>
+  <si>
+    <t>^{ssha256}[a-z0-9$\/.]{63}$/i</t>
+  </si>
+  <si>
+    <t>aix-ssha256</t>
+  </si>
+  <si>
+    <t>{ssha256}06$0123456789abcdef$9zHeDVOh2swHIvL1O9LPvTDeWwv0zbsB5n531R3J.UP</t>
+  </si>
+  <si>
+    <t>AIX(ssha512)</t>
+  </si>
+  <si>
+    <t>^{ssha512}[0-9]{2}\$[a-z0-9\/.]{16,48}\$[a-z0-9\/.]{86}$/i</t>
+  </si>
+  <si>
+    <t>aix-ssha512</t>
+  </si>
+  <si>
+    <t>{ssha512}06$otYx2eSXx.OkEY4F$71vDkRp8S0GNO96tgcvKDz7y8YYEenW8/mltpQsHuiueaHxSEMl1LMzQZTGQt7w.NLWoyb0WKZZfLuVtFIK...</t>
+  </si>
+  <si>
+    <t>Android FDE ≤ 4.3</t>
+  </si>
+  <si>
+    <t>^\$fde\$[0-9]{2}\$[a-f0-9]{32}\$[0-9]{2}\$[a-f0-9]{32}\$[a-f0-9]{3072}$/i</t>
+  </si>
+  <si>
+    <t>$fde$16$ca56e82e7b5a9c2fc1e3b5a7d671c2f9$16$7c124af19ac913be0fc137b75a34b20d$eac806ae7277c8d48243d52a8644fa57a817317bd3457f94dca727964cbc27c88296954f289597a9de3314a4e9d9f28dce70cf9ce3e1c3c0c6fc041687a0ad3cb333d4449bc9da8fcc7d5f85948a7ac3bc6d34f505e9d0d91da4396e35840bde3465ad11c5086c89ee6db68d65e47a2e5413f272caa01e02224e5ff3dc3bed3953a702e85e964e562e62f5c97a2df6c47547bfb5aeeb329ff8f9c9666724d399043fe970c8b282b45e93d008333f3b4edd5eb147bd023ed18ac1f9f75a6cd33444b507694c64e1e98a964b48c0a77276e9930250d01801813c235169a7b1952891c63ce0d462abc688bd96c0337174695a957858b4c9fd277d04abe8a0c2c5def4b352ba29410f8dbec91bcb2ca2b8faf26d44f02340b3373bc94e7487ce014e6adfbf7edfdd2057225f8aeb324c9d1be877c6ae4211ae387e07bf2a056984d2ed2815149b3e9cf9fbfae852f7dd5906c2b86e7910c0d7755ef5bcc39f0e135bf546c839693dc4af3e50b8382c7c8c754d4ee218fa85d70ee0a5707a9f827209a7ddb6c2fb9431a61c9775112cc88aa2a34f97c2f53dfce082aa0758917269a5fc30049ceab67d3efd721fee021ffca979f839b4f052e27f5c382c0dd5c02fd39fbc9b26e04bf9e051d1923eff9a7cde3244902bb8538b1b9f11631def5aad7c21d2113bcdc989b771ff6bf220f94354034dd417510117b55a669e969fc3bc6c5dcd4741b8313bf7d999dc94d4949f27eec0cd06f906c17a80d09f583a5dd601854832673b78d125a2c5ad0352932be7b93c611fee8c6049670442d8c532674f3d21d45d3d009211d2a9e6568252ac4682982172cb43e7c6b05e85851787ad90e25b77cce3f7968d455f92653a1d3790bc50e5f6e1f743ac47275ffa8e81bbe832a8d7d78d5d5a7c73f95703aebb355849ae566492093bd9cb51070f39c69bb4e22b99cc0e60e96d048385bb69f1c44a3b79547fbc19a873a632f43f05fa2d8a6f9155e59d153e2851b739c42444018b8c4e09a93be43570834667d0b5a5d2a53b1572dab3e750b3f9e641e303559bace06612fbd451a5e822201442828e79168c567a85d8c024cd8ce32bf650105b1af98cc5428675f4f4bbede37a0ef98d1533a8a6dcb27d87a2b799f18706f4677edaa0411becac4c591ede83993aedba660d1dd67f6c4a5c141ad3e6e0c77730cb0ecbf4f4bd8ef6067e05ca3bc563d9e1554a893fea0050bdd1733c883f533f87eac39cceee0ccf817fc1f19bcfdd13e9f241b89bfb149b509e9a0747658438536b6705514cc6d6bb3c64c903e4710435d8bebc35297d1ebbdff8074b203f37d1910d8b4637e4d3dab997f4aa378a7a67c79e698a11e83d0d7e759d0e7969c4f5408168b282fe28d3279ec1d4cc6f85a0f8e5d01f21c7508a69773c44167ff8d467d0801f9ec54f9ee2496d4e7e470214abc1ca11355bb18cd23273aac6b05b47f9e301b42b137a2455758c24e2716dcd2e55bbeb780f592e664e7392bf6eccb80959f24c8800816c84f2575e82e1f3559c33a5be7a3a0c843c2989f486b113d5eeada007caf6b5a0f6d71e2f5c09a4def57c7057168051868317a9ec790d570d76a0d21a45ad951c475db5a66101475871147c5a5907ec4e6b14128ed6695bb73c1c97952e96826eeb6003aa13462093e4afc209627241f03b0247e110fbab983640423b7cdf112e01579fed68c80ac7df7449d9d2114b9ae5539c03c2037be45c5f74e7357b25c6a24b7bd503864437147e50d7ac4ccc4bbd0cabecdc6bac60a362285fe450e2c2d0a446578c8880dc957e6e8061e691b83eb8062d1aad476e0c7b25e4d5454f1288686eb525f37fe649637b235b7828366b0219a9c63d6ddbb696dc3585a2ebfbd5f5e4c170d6784ab9993e15142535e194d2bee3dc9477ef8b8e1b07605e0c04f49edf6d42be3a9dabbc592dde78ce8b7dd9684bfcf4ca2f5a44b1872abe18fb6fa67a79390f273a9d12f9269389629456d71b9e7ed3447462269a849ce83e1893f253c832537f850b1acce5b11d2ba6b7c2f99e8e7c8085f390c21f69e1ce4bbf85b4e1ad86c0d6706432766978076f4cada9ca6f28d395d9cc5e74b2a6b46eb9d1de79eeecff7dc97ec2a8d8870e3894e1e4e26ccb98dd2f88c0229bbd3152fa149f0cc132561f</t>
+  </si>
+  <si>
+    <t>http://hashcat.net/forum/thread-2270.html</t>
+  </si>
+  <si>
+    <t>Android PIN</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}:[a-f0-9]{16}$/i</t>
+  </si>
+  <si>
+    <t>0223b799d526b596fe4ba5628b9e65068227e68e:f6d45822728ddb2c</t>
+  </si>
+  <si>
+    <t>http://hashcat.net/forum/thread-2202.html</t>
+  </si>
+  <si>
+    <t>Apache MD5</t>
+  </si>
+  <si>
+    <t>^\$apr1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}$/i</t>
+  </si>
+  <si>
+    <t>$apr1$2apDSb1n$VBnEoNgWg47PB5hZyt8kr/</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
+  </si>
+  <si>
+    <t>BCrypt(SHA-256)</t>
+  </si>
+  <si>
+    <t>^\$bcrypt-sha256\$(2[axy]|2)\,[0-9]+\$[a-z0-9\/.]{22}\$[a-z0-9\/.]{31}$/i</t>
+  </si>
+  <si>
+    <t>$bcrypt-sha256$2a,12$LrmaIX5x4TRtAwEfwJZa1.$2ehnw6LvuIUTM0iz4iz9hTxv21B6KFO</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt_sha256.html</t>
+  </si>
+  <si>
+    <t>Blowfish(OpenBSD)</t>
+  </si>
+  <si>
+    <t>^(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/.]{53}$/i</t>
+  </si>
+  <si>
+    <t>bcrypt</t>
+  </si>
+  <si>
+    <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt.html</t>
+  </si>
+  <si>
+    <t>BSDi Crypt</t>
+  </si>
+  <si>
+    <t>^_[a-z0-9\/.]{19}$/i</t>
+  </si>
+  <si>
+    <t>bsdicrypt</t>
+  </si>
+  <si>
+    <t>_EQ0.jzhSVeUyoSqLupI</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bsdi_crypt.html</t>
+  </si>
+  <si>
+    <t>Cisco Type 8</t>
+  </si>
+  <si>
+    <t>^\$8\$[a-z0-9\/.]{14}\$[a-z0-9\/.]{43}$/i</t>
+  </si>
+  <si>
+    <t>$8$TnGX/fE4KGHOVU$pEhnEvxrvaynpi8j4f.EMHr6M.FzU8xnZnBr/tJdFWk</t>
+  </si>
+  <si>
+    <t>http://hashcat.net/forum/thread-3803.html</t>
+  </si>
+  <si>
+    <t>Cisco Type 9</t>
+  </si>
+  <si>
+    <t>^\$9\$[a-z0-9\/.]{14}\$[a-z0-9\/.]{43}$/i</t>
+  </si>
+  <si>
+    <t>$9$2MJBozw/9R3UsU$2lFhcKvpghcyw8deP25GOfyZaagyUOGBymkryvOdfo6</t>
+  </si>
+  <si>
+    <t>Cisco VPN Client(PCF-File)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{112}$/i</t>
+  </si>
+  <si>
+    <t>071B15CA6E98F1D339D9B25BE350DAAB9A1C5E0B6499850B610E631FCBFB79A91E4E8FDFF813E064DCECFE6A5233998DC58C9DB8099435DE</t>
+  </si>
+  <si>
+    <t>https://www.unix-ag.uni-kl.de/~massar/bin/cisco-decode/</t>
+  </si>
+  <si>
+    <t>Cisco-ASA(MD5)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9\/.]{16}(:.{1,})?$/i</t>
+  </si>
+  <si>
+    <t>.ewJz0Du3XKnFk/d:hashid</t>
+  </si>
+  <si>
+    <t>https://github.com/stekershaw/asa-password-encrypt</t>
+  </si>
+  <si>
+    <t>Cisco-IOS(MD5)</t>
+  </si>
+  <si>
+    <t>^\$1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}(:.*)?$/i</t>
+  </si>
+  <si>
+    <t>md5crypt</t>
+  </si>
+  <si>
+    <t>$1$28772684$iEwNOgGugqO9.bIz5sk8k/</t>
+  </si>
+  <si>
     <t>resource needed</t>
   </si>
   <si>
-    <t>AIX(smd5)</t>
-  </si>
-  <si>
-    <t>^{smd5}[a-z0-9$\/.]{31}$/i</t>
-  </si>
-  <si>
-    <t>aix-smd5</t>
-  </si>
-  <si>
-    <t>{smd5}01234567$yOImZPvBC8dg1HjGYfH7j.</t>
-  </si>
-  <si>
-    <t>http://hashcat.net/forum/thread-2247-post-13532.html#pid13532</t>
-  </si>
-  <si>
-    <t>AIX(ssha1)</t>
-  </si>
-  <si>
-    <t>^{ssha1}[a-z0-9$\/.]{47}$/i</t>
-  </si>
-  <si>
-    <t>aix-ssha1</t>
-  </si>
-  <si>
-    <t>{ssha1}06$0123456789abcdef$pPDynUWwKgFKx8N5CP.d8D5C.wZ</t>
-  </si>
-  <si>
-    <t>AIX(ssha256)</t>
-  </si>
-  <si>
-    <t>^{ssha256}[a-z0-9$\/.]{63}$/i</t>
-  </si>
-  <si>
-    <t>aix-ssha256</t>
-  </si>
-  <si>
-    <t>{ssha256}06$0123456789abcdef$9zHeDVOh2swHIvL1O9LPvTDeWwv0zbsB5n531R3J.UP</t>
-  </si>
-  <si>
-    <t>AIX(ssha512)</t>
-  </si>
-  <si>
-    <t>^{ssha512}[0-9]{2}\$[a-z0-9\/.]{16,48}\$[a-z0-9\/.]{86}$/i</t>
-  </si>
-  <si>
-    <t>aix-ssha512</t>
-  </si>
-  <si>
-    <t>{ssha512}06$otYx2eSXx.OkEY4F$71vDkRp8S0GNO96tgcvKDz7y8YYEenW8/mltpQsHuiueaHxSEMl1LMzQZTGQt7w.NLWoyb0WKZZfLuVtFIK...</t>
-  </si>
-  <si>
-    <t>Android FDE ≤ 4.3</t>
-  </si>
-  <si>
-    <t>^\$fde\$[0-9]{2}\$[a-f0-9]{32}\$[0-9]{2}\$[a-f0-9]{32}\$[a-f0-9]{3072}$/i</t>
-  </si>
-  <si>
-    <t>$fde$16$ca56e82e7b5a9c2fc1e3b5a7d671c2f9$16$7c124af19ac913be0fc137b75a34b20d$eac806ae7277c8d48243d52a8644fa57a817317bd3457f94dca727964cbc27c88296954f289597a9de3314a4e9d9f28dce70cf9ce3e1c3c0c6fc041687a0ad3cb333d4449bc9da8fcc7d5f85948a7ac3bc6d34f505e9d0d91da4396e35840bde3465ad11c5086c89ee6db68d65e47a2e5413f272caa01e02224e5ff3dc3bed3953a702e85e964e562e62f5c97a2df6c47547bfb5aeeb329ff8f9c9666724d399043fe970c8b282b45e93d008333f3b4edd5eb147bd023ed18ac1f9f75a6cd33444b507694c64e1e98a964b48c0a77276e9930250d01801813c235169a7b1952891c63ce0d462abc688bd96c0337174695a957858b4c9fd277d04abe8a0c2c5def4b352ba29410f8dbec91bcb2ca2b8faf26d44f02340b3373bc94e7487ce014e6adfbf7edfdd2057225f8aeb324c9d1be877c6ae4211ae387e07bf2a056984d2ed2815149b3e9cf9fbfae852f7dd5906c2b86e7910c0d7755ef5bcc39f0e135bf546c839693dc4af3e50b8382c7c8c754d4ee218fa85d70ee0a5707a9f827209a7ddb6c2fb9431a61c9775112cc88aa2a34f97c2f53dfce082aa0758917269a5fc30049ceab67d3efd721fee021ffca979f839b4f052e27f5c382c0dd5c02fd39fbc9b26e04bf9e051d1923eff9a7cde3244902bb8538b1b9f11631def5aad7c21d2113bcdc989b771ff6bf220f94354034dd417510117b55a669e969fc3bc6c5dcd4741b8313bf7d999dc94d4949f27eec0cd06f906c17a80d09f583a5dd601854832673b78d125a2c5ad0352932be7b93c611fee8c6049670442d8c532674f3d21d45d3d009211d2a9e6568252ac4682982172cb43e7c6b05e85851787ad90e25b77cce3f7968d455f92653a1d3790bc50e5f6e1f743ac47275ffa8e81bbe832a8d7d78d5d5a7c73f95703aebb355849ae566492093bd9cb51070f39c69bb4e22b99cc0e60e96d048385bb69f1c44a3b79547fbc19a873a632f43f05fa2d8a6f9155e59d153e2851b739c42444018b8c4e09a93be43570834667d0b5a5d2a53b1572dab3e750b3f9e641e303559bace06612fbd451a5e822201442828e79168c567a85d8c024cd8ce32bf650105b1af98cc5428675f4f4bbede37a0ef98d1533a8a6dcb27d87a2b799f18706f4677edaa0411becac4c591ede83993aedba660d1dd67f6c4a5c141ad3e6e0c77730cb0ecbf4f4bd8ef6067e05ca3bc563d9e1554a893fea0050bdd1733c883f533f87eac39cceee0ccf817fc1f19bcfdd13e9f241b89bfb149b509e9a0747658438536b6705514cc6d6bb3c64c903e4710435d8bebc35297d1ebbdff8074b203f37d1910d8b4637e4d3dab997f4aa378a7a67c79e698a11e83d0d7e759d0e7969c4f5408168b282fe28d3279ec1d4cc6f85a0f8e5d01f21c7508a69773c44167ff8d467d0801f9ec54f9ee2496d4e7e470214abc1ca11355bb18cd23273aac6b05b47f9e301b42b137a2455758c24e2716dcd2e55bbeb780f592e664e7392bf6eccb80959f24c8800816c84f2575e82e1f3559c33a5be7a3a0c843c2989f486b113d5eeada007caf6b5a0f6d71e2f5c09a4def57c7057168051868317a9ec790d570d76a0d21a45ad951c475db5a66101475871147c5a5907ec4e6b14128ed6695bb73c1c97952e96826eeb6003aa13462093e4afc209627241f03b0247e110fbab983640423b7cdf112e01579fed68c80ac7df7449d9d2114b9ae5539c03c2037be45c5f74e7357b25c6a24b7bd503864437147e50d7ac4ccc4bbd0cabecdc6bac60a362285fe450e2c2d0a446578c8880dc957e6e8061e691b83eb8062d1aad476e0c7b25e4d5454f1288686eb525f37fe649637b235b7828366b0219a9c63d6ddbb696dc3585a2ebfbd5f5e4c170d6784ab9993e15142535e194d2bee3dc9477ef8b8e1b07605e0c04f49edf6d42be3a9dabbc592dde78ce8b7dd9684bfcf4ca2f5a44b1872abe18fb6fa67a79390f273a9d12f9269389629456d71b9e7ed3447462269a849ce83e1893f253c832537f850b1acce5b11d2ba6b7c2f99e8e7c8085f390c21f69e1ce4bbf85b4e1ad86c0d6706432766978076f4cada9ca6f28d395d9cc5e74b2a6b46eb9d1de79eeecff7dc97ec2a8d8870e3894e1e4e26ccb98dd2f88c0229bbd3152fa149f0cc132561f</t>
-  </si>
-  <si>
-    <t>http://hashcat.net/forum/thread-2270.html</t>
-  </si>
-  <si>
-    <t>Android PIN</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{40}:[a-f0-9]{16}$/i</t>
-  </si>
-  <si>
-    <t>0223b799d526b596fe4ba5628b9e65068227e68e:f6d45822728ddb2c</t>
-  </si>
-  <si>
-    <t>http://hashcat.net/forum/thread-2202.html</t>
-  </si>
-  <si>
-    <t>Apache MD5</t>
-  </si>
-  <si>
-    <t>^\$apr1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}$/i</t>
-  </si>
-  <si>
-    <t>$apr1$2apDSb1n$VBnEoNgWg47PB5hZyt8kr/</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
-  </si>
-  <si>
-    <t>BCrypt(SHA-256)</t>
-  </si>
-  <si>
-    <t>^\$bcrypt-sha256\$(2[axy]|2)\,[0-9]+\$[a-z0-9\/.]{22}\$[a-z0-9\/.]{31}$/i</t>
-  </si>
-  <si>
-    <t>bcrypt</t>
-  </si>
-  <si>
-    <t>$bcrypt-sha256$2a,12$LrmaIX5x4TRtAwEfwJZa1.$2ehnw6LvuIUTM0iz4iz9hTxv21B6KFO</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt_sha256.html</t>
-  </si>
-  <si>
-    <t>Blowfish(OpenBSD)</t>
-  </si>
-  <si>
-    <t>^(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/.]{53}$/i</t>
-  </si>
-  <si>
-    <t>bcrypt </t>
-  </si>
-  <si>
-    <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt.html</t>
-  </si>
-  <si>
-    <t>BSDi Crypt</t>
-  </si>
-  <si>
-    <t>^_[a-z0-9\/.]{19}$/i</t>
-  </si>
-  <si>
-    <t>bsdicrypt</t>
-  </si>
-  <si>
-    <t>_EQ0.jzhSVeUyoSqLupI</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bsdi_crypt.html</t>
-  </si>
-  <si>
-    <t>Cisco Type 8</t>
-  </si>
-  <si>
-    <t>^\$8\$[a-z0-9\/.]{14}\$[a-z0-9\/.]{43}$/i</t>
-  </si>
-  <si>
-    <t>$8$TnGX/fE4KGHOVU$pEhnEvxrvaynpi8j4f.EMHr6M.FzU8xnZnBr/tJdFWk</t>
-  </si>
-  <si>
-    <t>http://hashcat.net/forum/thread-3803.html</t>
-  </si>
-  <si>
-    <t>Cisco Type 9</t>
-  </si>
-  <si>
-    <t>^\$9\$[a-z0-9\/.]{14}\$[a-z0-9\/.]{43}$/i</t>
-  </si>
-  <si>
-    <t>$9$2MJBozw/9R3UsU$2lFhcKvpghcyw8deP25GOfyZaagyUOGBymkryvOdfo6</t>
-  </si>
-  <si>
-    <t>Cisco VPN Client(PCF-File)</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{112}$/i</t>
-  </si>
-  <si>
-    <t>071B15CA6E98F1D339D9B25BE350DAAB9A1C5E0B6499850B610E631FCBFB79A91E4E8FDFF813E064DCECFE6A5233998DC58C9DB8099435DE</t>
-  </si>
-  <si>
-    <t>https://www.unix-ag.uni-kl.de/~massar/bin/cisco-decode/</t>
-  </si>
-  <si>
-    <t>Cisco-ASA(MD5)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9\/.]{16}(:.{1,})?$/i</t>
-  </si>
-  <si>
-    <t>.ewJz0Du3XKnFk/d:hashid</t>
-  </si>
-  <si>
-    <t>https://github.com/stekershaw/asa-password-encrypt</t>
-  </si>
-  <si>
-    <t>Cisco-IOS(MD5)</t>
-  </si>
-  <si>
-    <t>^\$1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}(:.*)?$/i</t>
-  </si>
-  <si>
-    <t>md5crypt </t>
-  </si>
-  <si>
-    <t>$1$28772684$iEwNOgGugqO9.bIz5sk8k/</t>
-  </si>
-  <si>
     <t>Cisco-IOS(SHA-256)</t>
   </si>
   <si>
@@ -320,6 +320,9 @@
     <t>e268</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Cyclic_redundancy_check</t>
+  </si>
+  <si>
     <t>CRC-16-CCITT</t>
   </si>
   <si>
@@ -410,7 +413,7 @@
     <t>^[a-z0-9\/.]{13}$/i</t>
   </si>
   <si>
-    <t>descrypt </t>
+    <t>descrypt</t>
   </si>
   <si>
     <t>G8n0KRCTGO8SY</t>
@@ -581,6 +584,9 @@
     <t>$S$C12345678DZ5MRSrL1r2lsmcx47tViKr9s/gaIJN5ruRSS.X6BRk</t>
   </si>
   <si>
+    <t>https://hashcat.net/trac/ticket/326</t>
+  </si>
+  <si>
     <t>Eggdrop IRC Bot</t>
   </si>
   <si>
@@ -599,6 +605,9 @@
     <t>00067894</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Executable_and_Linkable_Format</t>
+  </si>
+  <si>
     <t>EPi</t>
   </si>
   <si>
@@ -611,6 +620,9 @@
     <t>0x326C6D7B4E4F794B79474E36704F35723958397163735263516265456E31 0xAFC55E260B8F45C0C6512BCE776C1AD8312B56E6</t>
   </si>
   <si>
+    <t>http://hashcat.net/forum/thread-987.html</t>
+  </si>
+  <si>
     <t>EPiServer 6.x &lt; v4</t>
   </si>
   <si>
@@ -623,9 +635,6 @@
     <t>$episerver$*0*bEtiVGhPNlZpcUN4a3ExTg==*utkfN0EOgljbv5FoZ6+AcZD5iLk</t>
   </si>
   <si>
-    <t>http://hashcat.net/forum/thread-987.html</t>
-  </si>
-  <si>
     <t>EPiServer 6.x ≥ v4</t>
   </si>
   <si>
@@ -653,6 +662,9 @@
     <t>a36b</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Frame_check_sequence</t>
+  </si>
+  <si>
     <t>FCS-32</t>
   </si>
   <si>
@@ -665,6 +677,9 @@
     <t>8a01d403</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Fletcher%27s_checksum#Fletcher-32</t>
+  </si>
+  <si>
     <t>FNV-132</t>
   </si>
   <si>
@@ -719,6 +734,9 @@
     <t>ce85b99cc46752fffee35cab9a7b0278abb4c2d2055cff685af4912c49490f8d</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/GOST_%28hash_function%29</t>
+  </si>
+  <si>
     <t>GRUB 2</t>
   </si>
   <si>
@@ -746,6 +764,9 @@
     <t>6746df56b6210ed660ab01b8d8886a8237389bd5</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/HAS-160</t>
+  </si>
+  <si>
     <t>Haval-128</t>
   </si>
   <si>
@@ -866,6 +887,9 @@
     <t>0e34a138</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Jenkins_hash_function</t>
+  </si>
+  <si>
     <t>Joomla &lt; 2.5.18</t>
   </si>
   <si>
@@ -914,7 +938,7 @@
     <t>^\$krb5pa\$23\$user\$realm\$salt\$[a-f0-9]{104}$/i</t>
   </si>
   <si>
-    <t>krb5pa-md5 </t>
+    <t>krb5pa-md5</t>
   </si>
   <si>
     <t>$krb5pa$23$user$realm$salt$034acfc70afba542690b8bc912fcd7fed6a848493a3ff0d7af641a263b71dcc72902995df4085ba458b733d8092e6b348e3e3990</t>
@@ -1304,7 +1328,7 @@
     <t>^[^\\\/:*?"&lt;&gt;|]{1,20}::[^\\\/:*?"&lt;&gt;|]{1,20}:[a-f0-9]{16}:[a-f0-9]{32}:[a-f0-9]+$/i</t>
   </si>
   <si>
-    <t>netntlmv2 </t>
+    <t>netntlmv2</t>
   </si>
   <si>
     <t>admin::N46iSNekpT:08ca45b7d7ea58ee:88dcbe4446168966a153a0064958dac6:5c7830315c7830310000000000000b45c67103d07d7b95acd12ffa11230e0000000052920b85f78d013c31cdb3b92f5d765c783030</t>
@@ -1406,7 +1430,7 @@
     <t>^[a-f0-9]{136}$/i</t>
   </si>
   <si>
-    <t>xsha512 </t>
+    <t>xsha512</t>
   </si>
   <si>
     <t>648742485c9b0acd786a233b2330197223118111b481abfa0ab8b3e8ede5f014fc7c523991c007db6882680b09962d16fd9c45568260531bdb34804a5e31c22b4cfeb32d</t>
@@ -1418,7 +1442,7 @@
     <t>^\$ml\$[0-9]+\$[a-f0-9]{64}\$[a-f0-9]{128}$/i</t>
   </si>
   <si>
-    <t>pbkdf2-hmac-sha512 </t>
+    <t>pbkdf2-hmac-sha512</t>
   </si>
   <si>
     <t>$ml$35460$93a94bd24b5de64d79a5e49fa372827e739f4d7b6975c752c9a0ff1e5cf72e05$752351df64dd2ce9dc9c64a72ad91de6581a15c19176266b44d98919dfa81f0f96cbcb20a1ffb400718c20382030f637892f776627d34e021bad4f81b7de8222</t>
@@ -1598,6 +1622,9 @@
     <t>cdf26213a150dc3ecb610f18f6b38b46</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/RIPEMD</t>
+  </si>
+  <si>
     <t>RIPEMD-160</t>
   </si>
   <si>
@@ -1607,6 +1634,9 @@
     <t>9c1185a5c5e9fc54612808977ee8f548b2258d31</t>
   </si>
   <si>
+    <t>https://de.wikipedia.org/wiki/RIPEMD-160</t>
+  </si>
+  <si>
     <t>RIPEMD-256</t>
   </si>
   <si>
@@ -1694,6 +1724,9 @@
     <t>{x-issha, 1024}C0624EvGSdAMCtuWnBBYBGA0chvqAflKY74oEpw/rpY=</t>
   </si>
   <si>
+    <t>http://hashcat.net/forum/thread-3804.html</t>
+  </si>
+  <si>
     <t>SCRAM Hash</t>
   </si>
   <si>
@@ -1745,9 +1778,6 @@
     <t>SHA-1(Base64)</t>
   </si>
   <si>
-    <t>nsldap </t>
-  </si>
-  <si>
     <t>SHA-1(Oracle)</t>
   </si>
   <si>
@@ -1763,6 +1793,9 @@
     <t>26dea9e65b4701c84168d390bfa7c8ab68cd907186a32dfc2e74e875</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/SHA-2</t>
+  </si>
+  <si>
     <t>SHA-256</t>
   </si>
   <si>
@@ -1868,6 +1901,9 @@
     <t>62b6c4521a646a099850699ea262d3f5a73290959fd34734b4015097eb7b2700e964236f0b213193f0a15b82eb08a0bf330d60421fc81e9a9383df72172ce9787fde19ea0813a566cb62c55d042d0d9a0f86d87ae40de85a9b247225968aea29ba878cf0c30c44a181f3ef8e47975da80ca21f244b81504ebfb446924dcd7061</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Skein_%28hash_function%29</t>
+  </si>
+  <si>
     <t>Skein-1024(384)</t>
   </si>
   <si>
@@ -1976,6 +2012,9 @@
     <t>1dc9a09e23a3f8184b8e40f3ad872842</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Snefru</t>
+  </si>
+  <si>
     <t>Snefru-256</t>
   </si>
   <si>
@@ -2036,6 +2075,9 @@
     <t>9123dc36b0b67ce3e79d0142820f3dc7</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Tiger_%28cryptography%29</t>
+  </si>
+  <si>
     <t>Tiger-160</t>
   </si>
   <si>
@@ -2117,6 +2159,9 @@
     <t>19fa61d75522a4669b44e39c1d2e1726c530232130d407f89afee0964997f7a73e83be698b288febcf88e3e03c4f0757ea8964e59b63d93708b138cc42a66eb3</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Whirlpool_%28cryptography%29</t>
+  </si>
+  <si>
     <t>Woltlab Burning Board 3.x</t>
   </si>
   <si>
@@ -2154,6 +2199,9 @@
   </si>
   <si>
     <t>00000004</t>
+  </si>
+  <si>
+    <t>http://www.novatel.com/assets/Documents/Bulletins/apn030.pdf</t>
   </si>
   <si>
     <t>xt:Commerce</t>
@@ -2172,9 +2220,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2261,13 +2310,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2278,7 +2331,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2286,27 +2339,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2314,11 +2371,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2353,42 +2410,42 @@
   </sheetPr>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="17.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="19.5204081632653"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5255102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2396,19 +2453,19 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="10" t="n">
         <v>6600</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2416,128 +2473,127 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="10" t="n">
         <v>8200</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2545,13 +2601,13 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="10" t="n">
         <v>8800</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2559,3578 +2615,3536 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>5800</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="11" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="9" t="n">
-        <v>3200</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="9" t="s">
+    </row>
+    <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="10" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="8" t="n">
-        <v>9200</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="10" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="8" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="8" t="s">
+    </row>
+    <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="11" t="n">
+        <v>2410</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="9" t="n">
-        <v>2410</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="9" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="G19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>5700</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
+      <c r="G20" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>8100</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>18</v>
+      <c r="G23" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="3" t="s">
-        <v>18</v>
+      <c r="F24" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>101</v>
+      <c r="A25" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="3" t="s">
-        <v>18</v>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>18</v>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>106</v>
+      <c r="A27" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="3" t="s">
-        <v>18</v>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>108</v>
+      <c r="A28" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="3" t="s">
-        <v>18</v>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>110</v>
+      <c r="A29" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="3" t="s">
-        <v>18</v>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>113</v>
+      <c r="A30" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="3" t="s">
-        <v>18</v>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>116</v>
+      <c r="A31" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F31" s="11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>120</v>
+      <c r="A32" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>127</v>
+      <c r="A34" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="C34" s="11" t="n">
         <v>3100</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="3" t="s">
-        <v>18</v>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>129</v>
+      <c r="A35" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="C35" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>133</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="11" t="s">
         <v>137</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="11" t="s">
         <v>141</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="11" t="s">
         <v>145</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="11" t="s">
         <v>149</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="B40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="11" t="s">
         <v>153</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="9" t="n">
+        <v>156</v>
+      </c>
+      <c r="C41" s="11" t="n">
         <v>800</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>157</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="3" t="s">
-        <v>18</v>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="3" t="s">
-        <v>18</v>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="11" t="n">
+        <v>166</v>
+      </c>
+      <c r="C44" s="13" t="n">
         <v>8300</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="11" t="s">
         <v>167</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>168</v>
+      <c r="A45" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="9" t="n">
+        <v>170</v>
+      </c>
+      <c r="C45" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>172</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>173</v>
+      <c r="A46" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="9" t="n">
+        <v>175</v>
+      </c>
+      <c r="C46" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>177</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="11" t="n">
+        <v>180</v>
+      </c>
+      <c r="C47" s="13" t="n">
         <v>2600</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>18</v>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="11" t="n">
+        <v>183</v>
+      </c>
+      <c r="C48" s="13" t="n">
         <v>4500</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>18</v>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>184</v>
+      <c r="A49" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="9" t="n">
+        <v>186</v>
+      </c>
+      <c r="C49" s="11" t="n">
         <v>7900</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="3" t="s">
-        <v>18</v>
+      <c r="E49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>188</v>
+      <c r="A50" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="3" t="s">
-        <v>18</v>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>192</v>
+      <c r="A51" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="3" t="s">
-        <v>18</v>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="9" t="n">
+      <c r="A52" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="11" t="n">
         <v>123</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>18</v>
+      <c r="D52" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>198</v>
+      <c r="A53" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="9" t="n">
+        <v>203</v>
+      </c>
+      <c r="C53" s="11" t="n">
         <v>141</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>203</v>
+      <c r="A54" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="C54" s="11" t="n">
         <v>1441</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>205</v>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>210</v>
+      <c r="A56" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="3" t="s">
-        <v>18</v>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>212</v>
+      <c r="A57" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="3" t="s">
-        <v>18</v>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>214</v>
+      <c r="A58" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="3" t="s">
-        <v>18</v>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>216</v>
+      <c r="A59" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="3" t="s">
-        <v>18</v>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>218</v>
+      <c r="A60" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>220</v>
+        <v>112</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>221</v>
+      <c r="A61" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="9" t="n">
+        <v>227</v>
+      </c>
+      <c r="C61" s="11" t="n">
         <v>7000</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>18</v>
+      <c r="D61" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>225</v>
+      <c r="A62" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="E62" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="G62" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>226</v>
+      <c r="A63" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="3" t="s">
-        <v>18</v>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>228</v>
+      <c r="A64" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="3" t="s">
-        <v>18</v>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>230</v>
+      <c r="A65" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" s="9" t="n">
+        <v>236</v>
+      </c>
+      <c r="C65" s="11" t="n">
         <v>6900</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="3" t="s">
-        <v>18</v>
+      <c r="D65" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>234</v>
+      <c r="A66" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="9" t="n">
+        <v>241</v>
+      </c>
+      <c r="C66" s="11" t="n">
         <v>7200</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="11" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="9" t="n">
-        <v>5100</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="11" t="n">
+        <v>266</v>
+      </c>
+      <c r="C74" s="13" t="n">
         <v>1421</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>262</v>
+      <c r="D74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C75" s="8" t="n">
+      <c r="A75" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="10" t="n">
         <v>5300</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="E75" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="8" t="n">
+      <c r="A76" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="10" t="n">
         <v>5400</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="E76" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>270</v>
+      <c r="A77" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C77" s="9" t="n">
+        <v>278</v>
+      </c>
+      <c r="C77" s="11" t="n">
         <v>2811</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>18</v>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C78" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="13" t="n">
         <v>7300</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>18</v>
+      <c r="D78" s="13"/>
+      <c r="E78" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>276</v>
+      <c r="A79" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="9" t="n">
+        <v>284</v>
+      </c>
+      <c r="C79" s="11" t="n">
         <v>4800</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>280</v>
+      <c r="D79" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>281</v>
+      <c r="A80" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>18</v>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>283</v>
+      <c r="A81" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="9" t="n">
+        <v>292</v>
+      </c>
+      <c r="C81" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>286</v>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>287</v>
+      <c r="A82" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
-        <v>292</v>
+      <c r="A83" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="9" t="n">
+        <v>301</v>
+      </c>
+      <c r="C83" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>296</v>
+      <c r="D83" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>297</v>
+      <c r="A84" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" s="9" t="n">
+        <v>306</v>
+      </c>
+      <c r="C84" s="11" t="n">
         <v>7500</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="D84" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C85" s="9" t="n">
+      <c r="A85" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="11" t="n">
         <v>6800</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>305</v>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
-        <v>306</v>
+      <c r="A86" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="9" t="n">
+        <v>315</v>
+      </c>
+      <c r="C86" s="11" t="n">
         <v>1711</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>309</v>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
-        <v>310</v>
+      <c r="A87" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="3" t="s">
-        <v>18</v>
+        <v>319</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
-        <v>313</v>
+      <c r="A88" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="9" t="n">
+        <v>183</v>
+      </c>
+      <c r="C88" s="11" t="n">
         <v>190</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>316</v>
+      <c r="D88" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="s">
-        <v>317</v>
+      <c r="A89" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="9" t="n">
+        <v>180</v>
+      </c>
+      <c r="C89" s="11" t="n">
         <v>3000</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>320</v>
+      <c r="D89" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="s">
-        <v>321</v>
+      <c r="A90" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
-        <v>325</v>
+      <c r="A91" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>18</v>
+        <v>334</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C92" s="8" t="n">
+        <v>338</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" s="10" t="n">
         <v>9100</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>333</v>
+      <c r="E92" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
-        <v>334</v>
+      <c r="A93" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>336</v>
+        <v>183</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
-        <v>337</v>
+      <c r="A94" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
-        <v>341</v>
+      <c r="A95" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="9" t="n">
+        <v>180</v>
+      </c>
+      <c r="C95" s="11" t="n">
         <v>900</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>344</v>
+      <c r="D95" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
-        <v>345</v>
+      <c r="A96" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>349</v>
+        <v>180</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="s">
-        <v>350</v>
+      <c r="A97" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>352</v>
+      <c r="E97" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>353</v>
+      <c r="A98" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="9" t="n">
+      <c r="C98" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
+      <c r="D98" s="11"/>
+      <c r="E98" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>354</v>
+      <c r="A99" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" s="9" t="n">
+        <v>284</v>
+      </c>
+      <c r="C99" s="11" t="n">
         <v>4800</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>280</v>
+      <c r="D99" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
-        <v>355</v>
+      <c r="A100" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>360</v>
+        <v>364</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>364</v>
+      <c r="A101" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C102" s="8" t="n">
+      <c r="A102" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="10" t="n">
         <v>9700</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>368</v>
+      <c r="D102" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C103" s="8" t="n">
+      <c r="A103" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" s="10" t="n">
         <v>9800</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>372</v>
+      <c r="E103" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C104" s="8" t="n">
+        <v>381</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" s="10" t="n">
         <v>9400</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>376</v>
+      <c r="D104" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C105" s="10" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C105" s="8" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" s="8" t="n">
+        <v>388</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C106" s="10" t="n">
         <v>9600</v>
       </c>
-      <c r="E106" s="8" t="s">
-        <v>382</v>
+      <c r="E106" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
-        <v>383</v>
+      <c r="A107" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>386</v>
+        <v>392</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
-        <v>387</v>
+      <c r="A108" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>390</v>
+        <v>396</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="s">
-        <v>391</v>
+      <c r="A109" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C109" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="C109" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>395</v>
+      <c r="D109" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
-        <v>396</v>
+      <c r="A110" s="12" t="s">
+        <v>404</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C110" s="9" t="n">
+        <v>405</v>
+      </c>
+      <c r="C110" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>400</v>
+      <c r="D110" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
-        <v>401</v>
+      <c r="A111" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C111" s="11" t="n">
+        <v>405</v>
+      </c>
+      <c r="C111" s="13" t="n">
         <v>132</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="9"/>
-      <c r="G111" s="3" t="s">
-        <v>18</v>
+      <c r="D111" s="13"/>
+      <c r="E111" s="11"/>
+      <c r="G111" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
-        <v>402</v>
+      <c r="A112" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C112" s="9" t="n">
+        <v>411</v>
+      </c>
+      <c r="C112" s="11" t="n">
         <v>1731</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>18</v>
+      <c r="D112" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
-        <v>406</v>
+      <c r="A113" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C113" s="9" t="n">
+        <v>411</v>
+      </c>
+      <c r="C113" s="11" t="n">
         <v>1731</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>408</v>
+      <c r="D113" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
-        <v>409</v>
+      <c r="A114" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C114" s="9" t="n">
+        <v>418</v>
+      </c>
+      <c r="C114" s="11" t="n">
         <v>2811</v>
       </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>412</v>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
-        <v>413</v>
+      <c r="A115" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C117" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F117" s="11"/>
+      <c r="G117" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C119" s="11" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C121" s="11" t="n">
         <v>111</v>
       </c>
-      <c r="C115" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C116" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C117" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C118" s="9" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C119" s="9" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C121" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>18</v>
+      <c r="D121" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
-        <v>439</v>
+      <c r="A122" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>442</v>
+        <v>448</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
-        <v>443</v>
+      <c r="A123" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C123" s="9" t="n">
+        <v>452</v>
+      </c>
+      <c r="C123" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>18</v>
+      <c r="D123" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
-        <v>446</v>
+      <c r="A124" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C124" s="9" t="n">
+        <v>455</v>
+      </c>
+      <c r="C124" s="11" t="n">
         <v>112</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>450</v>
+      <c r="D124" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>451</v>
+      <c r="A125" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="C125" s="11" t="n">
         <v>3100</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>453</v>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>454</v>
+      <c r="A126" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C126" s="9" t="n">
+        <v>463</v>
+      </c>
+      <c r="C126" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>457</v>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="s">
-        <v>458</v>
+      <c r="A127" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C127" s="9" t="n">
+        <v>257</v>
+      </c>
+      <c r="C127" s="11" t="n">
         <v>122</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>18</v>
+      <c r="D127" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10" t="s">
-        <v>461</v>
+      <c r="A128" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C128" s="9" t="n">
+        <v>470</v>
+      </c>
+      <c r="C128" s="11" t="n">
         <v>1722</v>
       </c>
-      <c r="D128" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>18</v>
+      <c r="D128" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="s">
-        <v>465</v>
+      <c r="A129" s="12" t="s">
+        <v>473</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C129" s="9" t="n">
+        <v>474</v>
+      </c>
+      <c r="C129" s="11" t="n">
         <v>7100</v>
       </c>
-      <c r="D129" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>18</v>
+      <c r="D129" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10" t="s">
-        <v>469</v>
+      <c r="A130" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="3" t="s">
-        <v>18</v>
+        <v>478</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>475</v>
+      <c r="A131" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10" t="s">
-        <v>476</v>
+      <c r="A132" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>479</v>
+        <v>485</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>480</v>
+      <c r="A133" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>483</v>
+        <v>489</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>488</v>
+        <v>493</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C135" s="8" t="n">
+        <v>497</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C135" s="10" t="n">
         <v>133</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>492</v>
+      <c r="E135" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10" t="s">
-        <v>493</v>
+      <c r="A136" s="12" t="s">
+        <v>501</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" s="9" t="n">
+        <v>296</v>
+      </c>
+      <c r="C136" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>496</v>
+      <c r="D136" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C137" s="9" t="n">
+        <v>506</v>
+      </c>
+      <c r="C137" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="3" t="s">
-        <v>18</v>
+      <c r="D137" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C138" s="8" t="n">
+        <v>508</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C138" s="10" t="n">
         <v>2612</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>504</v>
+      <c r="D138" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>508</v>
+        <v>513</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10" t="s">
-        <v>509</v>
+      <c r="A140" s="12" t="s">
+        <v>517</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>514</v>
+        <v>518</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="s">
-        <v>515</v>
+      <c r="A141" s="12" t="s">
+        <v>523</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="3" t="s">
-        <v>18</v>
+        <v>524</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="s">
-        <v>520</v>
+      <c r="A142" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C142" s="9" t="n">
+        <v>529</v>
+      </c>
+      <c r="C142" s="11" t="n">
         <v>7600</v>
       </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>523</v>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="s">
-        <v>524</v>
+      <c r="A143" s="12" t="s">
+        <v>532</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="s">
-        <v>527</v>
+      <c r="A144" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" s="9" t="n">
+        <v>183</v>
+      </c>
+      <c r="C144" s="11" t="n">
         <v>6000</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="3" t="s">
-        <v>18</v>
+      <c r="D144" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="s">
-        <v>530</v>
+      <c r="A145" s="12" t="s">
+        <v>540</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="3" t="s">
-        <v>18</v>
+        <v>236</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="s">
-        <v>532</v>
+      <c r="A146" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="F146" s="9"/>
-      <c r="G146" s="3" t="s">
-        <v>18</v>
+        <v>543</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="s">
-        <v>535</v>
+      <c r="A147" s="12" t="s">
+        <v>545</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>538</v>
+        <v>546</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10" t="s">
-        <v>539</v>
+      <c r="A148" s="12" t="s">
+        <v>549</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>541</v>
+        <v>546</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10" t="s">
-        <v>542</v>
+      <c r="A149" s="12" t="s">
+        <v>552</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>545</v>
+        <v>553</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="s">
-        <v>546</v>
+      <c r="A150" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="C150" s="9" t="n">
+        <v>557</v>
+      </c>
+      <c r="C150" s="11" t="n">
         <v>7700</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>550</v>
+      <c r="D150" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10" t="s">
-        <v>551</v>
+      <c r="A151" s="12" t="s">
+        <v>561</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C151" s="9" t="n">
+        <v>562</v>
+      </c>
+      <c r="C151" s="11" t="n">
         <v>7800</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>550</v>
+      <c r="D151" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C152" s="15" t="n">
+        <v>565</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C152" s="17" t="n">
         <v>10300</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>18</v>
+      <c r="D152" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10" t="s">
-        <v>559</v>
+      <c r="A153" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>562</v>
+        <v>571</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C154" s="8" t="n">
+        <v>574</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C154" s="10" t="n">
         <v>8900</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="E154" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10" t="s">
-        <v>566</v>
+      <c r="A155" s="12" t="s">
+        <v>577</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C155" s="11" t="n">
+        <v>183</v>
+      </c>
+      <c r="C155" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>569</v>
+      <c r="D155" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10" t="s">
-        <v>570</v>
+      <c r="A156" s="12" t="s">
+        <v>581</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>574</v>
+        <v>582</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10" t="s">
-        <v>575</v>
+      <c r="A157" s="12" t="s">
+        <v>586</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C157" s="9" t="n">
+        <v>440</v>
+      </c>
+      <c r="C157" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>18</v>
+      <c r="D157" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10" t="s">
-        <v>577</v>
+      <c r="A158" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="3" t="s">
-        <v>18</v>
+        <v>257</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="s">
-        <v>579</v>
+      <c r="A159" s="12" t="s">
+        <v>589</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="3" t="s">
-        <v>18</v>
+        <v>260</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="s">
-        <v>582</v>
+      <c r="A160" s="12" t="s">
+        <v>593</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C160" s="9" t="n">
+        <v>236</v>
+      </c>
+      <c r="C160" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="D160" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="3" t="s">
-        <v>18</v>
+      <c r="D160" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="C161" s="9" t="n">
+        <v>597</v>
+      </c>
+      <c r="C161" s="11" t="n">
         <v>7400</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>589</v>
+      <c r="D161" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10" t="s">
-        <v>590</v>
+      <c r="A162" s="12" t="s">
+        <v>601</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="F162" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
-        <v>594</v>
+      <c r="A163" s="12" t="s">
+        <v>605</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C163" s="9" t="n">
+        <v>546</v>
+      </c>
+      <c r="C163" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="D163" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="3" t="s">
-        <v>18</v>
+      <c r="D163" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10" t="s">
-        <v>597</v>
+      <c r="A164" s="12" t="s">
+        <v>608</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="C164" s="9" t="n">
+        <v>609</v>
+      </c>
+      <c r="C164" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>601</v>
+      <c r="D164" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>604</v>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10" t="s">
-        <v>611</v>
+      <c r="A168" s="12" t="s">
+        <v>622</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>604</v>
+        <v>546</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10" t="s">
-        <v>614</v>
+      <c r="A169" s="12" t="s">
+        <v>625</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="F169" s="9"/>
-      <c r="G169" s="3" t="s">
-        <v>18</v>
+        <v>626</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10" t="s">
-        <v>617</v>
+      <c r="A170" s="12" t="s">
+        <v>629</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="3" t="s">
-        <v>18</v>
+        <v>602</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10" t="s">
-        <v>619</v>
+      <c r="A171" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="F171" s="9"/>
-      <c r="G171" s="3" t="s">
-        <v>18</v>
+        <v>546</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10" t="s">
-        <v>621</v>
+      <c r="A172" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="3" t="s">
-        <v>18</v>
+        <v>236</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10" t="s">
-        <v>624</v>
+      <c r="A173" s="12" t="s">
+        <v>636</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10" t="s">
-        <v>626</v>
+      <c r="A174" s="12" t="s">
+        <v>638</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F174" s="9"/>
-      <c r="G174" s="3" t="s">
-        <v>18</v>
+        <v>183</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F175" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10" t="s">
-        <v>630</v>
+      <c r="A176" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="F176" s="9"/>
-      <c r="G176" s="3" t="s">
-        <v>18</v>
+        <v>546</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10" t="s">
-        <v>633</v>
+      <c r="A177" s="12" t="s">
+        <v>645</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="F177" s="9"/>
-      <c r="G177" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10" t="s">
-        <v>635</v>
+      <c r="A178" s="12" t="s">
+        <v>647</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="F178" s="9"/>
-      <c r="G178" s="3" t="s">
-        <v>18</v>
+        <v>183</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10" t="s">
-        <v>637</v>
+      <c r="A179" s="12" t="s">
+        <v>649</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="F179" s="9"/>
-      <c r="G179" s="3" t="s">
-        <v>18</v>
+        <v>260</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10" t="s">
-        <v>639</v>
+      <c r="A180" s="12" t="s">
+        <v>651</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="F180" s="9"/>
-      <c r="G180" s="3" t="s">
-        <v>18</v>
+        <v>236</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10" t="s">
-        <v>641</v>
+      <c r="A181" s="12" t="s">
+        <v>653</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="F181" s="9"/>
-      <c r="G181" s="3" t="s">
-        <v>18</v>
+        <v>602</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C182" s="8" t="n">
+        <v>655</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C182" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="E182" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>646</v>
+      <c r="E182" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10" t="s">
-        <v>647</v>
+      <c r="A183" s="12" t="s">
+        <v>659</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="C183" s="9" t="n">
+        <v>660</v>
+      </c>
+      <c r="C183" s="11" t="n">
         <v>121</v>
       </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>18</v>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10" t="s">
-        <v>650</v>
+      <c r="A184" s="12" t="s">
+        <v>662</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="F184" s="9"/>
-      <c r="G184" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10" t="s">
-        <v>653</v>
+      <c r="A185" s="12" t="s">
+        <v>666</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="F185" s="9"/>
-      <c r="G185" s="3" t="s">
-        <v>18</v>
+        <v>667</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10" t="s">
-        <v>657</v>
+      <c r="A186" s="12" t="s">
+        <v>670</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C186" s="9" t="n">
+        <v>671</v>
+      </c>
+      <c r="C186" s="11" t="n">
         <v>111</v>
       </c>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>18</v>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10" t="s">
-        <v>659</v>
+      <c r="A187" s="12" t="s">
+        <v>672</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C187" s="9" t="n">
+        <v>315</v>
+      </c>
+      <c r="C187" s="11" t="n">
         <v>1711</v>
       </c>
-      <c r="D187" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>309</v>
+      <c r="D187" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C188" s="9" t="n">
+        <v>675</v>
+      </c>
+      <c r="C188" s="11" t="n">
         <v>3300</v>
       </c>
-      <c r="D188" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>665</v>
+      <c r="D188" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10" t="s">
-        <v>666</v>
+      <c r="A189" s="12" t="s">
+        <v>679</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C189" s="9" t="n">
+        <v>680</v>
+      </c>
+      <c r="C189" s="11" t="n">
         <v>8000</v>
       </c>
-      <c r="D189" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>670</v>
+      <c r="D189" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10" t="s">
-        <v>671</v>
+      <c r="A190" s="12" t="s">
+        <v>684</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="F190" s="9"/>
-      <c r="G190" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10" t="s">
-        <v>673</v>
+      <c r="A191" s="12" t="s">
+        <v>687</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="F191" s="9"/>
-      <c r="G191" s="3" t="s">
-        <v>18</v>
+        <v>183</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10" t="s">
-        <v>675</v>
+      <c r="A192" s="12" t="s">
+        <v>689</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="F192" s="9"/>
-      <c r="G192" s="3" t="s">
-        <v>18</v>
+        <v>257</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10" t="s">
-        <v>678</v>
+      <c r="A193" s="12" t="s">
+        <v>692</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C193" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="C193" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="D193" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>133</v>
+      <c r="D193" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C194" s="9" t="n">
+      <c r="A194" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C194" s="11" t="n">
         <v>2611</v>
       </c>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>18</v>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10" t="s">
-        <v>683</v>
+      <c r="A195" s="12" t="s">
+        <v>697</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C195" s="9" t="n">
+        <v>698</v>
+      </c>
+      <c r="C195" s="11" t="n">
         <v>2711</v>
       </c>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>18</v>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10" t="s">
-        <v>686</v>
+      <c r="A196" s="12" t="s">
+        <v>700</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="F196" s="9"/>
-      <c r="G196" s="3" t="s">
-        <v>18</v>
+        <v>236</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F196" s="11"/>
+      <c r="G196" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10" t="s">
-        <v>688</v>
+      <c r="A197" s="12" t="s">
+        <v>702</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>692</v>
+        <v>703</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10" t="s">
-        <v>693</v>
+      <c r="A198" s="12" t="s">
+        <v>707</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C198" s="9" t="n">
+        <v>708</v>
+      </c>
+      <c r="C198" s="11" t="n">
         <v>3721</v>
       </c>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>696</v>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10" t="s">
-        <v>697</v>
+      <c r="A199" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C199" s="9" t="n">
+        <v>546</v>
+      </c>
+      <c r="C199" s="11" t="n">
         <v>6100</v>
       </c>
-      <c r="D199" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="F199" s="9"/>
-      <c r="G199" s="3" t="s">
-        <v>18</v>
+      <c r="D199" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10" t="s">
-        <v>700</v>
+      <c r="A200" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="C200" s="11" t="n">
+        <v>716</v>
+      </c>
+      <c r="C200" s="13" t="n">
         <v>8400</v>
       </c>
-      <c r="D200" s="11"/>
-      <c r="E200" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="F200" s="9" t="s">
-        <v>703</v>
+      <c r="D200" s="13"/>
+      <c r="E200" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10" t="s">
-        <v>704</v>
+      <c r="A201" s="12" t="s">
+        <v>719</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="F201" s="9" t="s">
-        <v>706</v>
+        <v>53</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C202" s="9" t="n">
+        <v>296</v>
+      </c>
+      <c r="C202" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="F202" s="9"/>
-      <c r="G202" s="3" t="s">
-        <v>18</v>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="F202" s="11"/>
+      <c r="G202" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C203" s="9" t="n">
+        <v>506</v>
+      </c>
+      <c r="C203" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="D203" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="F203" s="9"/>
-      <c r="G203" s="3" t="s">
-        <v>18</v>
+      <c r="D203" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="F203" s="11"/>
+      <c r="G203" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10" t="s">
-        <v>711</v>
+      <c r="A204" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="F204" s="9"/>
-      <c r="G204" s="3" t="s">
-        <v>18</v>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="F204" s="11" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10" t="s">
-        <v>713</v>
+      <c r="A205" s="12" t="s">
+        <v>729</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C205" s="9" t="n">
+        <v>463</v>
+      </c>
+      <c r="C205" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>18</v>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="F206" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F206" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="736">
   <si>
     <t>Hash</t>
   </si>
@@ -239,7 +239,10 @@
     <t>Cisco-ASA(MD5)</t>
   </si>
   <si>
-    <t>^[a-z0-9\/.]{16}(:.{1,})?$/i</t>
+    <t>^[a-z0-9\/.]{16}([:$].{1,})?$/i</t>
+  </si>
+  <si>
+    <t>asa-md5</t>
   </si>
   <si>
     <t>.ewJz0Du3XKnFk/d:hashid</t>
@@ -473,7 +476,10 @@
     <t>Django(PBKDF2-HMAC-SHA256)</t>
   </si>
   <si>
-    <t>^pbkdf2_sha256\$[0-9]+\$[a-z0-9]{1,}\$[a-z0-9\/+]{43}=$/i</t>
+    <t>^(\$django\$\*1\*)?pbkdf2_sha256\$[0-9]+\$[a-z0-9]{1,}\$[a-z0-9\/+]{43}=$/i</t>
+  </si>
+  <si>
+    <t>django</t>
   </si>
   <si>
     <t>pbkdf2_sha256$10000$s1w0UXDd00XB$+4ORmyvVWAQvoAEWlDgN34vlaJx1ZTZpa1pCSRey2Yk=</t>
@@ -611,7 +617,7 @@
     <t>EPi</t>
   </si>
   <si>
-    <t>^0x[a-f0-9]{60}(\s0x[a-f0-9]{40})?$/i</t>
+    <t>^0x[a-f0-9]{60}\s0x[a-f0-9]{40}$/i</t>
   </si>
   <si>
     <t>epi</t>
@@ -626,7 +632,7 @@
     <t>EPiServer 6.x &lt; v4</t>
   </si>
   <si>
-    <t>^\$episerver\$\*0\*[a-z0-9=*+]{52}$/i</t>
+    <t>^\$episerver\$\*0\*[a-z0-9*\/=+]{52,53}$/i</t>
   </si>
   <si>
     <t>episerver</t>
@@ -935,7 +941,7 @@
     <t>Kerberos 5 AS-REQ Pre-Auth</t>
   </si>
   <si>
-    <t>^\$krb5pa\$23\$user\$realm\$salt\$[a-f0-9]{104}$/i</t>
+    <t>^\$(krb5pa|mskrb5)\$([0-9]{2})?\$.+\$[a-f0-9]{1,}$/i</t>
   </si>
   <si>
     <t>krb5pa-md5</t>
@@ -2165,7 +2171,10 @@
     <t>Woltlab Burning Board 3.x</t>
   </si>
   <si>
-    <t>^[a-f0-9]{40}:[a-f0-9]{40}$/i</t>
+    <t>^(\$wbb3\$\*1\*)?[a-f0-9]{40}[:*][a-f0-9]{40}$/i</t>
+  </si>
+  <si>
+    <t>wbb3</t>
   </si>
   <si>
     <t>2c56d23b44eb122bb176dfa2a1452afaf89f1143:a710463f75bf4568d398db32a53f9803007388a3</t>
@@ -2220,10 +2229,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2310,7 +2318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2319,7 +2327,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2331,15 +2339,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2355,15 +2359,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2371,11 +2371,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2383,12 +2383,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2410,8 +2410,8 @@
   </sheetPr>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2433,19 +2433,19 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2453,16 +2453,16 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="9" t="n">
         <v>6600</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2473,55 +2473,55 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="9" t="n">
         <v>8200</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="8" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2529,22 +2529,22 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="8" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2552,22 +2552,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="8" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2575,22 +2575,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="8" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2601,13 +2601,13 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="9" t="n">
         <v>8800</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2615,92 +2615,92 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="8" t="n">
         <v>5800</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2708,13 +2708,13 @@
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="9" t="n">
         <v>9200</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2725,13 +2725,13 @@
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="9" t="n">
         <v>9300</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2739,666 +2739,671 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="8" t="n">
         <v>2410</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="F18" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>80</v>
       </c>
+      <c r="E19" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>5700</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>5700</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="B21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <v>2400</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="F21" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="B22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="8" t="n">
         <v>8100</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="F22" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11" t="s">
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="F27" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="F28" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>101</v>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8" t="s">
         <v>120</v>
       </c>
+      <c r="F31" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="F32" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="11" t="n">
+      <c r="A34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="11"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="B35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>134</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>138</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>142</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>146</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>150</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="9" t="s">
         <v>152</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="D40" s="1" t="s">
         <v>154</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="11" t="n">
+        <v>157</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>158</v>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="B42" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="B43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="13" t="n">
+        <v>167</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="11" t="n">
         <v>8300</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>168</v>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="11" t="n">
+      <c r="A45" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="8" t="n">
         <v>1100</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="E45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="11" t="n">
+      <c r="A46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="8" t="n">
         <v>2100</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" s="11" t="s">
+      <c r="D46" s="8" t="s">
         <v>178</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="13" t="n">
+        <v>181</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="11" t="n">
         <v>2600</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11" t="s">
-        <v>181</v>
+      <c r="D47" s="11"/>
+      <c r="E47" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="13" t="n">
+        <v>184</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="11" t="n">
         <v>4500</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11" t="s">
-        <v>184</v>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="11" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="8" t="n">
         <v>7900</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="D49" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="E49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="8"/>
       <c r="G50" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="11" t="n">
+    </row>
+    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>200</v>
+      <c r="D52" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>141</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>141</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" s="11" t="n">
+      <c r="A54" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="8" t="n">
         <v>1441</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>208</v>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>11</v>
@@ -3406,2745 +3411,2747 @@
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="11" t="s">
+      <c r="F55" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="11" t="s">
+    </row>
+    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="B56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="F56" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="11" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="9" t="s">
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>220</v>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="11" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="11" t="n">
-        <v>500</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="8"/>
       <c r="G64" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="11" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="8" t="n">
         <v>6900</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="11" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>5100</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="11" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="13" t="n">
+        <v>267</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="11" t="n">
         <v>1421</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>269</v>
       </c>
+      <c r="E74" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C75" s="10" t="n">
+      <c r="A75" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="9" t="n">
         <v>5300</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>273</v>
+      <c r="E75" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="9" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C76" s="10" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" s="11" t="n">
+      <c r="A77" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>279</v>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="13" t="n">
+        <v>282</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="11" t="n">
         <v>7300</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="11" t="s">
-        <v>282</v>
+      <c r="D78" s="11"/>
+      <c r="E78" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C79" s="11" t="n">
+      <c r="A79" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F79" s="11" t="s">
+      <c r="D79" s="8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+      <c r="E79" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="F79" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="11" t="s">
-        <v>289</v>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" s="11" t="n">
+      <c r="A81" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>294</v>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
+      <c r="B82" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="C82" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C83" s="11" t="n">
+      <c r="A83" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F83" s="10" t="s">
+      <c r="D83" s="8" t="s">
         <v>304</v>
       </c>
+      <c r="E83" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="11" t="n">
+      <c r="A84" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" s="8" t="n">
         <v>7500</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="D84" s="12" t="s">
         <v>309</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C85" s="11" t="n">
+      <c r="A85" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="8" t="n">
         <v>6800</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>313</v>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C86" s="11" t="n">
+      <c r="A86" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>317</v>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="F87" s="11"/>
+      <c r="B87" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87" s="8"/>
       <c r="G87" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C88" s="11" t="n">
+      <c r="A88" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F88" s="11" t="s">
+      <c r="D88" s="8" t="s">
         <v>324</v>
       </c>
+      <c r="E88" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="11" t="n">
+      <c r="A89" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F89" s="11" t="s">
+      <c r="D89" s="8" t="s">
         <v>328</v>
       </c>
+      <c r="E89" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D90" s="17" t="s">
+      <c r="A90" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="B90" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>332</v>
       </c>
+      <c r="D90" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="G90" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="A91" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="B91" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>337</v>
       </c>
+      <c r="D91" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="G91" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C92" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C92" s="9" t="n">
         <v>9100</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>341</v>
+      <c r="E92" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="F93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>344</v>
       </c>
+      <c r="B93" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="B94" s="8" t="s">
         <v>348</v>
       </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="11" t="n">
+      <c r="A95" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="8" t="n">
         <v>900</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F95" s="11" t="s">
+      <c r="D95" s="8" t="s">
         <v>352</v>
       </c>
+      <c r="E95" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="B96" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="D96" s="8" t="s">
         <v>357</v>
       </c>
+      <c r="E96" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="11" t="n">
+      <c r="A97" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>360</v>
+      <c r="D97" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="11" t="n">
+      <c r="C98" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C99" s="11" t="n">
+      <c r="A99" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F99" s="11" t="s">
+      <c r="D99" s="8" t="s">
         <v>287</v>
       </c>
+      <c r="E99" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C100" s="13" t="s">
+      <c r="A100" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="B100" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>368</v>
       </c>
+      <c r="E100" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>372</v>
       </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C102" s="10" t="n">
+      <c r="A102" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C102" s="9" t="n">
         <v>9700</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C103" s="9" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C103" s="10" t="n">
-        <v>9800</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C104" s="10" t="n">
+        <v>383</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C104" s="9" t="n">
         <v>9400</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C105" s="10" t="n">
+        <v>387</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" s="9" t="n">
         <v>9500</v>
       </c>
-      <c r="E105" s="19" t="s">
-        <v>387</v>
+      <c r="E105" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C106" s="10" t="n">
+        <v>390</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="9" t="n">
         <v>9600</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>390</v>
+      <c r="E106" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="11" t="s">
+      <c r="A107" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="B107" s="8" t="s">
         <v>394</v>
       </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="B108" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C109" s="11" t="n">
+      <c r="A109" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C109" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F109" s="11" t="s">
+      <c r="D109" s="8" t="s">
         <v>403</v>
       </c>
+      <c r="E109" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C110" s="11" t="n">
+      <c r="A110" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C110" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E110" s="11" t="s">
+      <c r="D110" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C111" s="13" t="n">
+      <c r="C111" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="8"/>
       <c r="G111" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C112" s="11" t="n">
+      <c r="A112" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C112" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E112" s="11" t="s">
+      <c r="D112" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
+      <c r="C113" s="8" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C113" s="11" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>416</v>
+      <c r="E113" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C114" s="11" t="n">
+      <c r="A114" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C114" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>420</v>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B115" s="9" t="s">
+      <c r="A115" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C116" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C117" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C119" s="8" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C120" s="8" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C123" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C124" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="C115" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C116" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C117" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C118" s="11" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C119" s="11" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C120" s="11" t="n">
-        <v>101</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C121" s="11" t="n">
-        <v>111</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C123" s="11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C124" s="11" t="n">
-        <v>112</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F124" s="11" t="s">
+      <c r="D124" s="8" t="s">
         <v>458</v>
       </c>
+      <c r="E124" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C125" s="11" t="n">
+      <c r="A125" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>461</v>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C126" s="11" t="n">
+      <c r="A126" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C126" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>465</v>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C127" s="11" t="n">
+      <c r="A127" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C127" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>468</v>
+      <c r="D127" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>470</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C128" s="11" t="n">
+      <c r="A128" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C128" s="8" t="n">
         <v>1722</v>
       </c>
-      <c r="D128" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>472</v>
+      <c r="D128" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C129" s="11" t="n">
+      <c r="A129" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C129" s="8" t="n">
         <v>7100</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>476</v>
+      <c r="D129" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="11" t="s">
+      <c r="A130" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F130" s="11"/>
+      <c r="B130" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F130" s="8"/>
       <c r="G130" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="E131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="B131" s="8" t="s">
         <v>483</v>
       </c>
+      <c r="E131" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="11" t="s">
+      <c r="A132" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="B132" s="8" t="s">
         <v>487</v>
       </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="11" t="s">
+      <c r="A133" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="B133" s="8" t="s">
         <v>491</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="B134" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11" t="s">
         <v>496</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C135" s="10" t="n">
+        <v>499</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C135" s="9" t="n">
         <v>133</v>
       </c>
-      <c r="E135" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>500</v>
+      <c r="E135" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C136" s="11" t="n">
+      <c r="A136" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="F136" s="11" t="s">
+      <c r="D136" s="8" t="s">
         <v>504</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C137" s="11" t="n">
+        <v>507</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C137" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="F137" s="11"/>
+      <c r="D137" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F137" s="8"/>
       <c r="G137" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C138" s="10" t="n">
+        <v>510</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C138" s="9" t="n">
         <v>2612</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="F138" s="11" t="s">
+      <c r="D138" s="9" t="s">
         <v>512</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="E139" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="B139" s="8" t="s">
         <v>516</v>
       </c>
+      <c r="E139" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C140" s="11" t="s">
+      <c r="A140" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="B140" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="C140" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="D140" s="8" t="s">
         <v>522</v>
       </c>
+      <c r="E140" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C141" s="13" t="s">
+      <c r="A141" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="B141" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="C141" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="F141" s="11"/>
+      <c r="D141" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F141" s="8"/>
       <c r="G141" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C142" s="11" t="n">
+      <c r="A142" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C142" s="8" t="n">
         <v>7600</v>
       </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12" t="s">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13" t="s">
+      <c r="F142" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="E143" s="11" t="s">
+    </row>
+    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="B143" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="s">
+      <c r="E143" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" s="11" t="n">
+      <c r="F143" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="8" t="n">
         <v>6000</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="E144" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="11" t="s">
+    </row>
+    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>535</v>
+      <c r="B146" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="11" t="s">
+      <c r="A147" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="B147" s="8" t="s">
         <v>548</v>
       </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F148" s="11" t="s">
+      <c r="A148" s="10" t="s">
         <v>551</v>
       </c>
+      <c r="B148" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="11" t="s">
+      <c r="A149" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="B149" s="8" t="s">
         <v>555</v>
       </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C150" s="11" t="n">
+      <c r="A150" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C150" s="8" t="n">
         <v>7700</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="F150" s="11" t="s">
+      <c r="D150" s="8" t="s">
         <v>560</v>
       </c>
+      <c r="E150" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="B151" s="9" t="s">
+      <c r="A151" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C151" s="8" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C151" s="11" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C152" s="17" t="n">
+        <v>567</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C152" s="15" t="n">
         <v>10300</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="11" t="s">
+      <c r="A153" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="B153" s="8" t="s">
         <v>573</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="C154" s="10" t="n">
+        <v>576</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C154" s="9" t="n">
         <v>8900</v>
       </c>
-      <c r="E154" s="11" t="s">
-        <v>576</v>
+      <c r="E154" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="13" t="n">
+      <c r="A155" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="D155" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="F155" s="11" t="s">
+      <c r="D155" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="E155" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13" t="s">
+      <c r="A156" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="B156" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="F156" s="11" t="s">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11" t="s">
         <v>585</v>
       </c>
+      <c r="E156" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C157" s="11" t="n">
+      <c r="A157" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C157" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D157" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>442</v>
+      <c r="D157" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="F158" s="11"/>
+      <c r="A158" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="F158" s="8"/>
       <c r="G158" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="E159" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="B159" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12" t="s">
+      <c r="E159" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C160" s="11" t="n">
+      <c r="F159" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" s="8" t="n">
         <v>1400</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>594</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C161" s="11" t="n">
+        <v>598</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C161" s="8" t="n">
         <v>7400</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="F161" s="11" t="s">
+      <c r="D161" s="8" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12" t="s">
+      <c r="E161" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="F161" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13" t="s">
+    </row>
+    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="B162" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="F162" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="s">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C163" s="11" t="n">
+      <c r="E162" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C163" s="8" t="n">
         <v>1700</v>
       </c>
-      <c r="D163" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>592</v>
+      <c r="D163" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="C164" s="11" t="n">
+      <c r="A164" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C164" s="8" t="n">
         <v>1800</v>
       </c>
-      <c r="D164" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F164" s="11" t="s">
+      <c r="D164" s="8" t="s">
         <v>612</v>
       </c>
+      <c r="E164" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="F165" s="11" t="s">
+      <c r="A165" s="10" t="s">
         <v>615</v>
       </c>
+      <c r="B165" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C166" s="13" t="s">
+      <c r="A166" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F166" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D166" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>615</v>
-      </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>615</v>
+      <c r="A167" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="E168" s="11" t="s">
+      <c r="A168" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="s">
+      <c r="B168" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="E168" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="11" t="s">
+      <c r="F168" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="F169" s="11" t="s">
+      <c r="B169" s="8" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="s">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="11" t="s">
+      <c r="F169" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="F170" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="s">
+    </row>
+    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="11" t="s">
+      <c r="B170" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F171" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="s">
+      <c r="F170" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13" t="s">
+      <c r="B171" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="F171" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="F172" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="s">
+      <c r="B172" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B173" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="11" t="s">
+      <c r="E172" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="F173" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="s">
+      <c r="F172" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B174" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="11" t="s">
+      <c r="B173" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F174" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12" t="s">
+      <c r="F173" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="11" t="s">
+      <c r="B174" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F175" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12" t="s">
+      <c r="F174" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="B176" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13" t="s">
+      <c r="B175" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="F175" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="F176" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="s">
+      <c r="B176" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="11" t="s">
+      <c r="E176" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12" t="s">
+      <c r="F176" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="11" t="s">
+      <c r="B177" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="s">
+      <c r="F177" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="11" t="s">
+      <c r="B178" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="F179" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="s">
+      <c r="F178" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="11" t="s">
+      <c r="B179" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="s">
+      <c r="F179" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="11" t="s">
+      <c r="B180" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="F181" s="11" t="s">
-        <v>628</v>
+      <c r="F180" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="C182" s="10" t="n">
+        <v>657</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="F182" s="10" t="s">
-        <v>658</v>
+      <c r="E182" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C183" s="11" t="n">
+      <c r="A183" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C183" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11" t="s">
-        <v>661</v>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8" t="s">
+        <v>663</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E184" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="F184" s="11" t="s">
+      <c r="B184" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12" t="s">
+      <c r="E184" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="F184" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13" t="s">
+    </row>
+    <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="B185" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="F185" s="11" t="s">
-        <v>665</v>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="C186" s="11" t="n">
+      <c r="A186" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C186" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11" t="s">
-        <v>446</v>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C187" s="11" t="n">
+      <c r="A187" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C187" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D187" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F187" s="11" t="s">
-        <v>317</v>
+      <c r="D187" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="C188" s="11" t="n">
+        <v>676</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C188" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="D188" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="F188" s="11" t="s">
+      <c r="D188" s="8" t="s">
         <v>678</v>
       </c>
+      <c r="E188" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="C189" s="11" t="n">
+      <c r="A189" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C189" s="8" t="n">
         <v>8000</v>
       </c>
-      <c r="D189" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="F189" s="11" t="s">
+      <c r="D189" s="8" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12" t="s">
+      <c r="E189" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="11" t="s">
+      <c r="F189" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="F190" s="11" t="s">
+    </row>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="10" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12" t="s">
+      <c r="B190" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="11" t="s">
+      <c r="F190" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F191" s="11" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12" t="s">
+    </row>
+    <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13" t="s">
+      <c r="B191" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="F191" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="F192" s="11" t="s">
-        <v>686</v>
+      <c r="B192" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C193" s="11" t="n">
+      <c r="A193" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D193" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>134</v>
+      <c r="D193" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="C194" s="11" t="n">
+      <c r="A194" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C194" s="8" t="n">
         <v>2611</v>
       </c>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11" t="s">
-        <v>696</v>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8" t="s">
+        <v>698</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="C195" s="11" t="n">
+      <c r="A195" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C195" s="8" t="n">
         <v>2711</v>
       </c>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11" t="s">
-        <v>699</v>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8" t="s">
+        <v>701</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="F196" s="11"/>
+      <c r="A196" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="F196" s="8"/>
       <c r="G196" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13" t="s">
+      <c r="A197" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="E197" s="11" t="s">
+      <c r="B197" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="F197" s="11" t="s">
+      <c r="C197" s="11"/>
+      <c r="D197" s="11" t="s">
         <v>706</v>
       </c>
+      <c r="E197" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="C198" s="11" t="n">
+      <c r="A198" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C198" s="8" t="n">
         <v>3721</v>
       </c>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12" t="s">
+      <c r="D198" s="8"/>
+      <c r="E198" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C199" s="11" t="n">
+      <c r="F198" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C199" s="8" t="n">
         <v>6100</v>
       </c>
-      <c r="D199" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="F199" s="11" t="s">
+      <c r="D199" s="8" t="s">
         <v>714</v>
       </c>
+      <c r="E199" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C200" s="13" t="n">
+      <c r="A200" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C200" s="11" t="n">
         <v>8400</v>
       </c>
-      <c r="D200" s="13"/>
-      <c r="E200" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>718</v>
+      <c r="D200" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B201" s="9" t="s">
+      <c r="A201" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B201" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E201" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>721</v>
+      <c r="E201" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C202" s="11" t="n">
+        <v>725</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C202" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="F202" s="11"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F202" s="8"/>
       <c r="G202" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C203" s="11" t="n">
+        <v>727</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D203" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="F203" s="11"/>
+      <c r="D203" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F203" s="8"/>
       <c r="G203" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="B204" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>728</v>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C205" s="11" t="n">
+      <c r="A205" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C205" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11" t="s">
-        <v>730</v>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8" t="s">
+        <v>733</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F206" s="11"/>
+        <v>734</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F206" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="740">
   <si>
     <t>Hash</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>crypt1:fnd+8xl+U1E=:Wc30H8MPgAc=</t>
+  </si>
+  <si>
+    <t>CRAM-MD5</t>
+  </si>
+  <si>
+    <t>^\$cram_md5\$[a-z0-9\/+=-]+\$[a-z0-9\/+=-]{52}$/i</t>
+  </si>
+  <si>
+    <t>$cram_md5$PG5vLXJlcGx5QGhhc2hjYXQubmV0Pg==$dXNlciA0NGVhZmQyMmZlNzY2NzBmNmIyODc5MDgxYTdmNWY3MQ==</t>
+  </si>
+  <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/commit/a5edfee767274f3b84be60dfdaf36c3a9aedd61b</t>
   </si>
   <si>
     <t>CRC-16</t>
@@ -2318,7 +2330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2345,6 +2357,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2375,12 +2391,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2408,10 +2424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A1:G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2420,8 +2436,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="17.2091836734694"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="3" width="19.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="98.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="98.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="46.1224489795918"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5255102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
@@ -2433,7 +2449,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -2445,7 +2461,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2453,16 +2469,16 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="10" t="n">
         <v>6600</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2473,16 +2489,16 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>8200</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2490,38 +2506,38 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2529,22 +2545,22 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2552,22 +2568,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2575,22 +2591,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2601,106 +2617,106 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>8800</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>3200</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2708,16 +2724,16 @@
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>9200</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2725,69 +2741,69 @@
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="10" t="n">
         <v>9300</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <v>2410</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2795,17 +2811,17 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="9" t="n">
         <v>5700</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2813,269 +2829,272 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9" t="n">
         <v>2400</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="9" t="n">
         <v>8100</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="15" t="n">
+        <v>10200</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>102</v>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="F29" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="4" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="8" t="n">
+    </row>
+    <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="8" t="n">
+    <row r="36" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="D36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3086,13 +3105,14 @@
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="C37" s="3"/>
+      <c r="E37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3100,13 +3120,14 @@
       <c r="A38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="C38" s="3"/>
+      <c r="E38" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3114,13 +3135,14 @@
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="C39" s="3"/>
+      <c r="E39" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3128,490 +3150,487 @@
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="3"/>
+      <c r="E40" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="8" t="n">
-        <v>800</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="8" t="s">
+      <c r="C42" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="4" t="s">
-        <v>82</v>
+      <c r="F42" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="B44" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="12" t="n">
         <v>8300</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="8" t="n">
+      <c r="D45" s="12"/>
+      <c r="E45" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="8" t="n">
+      <c r="E46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="9" t="n">
         <v>2100</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="11" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>82</v>
+      <c r="F47" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="11" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="C48" s="12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="8" t="n">
+      <c r="B49" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="9" t="n">
         <v>7900</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="4" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="8" t="s">
+    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="8" t="n">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="8" t="n">
+      <c r="E53" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="9" t="n">
         <v>141</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D54" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="8" t="n">
-        <v>1441</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B55" s="8" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="C55" s="9" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
         <v>214</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="F56" s="9" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="4" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" s="8" t="s">
+    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="8" t="n">
+      <c r="B61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="9" t="n">
         <v>7000</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>81</v>
+      <c r="D62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="8"/>
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="G63" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" s="8"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="8" t="n">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="9" t="n">
         <v>6900</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C66" s="8" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>244</v>
       </c>
       <c r="F66" s="9" t="s">
@@ -3619,1000 +3638,998 @@
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="8" t="n">
+      <c r="B67" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="9" t="n">
         <v>5100</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
         <v>251</v>
       </c>
+      <c r="F68" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
+      <c r="A69" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="B69" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="8" t="s">
+      <c r="B70" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>255</v>
+      <c r="E70" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>255</v>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
+      <c r="A73" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>255</v>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="B74" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="12" t="n">
         <v>1421</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B75" s="8" t="s">
+      <c r="D75" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="9" t="n">
-        <v>5300</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="9" t="s">
         <v>274</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C76" s="9" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="C76" s="10" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>275</v>
+      <c r="F76" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
+    <row r="77" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="10" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C77" s="8" t="n">
+      <c r="G77" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C78" s="11" t="n">
-        <v>7300</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="8" t="s">
-        <v>284</v>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" s="8" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C79" s="8" t="n">
+      <c r="B79" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="12" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="D80" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" s="8" t="n">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F82" s="8" t="s">
+    </row>
+    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="11" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C83" s="8" t="n">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C84" s="8" t="n">
+      <c r="E84" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="9" t="n">
         <v>7500</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G84" s="4" t="s">
+      <c r="D85" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C85" s="8" t="n">
+    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="9" t="n">
         <v>6800</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C86" s="8" t="n">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" s="9" t="n">
         <v>1711</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="8" t="s">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="4" t="s">
+      <c r="F87" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="8" t="n">
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="9" t="n">
         <v>190</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="8" t="n">
+      <c r="D89" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="E90" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="D91" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="E91" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C92" s="9" t="n">
+      <c r="D92" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C93" s="10" t="n">
         <v>9100</v>
       </c>
-      <c r="E92" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="F93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>346</v>
       </c>
+      <c r="F93" s="10" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="8" t="s">
+      <c r="B94" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="9" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="8" t="n">
+      <c r="B95" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="9" t="n">
         <v>900</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="F96" s="8" t="s">
+    </row>
+    <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="97" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="s">
+      <c r="B97" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="D97" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="8" t="n">
+      <c r="C98" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D98" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B98" s="8" t="s">
+      <c r="E98" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="8" t="n">
+      <c r="C99" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8" t="s">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" s="8" t="n">
+    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E100" s="8" t="s">
+      <c r="D100" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
+      <c r="C101" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="D101" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>373</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="9" t="n">
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103" s="10" t="n">
         <v>9700</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="D103" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C103" s="9" t="n">
+      <c r="E103" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" s="10" t="n">
         <v>9800</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="E104" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C104" s="9" t="n">
-        <v>9400</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C105" s="9" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C105" s="10" t="n">
+        <v>9400</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>379</v>
+      <c r="E105" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B106" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="9" t="n">
+      <c r="B106" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C106" s="10" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C107" s="10" t="n">
         <v>9600</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F107" s="8" t="s">
+      <c r="E107" s="10" t="s">
         <v>396</v>
       </c>
+      <c r="F107" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="8" t="s">
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="9" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C109" s="8" t="n">
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C110" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C110" s="8" t="n">
+      <c r="E110" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C111" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
+      <c r="D111" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C111" s="11" t="n">
+      <c r="C112" s="12" t="n">
         <v>132</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="8"/>
-      <c r="G111" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C112" s="8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>415</v>
-      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="9"/>
       <c r="G112" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C113" s="8" t="n">
+      <c r="B113" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="9" t="n">
         <v>1731</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="D113" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="C114" s="9" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C114" s="8" t="n">
+      <c r="E114" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C115" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" s="8" t="n">
+      <c r="D115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="B116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C116" s="8" t="n">
+      <c r="E116" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
+      <c r="D117" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C117" s="8" t="n">
+      <c r="C118" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E117" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C118" s="8" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8" t="s">
-        <v>436</v>
-      </c>
+      <c r="E118" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" s="9"/>
       <c r="G118" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B119" s="8" t="s">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="C119" s="8" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D119" s="12" t="s">
+      <c r="B119" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="C119" s="9" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9" t="s">
         <v>440</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
+    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C120" s="8" t="n">
-        <v>101</v>
-      </c>
-      <c r="D120" s="8" t="s">
+      <c r="C120" s="9" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D120" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="9" t="s">
         <v>444</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -4620,151 +4637,151 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C121" s="8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="C121" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="9" t="s">
         <v>448</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="8" t="s">
+      <c r="C122" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="E122" s="9" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
+      <c r="G122" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C123" s="8" t="n">
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C124" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G123" s="4" t="s">
+      <c r="D124" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C124" s="8" t="n">
+    <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C125" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C125" s="8" t="n">
+      <c r="D125" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C126" s="8" t="n">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C127" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C127" s="8" t="n">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="9" t="n">
         <v>122</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C128" s="8" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="9" t="s">
         <v>474</v>
       </c>
       <c r="G128" s="4" t="s">
@@ -4772,117 +4789,121 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C129" s="8" t="n">
-        <v>7100</v>
-      </c>
-      <c r="D129" s="12" t="s">
+      <c r="C129" s="9" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D129" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="9" t="s">
         <v>478</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10" t="s">
+    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="8" t="s">
+      <c r="C130" s="9" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="F130" s="8"/>
+      <c r="E130" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="G130" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B131" s="8" t="s">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="9" t="s">
         <v>485</v>
       </c>
+      <c r="F131" s="9"/>
+      <c r="G131" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="8" t="s">
+      <c r="C132" s="3"/>
+      <c r="E132" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="10" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="8" t="s">
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="9" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11" t="s">
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="F134" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="12"/>
+      <c r="D135" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C135" s="9" t="n">
-        <v>133</v>
-      </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="9" t="s">
         <v>501</v>
       </c>
       <c r="F135" s="9" t="s">
@@ -4890,74 +4911,77 @@
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C136" s="8" t="n">
+      <c r="B136" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" s="10" t="n">
+        <v>133</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B137" s="8" t="s">
+      <c r="D137" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C137" s="8" t="n">
+      <c r="E137" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C138" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="F137" s="8"/>
-      <c r="G137" s="4" t="s">
+      <c r="D138" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F138" s="9"/>
+      <c r="G138" s="4" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C138" s="9" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="C139" s="10" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="9" t="s">
         <v>517</v>
       </c>
       <c r="F139" s="9" t="s">
@@ -4965,1193 +4989,1211 @@
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="3"/>
+      <c r="E140" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="F140" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="E140" s="8" t="s">
+    </row>
+    <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="D141" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="E141" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="F141" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E141" s="8" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="4" t="s">
+      <c r="B142" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F142" s="9"/>
+      <c r="G142" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C142" s="8" t="n">
+    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" s="9" t="n">
         <v>7600</v>
       </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E143" s="8" t="s">
+      <c r="D143" s="9"/>
+      <c r="E143" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="9" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C144" s="8" t="n">
+      <c r="B144" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F144" s="8" t="s">
+      <c r="D145" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="B147" s="8" t="s">
+      <c r="A147" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="8" t="s">
+      <c r="B147" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="9" t="s">
         <v>550</v>
       </c>
+      <c r="F147" s="9" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="8" t="s">
+      <c r="B148" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="9" t="s">
         <v>553</v>
       </c>
+      <c r="F148" s="9" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="B149" s="8" t="s">
+      <c r="A149" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="8" t="s">
+      <c r="B149" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="9" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C150" s="8" t="n">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C151" s="9" t="n">
         <v>7700</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="B151" s="8" t="s">
+      <c r="D151" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C151" s="8" t="n">
+      <c r="E151" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C152" s="9" t="n">
         <v>7800</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="E151" s="8" t="s">
+      <c r="D152" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="C152" s="15" t="n">
+    </row>
+    <row r="153" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C153" s="15" t="n">
         <v>10300</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B153" s="8" t="s">
+      <c r="D153" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="2" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C154" s="9" t="n">
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C155" s="10" t="n">
         <v>8900</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="G154" s="4" t="s">
+      <c r="D155" s="1"/>
+      <c r="E155" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G155" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C155" s="11" t="n">
+    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B156" s="8" t="s">
+      <c r="D156" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11" t="s">
+      <c r="E156" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="F156" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F156" s="8" t="s">
+    </row>
+    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="11" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C157" s="8" t="n">
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="F158" s="8"/>
+      <c r="D158" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="G158" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="E159" s="8" t="s">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="B159" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="9" t="s">
         <v>594</v>
       </c>
+      <c r="F159" s="9"/>
+      <c r="G159" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C160" s="8" t="n">
+      <c r="B160" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="9" t="n">
         <v>1400</v>
       </c>
-      <c r="D160" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
+      <c r="D161" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C161" s="8" t="n">
+    </row>
+    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C162" s="9" t="n">
         <v>7400</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11" t="s">
+      <c r="E162" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="F162" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F162" s="8" t="s">
-        <v>594</v>
-      </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C163" s="8" t="n">
+      <c r="B163" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C164" s="9" t="n">
         <v>1700</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D164" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C165" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="E166" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="E163" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C164" s="8" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="E166" s="8" t="s">
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F168" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="F166" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>617</v>
-      </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B169" s="8" t="s">
+      <c r="A169" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="8" t="s">
+      <c r="B169" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="E169" s="9" t="s">
         <v>630</v>
       </c>
+      <c r="F169" s="9" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="F170" s="8" t="s">
-        <v>630</v>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="8" t="s">
+      <c r="A171" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="F171" s="8" t="s">
-        <v>630</v>
-      </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="E172" s="8" t="s">
+      <c r="A172" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="F172" s="8" t="s">
-        <v>630</v>
+      <c r="B172" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="8" t="s">
+      <c r="A173" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="F173" s="8" t="s">
-        <v>630</v>
+      <c r="B173" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>630</v>
+      <c r="A174" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>630</v>
+      <c r="A175" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="E176" s="8" t="s">
+      <c r="A176" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="F176" s="8" t="s">
-        <v>630</v>
+      <c r="B176" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="8" t="s">
+      <c r="A177" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="F177" s="8" t="s">
-        <v>630</v>
+      <c r="B177" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>630</v>
+      <c r="A178" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>630</v>
+      <c r="A179" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>630</v>
+      <c r="A180" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>630</v>
+      <c r="A181" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="C182" s="9" t="n">
+      <c r="A182" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C183" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="E182" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="F182" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="C183" s="8" t="n">
+      <c r="E183" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C184" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="G183" s="4" t="s">
+      <c r="D184" s="9"/>
+      <c r="E184" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="G184" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>667</v>
-      </c>
-    </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11" t="s">
+      <c r="E185" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="F185" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="F185" s="8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10" t="s">
+    </row>
+    <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C186" s="8" t="n">
+      <c r="C186" s="12"/>
+      <c r="D186" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C187" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="G186" s="4" t="s">
+      <c r="D187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="G187" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C187" s="8" t="n">
+    <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C188" s="9" t="n">
         <v>1711</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F187" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C188" s="8" t="n">
+      <c r="D188" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C189" s="9" t="n">
         <v>3300</v>
       </c>
-      <c r="D188" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="B189" s="8" t="s">
+      <c r="D189" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C189" s="8" t="n">
+      <c r="E189" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C190" s="9" t="n">
         <v>8000</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="8" t="s">
+      <c r="D190" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="E190" s="9" t="s">
         <v>688</v>
       </c>
+      <c r="F190" s="9" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="8" t="s">
+      <c r="A191" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>688</v>
+      <c r="B191" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11" t="s">
+      <c r="A192" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F192" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="E192" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="193" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C193" s="8" t="n">
+    </row>
+    <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D193" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="C194" s="8" t="n">
+      <c r="D194" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="C195" s="9" t="n">
         <v>2611</v>
       </c>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="C195" s="8" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8" t="s">
-        <v>701</v>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9" t="s">
+        <v>702</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="8" t="s">
+      <c r="A196" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="F196" s="8"/>
+      <c r="B196" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C196" s="9" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9" t="s">
+        <v>705</v>
+      </c>
       <c r="G196" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11" t="s">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="B197" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="F197" s="9"/>
+      <c r="G197" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="11" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="C198" s="12"/>
+      <c r="D198" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="C198" s="8" t="n">
+      <c r="E198" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C199" s="9" t="n">
         <v>3721</v>
       </c>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C199" s="8" t="n">
+      <c r="D199" s="9"/>
+      <c r="E199" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C200" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="D199" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="B200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="C200" s="11" t="n">
+      <c r="E200" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C201" s="12" t="n">
         <v>8400</v>
       </c>
-      <c r="D200" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="B201" s="8" t="s">
+      <c r="D201" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E201" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="F201" s="8" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C202" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="F202" s="8"/>
-      <c r="G202" s="4" t="s">
-        <v>82</v>
+      <c r="C202" s="3"/>
+      <c r="E202" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C203" s="8" t="n">
+        <v>729</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C203" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D203" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="F203" s="8"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="F203" s="9"/>
       <c r="G203" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="B204" s="8" t="s">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C204" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="F204" s="9"/>
+      <c r="G204" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C205" s="8" t="n">
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C206" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="G205" s="4" t="s">
+      <c r="D206" s="9"/>
+      <c r="E206" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="G206" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="F206" s="8"/>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="F207" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="743">
   <si>
     <t>Hash</t>
   </si>
@@ -1908,6 +1908,15 @@
   </si>
   <si>
     <t>2d7421aeb3bae997944090ba7e1c1df448dd92af995af28fa58737d2cc0b0ecc955a9c747cd701e70edfe41e8e3d76740700df60926886c540a80cfa76854da5</t>
+  </si>
+  <si>
+    <t>SipHash</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{16}:2:4:[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>ad61d78c06037cd9:2:4:81533218127174468417660201434054</t>
   </si>
   <si>
     <t>Skein-1024</t>
@@ -2424,10 +2433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A1:G207"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2790,7 +2799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
@@ -2810,7 +2819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>83</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
         <v>232</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
         <v>236</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
         <v>283</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>286</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>335</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>339</v>
       </c>
@@ -4463,7 +4472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
         <v>415</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
         <v>416</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="s">
         <v>438</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="s">
         <v>441</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
         <v>445</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
         <v>449</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
         <v>457</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
         <v>472</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
         <v>475</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
         <v>479</v>
       </c>
@@ -5256,7 +5265,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>580</v>
       </c>
@@ -5266,7 +5275,6 @@
       <c r="C155" s="10" t="n">
         <v>8900</v>
       </c>
-      <c r="D155" s="1"/>
       <c r="E155" s="9" t="s">
         <v>582</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="11" t="s">
         <v>592</v>
       </c>
@@ -5534,28 +5542,29 @@
         <v>621</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="11" t="s">
+    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="9" t="s">
+      <c r="C170" s="15" t="n">
+        <v>10100</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F170" s="9" t="s">
-        <v>634</v>
+      <c r="G170" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>635</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>608</v>
       </c>
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
@@ -5563,41 +5572,39 @@
         <v>636</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>242</v>
+        <v>552</v>
       </c>
       <c r="C173" s="12"/>
-      <c r="D173" s="12" t="s">
-        <v>640</v>
-      </c>
+      <c r="D173" s="12"/>
       <c r="E173" s="9" t="s">
         <v>641</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,65 +5612,65 @@
         <v>642</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
+      <c r="D174" s="12" t="s">
+        <v>643</v>
+      </c>
       <c r="E174" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
       <c r="E175" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>552</v>
+        <v>266</v>
       </c>
       <c r="C177" s="12"/>
-      <c r="D177" s="12" t="s">
-        <v>649</v>
-      </c>
+      <c r="D177" s="12"/>
       <c r="E177" s="9" t="s">
         <v>650</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,114 +5678,114 @@
         <v>651</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>186</v>
+        <v>552</v>
       </c>
       <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
+      <c r="D178" s="12" t="s">
+        <v>652</v>
+      </c>
       <c r="E178" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
       <c r="E179" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
       <c r="E181" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>608</v>
+        <v>242</v>
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>661</v>
+      <c r="A183" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C183" s="10" t="n">
-        <v>23</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
       <c r="E183" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="F183" s="10" t="s">
+      <c r="F183" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="11" t="s">
+      <c r="B184" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="C184" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="E184" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C184" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9" t="s">
+      <c r="F184" s="10" t="s">
         <v>667</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5786,124 +5793,126 @@
         <v>668</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12" t="s">
         <v>669</v>
       </c>
+      <c r="C185" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="F185" s="9" t="s">
-        <v>671</v>
+      <c r="G185" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>673</v>
+        <v>186</v>
       </c>
       <c r="C186" s="12"/>
       <c r="D186" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="F186" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="E186" s="9" t="s">
+    </row>
+    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F186" s="9" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="11" t="s">
+      <c r="B187" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="C187" s="12"/>
+      <c r="D187" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="C187" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D187" s="9"/>
       <c r="E187" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>82</v>
+        <v>678</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B188" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C188" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C188" s="9" t="n">
+      <c r="C189" s="9" t="n">
         <v>1711</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="C189" s="9" t="n">
-        <v>3300</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>682</v>
       </c>
       <c r="E189" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="B190" s="9" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="11" t="s">
+      <c r="C190" s="9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D190" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="E190" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C190" s="9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D190" s="9" t="s">
+      <c r="F190" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C191" s="9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D191" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
       <c r="E191" s="9" t="s">
         <v>691</v>
       </c>
@@ -5916,7 +5925,7 @@
         <v>693</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
@@ -5924,66 +5933,64 @@
         <v>694</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C193" s="12"/>
-      <c r="D193" s="12" t="s">
-        <v>696</v>
-      </c>
+      <c r="D193" s="12"/>
       <c r="E193" s="9" t="s">
         <v>697</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11" t="s">
         <v>698</v>
       </c>
       <c r="B194" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C194" s="9" t="n">
+      <c r="C195" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D195" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E194" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="F194" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="C195" s="9" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D195" s="9"/>
       <c r="E195" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G195" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F195" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11" t="s">
         <v>703</v>
       </c>
@@ -5991,7 +5998,7 @@
         <v>704</v>
       </c>
       <c r="C196" s="9" t="n">
-        <v>2711</v>
+        <v>2611</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9" t="s">
@@ -6001,107 +6008,110 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
+        <v>707</v>
+      </c>
+      <c r="C197" s="9" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D197" s="9"/>
       <c r="E197" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F197" s="9"/>
+        <v>708</v>
+      </c>
       <c r="G197" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>709</v>
+        <v>242</v>
       </c>
       <c r="C198" s="12"/>
-      <c r="D198" s="12" t="s">
+      <c r="D198" s="12"/>
+      <c r="E198" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="E198" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>712</v>
+      <c r="F198" s="9"/>
+      <c r="G198" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="E199" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C199" s="9" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9" t="s">
+      <c r="F199" s="9" t="s">
         <v>715</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="C200" s="9" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D200" s="9" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="E200" s="9" t="s">
+      <c r="F200" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="F200" s="9" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C201" s="9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="E201" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C201" s="12" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D201" s="12" t="s">
+      <c r="F201" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="F201" s="9" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C202" s="12" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D202" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C202" s="3"/>
       <c r="E202" s="9" t="s">
         <v>727</v>
       </c>
@@ -6109,91 +6119,106 @@
         <v>728</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
+    <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="11" t="s">
         <v>729</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C203" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D203" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C203" s="3"/>
       <c r="E203" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="F203" s="9"/>
-      <c r="G203" s="4" t="s">
-        <v>82</v>
+      <c r="F203" s="9" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>512</v>
+        <v>302</v>
       </c>
       <c r="C204" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>508</v>
-      </c>
+      <c r="D204" s="9"/>
       <c r="E204" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="11" t="s">
-        <v>733</v>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
+        <v>512</v>
+      </c>
+      <c r="C205" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>508</v>
+      </c>
       <c r="E205" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="F205" s="9" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="9"/>
+      <c r="G205" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="11" t="s">
         <v>736</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C206" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="D206" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
       <c r="E206" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="G206" s="4" t="s">
+      <c r="F206" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C207" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="G207" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B207" s="9" t="s">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E207" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="F207" s="9"/>
+      <c r="E208" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="F208" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="745">
   <si>
     <t>Hash</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>CRC-32</t>
+  </si>
+  <si>
+    <t>^(\$crc32\$[a-f0-9]{8}.)?[a-f0-9]{8}$/i</t>
+  </si>
+  <si>
+    <t>crc32</t>
   </si>
   <si>
     <t>8423d781</t>
@@ -2435,8 +2441,8 @@
   </sheetPr>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2963,12 +2969,14 @@
         <v>112</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="E28" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>106</v>
@@ -2976,7 +2984,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>16</v>
@@ -2984,7 +2992,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>106</v>
@@ -2992,15 +3000,15 @@
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>106</v>
@@ -3008,15 +3016,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="4" t="s">
@@ -3025,65 +3033,65 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C35" s="9" t="n">
         <v>3100</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4" t="s">
@@ -3092,133 +3100,133 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C36" s="9" t="n">
         <v>1500</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3"/>
       <c r="E37" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C38" s="3"/>
       <c r="E38" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3"/>
       <c r="E39" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3"/>
       <c r="E40" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>10000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C42" s="9" t="n">
         <v>800</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4" t="s">
@@ -3227,15 +3235,15 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4" t="s">
@@ -3244,75 +3252,75 @@
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>8300</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C46" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C47" s="9" t="n">
         <v>2100</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>2600</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>82</v>
@@ -3320,17 +3328,17 @@
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>4500</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>82</v>
@@ -3338,37 +3346,37 @@
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C50" s="9" t="n">
         <v>7900</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="4" t="s">
@@ -3377,7 +3385,7 @@
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>16</v>
@@ -3385,50 +3393,50 @@
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C53" s="9" t="n">
         <v>123</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C54" s="9" t="n">
         <v>141</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>11</v>
@@ -3436,20 +3444,20 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C55" s="9" t="n">
         <v>1441</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>11</v>
@@ -3457,23 +3465,23 @@
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>104</v>
@@ -3481,15 +3489,15 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>16</v>
@@ -3497,15 +3505,15 @@
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>16</v>
@@ -3513,15 +3521,15 @@
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>16</v>
@@ -3529,7 +3537,7 @@
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="4" t="s">
@@ -3538,35 +3546,35 @@
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>7000</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>82</v>
@@ -3574,7 +3582,7 @@
     </row>
     <row r="63" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>79</v>
@@ -3594,7 +3602,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>16</v>
@@ -3602,7 +3610,7 @@
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="4" t="s">
@@ -3611,7 +3619,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>16</v>
@@ -3619,7 +3627,7 @@
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="4" t="s">
@@ -3628,195 +3636,195 @@
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C66" s="9" t="n">
         <v>6900</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C67" s="9" t="n">
         <v>7200</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C68" s="9" t="n">
         <v>5100</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>1421</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C76" s="10" t="n">
         <v>5300</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>11</v>
@@ -3824,19 +3832,19 @@
     </row>
     <row r="77" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C77" s="10" t="n">
         <v>5400</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>11</v>
@@ -3844,17 +3852,17 @@
     </row>
     <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C78" s="9" t="n">
         <v>2811</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>82</v>
@@ -3862,17 +3870,17 @@
     </row>
     <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C79" s="12" t="n">
         <v>7300</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>82</v>
@@ -3880,27 +3888,27 @@
     </row>
     <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C80" s="9" t="n">
         <v>4800</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>16</v>
@@ -3908,86 +3916,86 @@
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C82" s="9" t="n">
         <v>11</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C84" s="9" t="n">
         <v>22</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C85" s="9" t="n">
         <v>7500</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>11</v>
@@ -3995,51 +4003,51 @@
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C86" s="9" t="n">
         <v>6800</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C87" s="9" t="n">
         <v>1711</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="4" t="s">
@@ -4048,59 +4056,59 @@
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C89" s="9" t="n">
         <v>190</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C90" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>82</v>
@@ -4108,19 +4116,19 @@
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>82</v>
@@ -4128,96 +4136,96 @@
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C93" s="10" t="n">
         <v>9100</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C96" s="9" t="n">
         <v>900</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>79</v>
@@ -4229,15 +4237,15 @@
         <v>80</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>45</v>
@@ -4255,229 +4263,229 @@
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C100" s="9" t="n">
         <v>4800</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C103" s="10" t="n">
         <v>9700</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C104" s="10" t="n">
         <v>9800</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C105" s="10" t="n">
         <v>9400</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C106" s="10" t="n">
         <v>9500</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C107" s="10" t="n">
         <v>9600</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C110" s="9" t="n">
         <v>131</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C111" s="9" t="n">
         <v>132</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C112" s="12" t="n">
         <v>132</v>
@@ -4490,19 +4498,19 @@
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C113" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>82</v>
@@ -4510,97 +4518,97 @@
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C114" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C115" s="9" t="n">
         <v>2811</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C116" s="9" t="n">
         <v>200</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C117" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C118" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="4" t="s">
@@ -4609,17 +4617,17 @@
     </row>
     <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C119" s="9" t="n">
         <v>5500</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>82</v>
@@ -4627,19 +4635,19 @@
     </row>
     <row r="120" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>5600</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>82</v>
@@ -4647,19 +4655,19 @@
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C121" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>82</v>
@@ -4667,19 +4675,19 @@
     </row>
     <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C122" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>82</v>
@@ -4687,35 +4695,35 @@
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
       <c r="E123" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C124" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>82</v>
@@ -4723,75 +4731,75 @@
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C125" s="9" t="n">
         <v>112</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C126" s="9" t="n">
         <v>3100</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C127" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C128" s="9" t="n">
         <v>122</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>82</v>
@@ -4799,19 +4807,19 @@
     </row>
     <row r="129" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C129" s="9" t="n">
         <v>1722</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>82</v>
@@ -4819,19 +4827,19 @@
     </row>
     <row r="130" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C130" s="9" t="n">
         <v>7100</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>82</v>
@@ -4839,15 +4847,15 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="4" t="s">
@@ -4856,121 +4864,121 @@
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C132" s="3"/>
       <c r="E132" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
       <c r="E133" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C136" s="10" t="n">
         <v>133</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C137" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C138" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="4" t="s">
@@ -4979,74 +4987,74 @@
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C139" s="10" t="n">
         <v>2612</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C140" s="3"/>
       <c r="E140" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="4" t="s">
@@ -5055,228 +5063,228 @@
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C143" s="9" t="n">
         <v>7600</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C145" s="9" t="n">
         <v>6000</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C151" s="9" t="n">
         <v>7700</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C152" s="9" t="n">
         <v>7800</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C153" s="15" t="n">
         <v>10300</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C155" s="10" t="n">
         <v>8900</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>11</v>
@@ -5284,57 +5292,57 @@
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C156" s="12" t="n">
         <v>100</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="11" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C158" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>82</v>
@@ -5342,15 +5350,15 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="4" t="s">
@@ -5359,201 +5367,201 @@
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="11" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C161" s="9" t="n">
         <v>1400</v>
       </c>
       <c r="D161" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>600</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C162" s="9" t="n">
         <v>7400</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="11" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="12" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="11" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C164" s="9" t="n">
         <v>1700</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="11" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C165" s="9" t="n">
         <v>1800</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C166" s="3"/>
       <c r="E166" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C167" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
       <c r="E168" s="9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C169" s="12"/>
       <c r="D169" s="12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C170" s="15" t="n">
         <v>10100</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>82</v>
@@ -5561,246 +5569,246 @@
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
       <c r="E171" s="9" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>639</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
       <c r="E173" s="9" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C174" s="12"/>
       <c r="D174" s="12" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
       <c r="E175" s="9" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="9" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C178" s="12"/>
       <c r="D178" s="12" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
       <c r="E179" s="9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="9" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
       <c r="E181" s="9" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
       <c r="E183" s="9" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C184" s="10" t="n">
         <v>23</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C185" s="9" t="n">
         <v>121</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>82</v>
@@ -5808,53 +5816,53 @@
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C186" s="12"/>
       <c r="D186" s="12" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C187" s="12"/>
       <c r="D187" s="12" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C188" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>82</v>
@@ -5862,147 +5870,147 @@
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C189" s="9" t="n">
         <v>1711</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C190" s="9" t="n">
         <v>3300</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C191" s="9" t="n">
         <v>8000</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
       <c r="E192" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
       <c r="E193" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C194" s="12"/>
       <c r="D194" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C195" s="9" t="n">
         <v>1500</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C196" s="9" t="n">
         <v>2611</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>82</v>
@@ -6010,17 +6018,17 @@
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C197" s="9" t="n">
         <v>2711</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>82</v>
@@ -6028,15 +6036,15 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="4" t="s">
@@ -6045,108 +6053,108 @@
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C199" s="12"/>
       <c r="D199" s="12" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C200" s="9" t="n">
         <v>3721</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C201" s="9" t="n">
         <v>6100</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C202" s="12" t="n">
         <v>8400</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C203" s="3"/>
       <c r="E203" s="9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C204" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="4" t="s">
@@ -6155,19 +6163,19 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C205" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="4" t="s">
@@ -6176,7 +6184,7 @@
     </row>
     <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>16</v>
@@ -6184,25 +6192,25 @@
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
       <c r="E206" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="11" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C207" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>82</v>
@@ -6210,13 +6218,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F208" s="9"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -1766,10 +1766,10 @@
     <t>scrypt</t>
   </si>
   <si>
-    <t>^SCRYPT:[0-9]{5}:[0-9]{1}:[0-9]{1}:[a-z0-9\/+]{14}==:[a-z0-9\/+]{43}=$/i</t>
-  </si>
-  <si>
-    <t>SCRYPT:16384:8:1:NTc3NDM2MjM4Ng==:H20uniAjyGNxmqBHRGi3kZBZjHInup43hf4wMWT65WU=</t>
+    <t>^SCRYPT:[0-9]{1,}:[0-9]{1}:[0-9]{1}:[a-z0-9:\/+=]{1,}$/i</t>
+  </si>
+  <si>
+    <t>SCRYPT:1024:1:1:MDIwMzMwNTQwNDQyNQ==:5FW+zWivLxgCWj7qLiQbeC8zaNQ+qdO0NUinvqyFcfo= </t>
   </si>
   <si>
     <t>SHA-1</t>
@@ -2441,8 +2441,8 @@
   </sheetPr>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5273,7 +5273,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>582</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="C155" s="10" t="n">
         <v>8900</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="13" t="s">
         <v>584</v>
       </c>
       <c r="G155" s="4" t="s">

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -161,7 +161,7 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
   </si>
   <si>
-    <t>BCrypt(SHA-256)</t>
+    <t>bcrypt(SHA-256)</t>
   </si>
   <si>
     <t>^\$bcrypt-sha256\$(2[axy]|2)\,[0-9]+\$[a-z0-9\/.]{22}\$[a-z0-9\/.]{31}$/i</t>
@@ -443,7 +443,7 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.des_crypt.html</t>
   </si>
   <si>
-    <t>Django(BCrypt)</t>
+    <t>Django(bcrypt)</t>
   </si>
   <si>
     <t>^bcrypt(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/.]{53}$/i</t>
@@ -1769,7 +1769,7 @@
     <t>^SCRYPT:[0-9]{1,}:[0-9]{1}:[0-9]{1}:[a-z0-9:\/+=]{1,}$/i</t>
   </si>
   <si>
-    <t>SCRYPT:1024:1:1:MDIwMzMwNTQwNDQyNQ==:5FW+zWivLxgCWj7qLiQbeC8zaNQ+qdO0NUinvqyFcfo= </t>
+    <t>SCRYPT:1024:1:1:MDIwMzMwNTQwNDQyNQ==:5FW+zWivLxgCWj7qLiQbeC8zaNQ+qdO0NUinvqyFcfo=</t>
   </si>
   <si>
     <t>SHA-1</t>
@@ -2441,8 +2441,8 @@
   </sheetPr>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="745">
   <si>
     <t>Hash</t>
   </si>
@@ -2345,7 +2345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2372,10 +2372,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2441,8 +2437,8 @@
   </sheetPr>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2450,7 +2446,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3928571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="17.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="19.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="18.3316326530612"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="46.1224489795918"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5255102040816"/>
@@ -2464,7 +2460,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -2476,7 +2472,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2484,16 +2480,16 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="9" t="n">
         <v>6600</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2504,16 +2500,16 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="9" t="n">
         <v>8200</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2521,38 +2517,38 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="8" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2560,22 +2556,22 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="8" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2583,22 +2579,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="8" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2606,22 +2602,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="8" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2632,106 +2628,109 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="9" t="n">
         <v>8800</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="8" t="n">
         <v>5800</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2739,13 +2738,13 @@
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="9" t="n">
         <v>9200</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2756,13 +2755,13 @@
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="9" t="n">
         <v>9300</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2770,55 +2769,55 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="8" t="n">
         <v>2410</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2826,17 +2825,17 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="8" t="n">
         <v>5700</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2844,55 +2843,55 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="8" t="n">
         <v>2400</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="8" t="n">
         <v>8100</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2906,7 +2905,7 @@
       <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="14" t="n">
         <v>10200</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2917,34 +2916,34 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2952,12 +2951,12 @@
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2965,156 +2964,156 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3122,14 +3121,14 @@
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3137,14 +3136,14 @@
       <c r="A38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3152,14 +3151,14 @@
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3167,14 +3166,14 @@
       <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3182,7 +3181,7 @@
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C41" s="3" t="n">
@@ -3191,10 +3190,10 @@
       <c r="D41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3202,17 +3201,17 @@
       <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3220,15 +3219,15 @@
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="9" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="4" t="s">
         <v>82</v>
       </c>
@@ -3237,15 +3236,15 @@
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="9" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="4" t="s">
         <v>82</v>
       </c>
@@ -3254,57 +3253,57 @@
       <c r="A45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="12" t="n">
+      <c r="C45" s="11" t="n">
         <v>8300</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="8" t="n">
         <v>1100</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="8" t="n">
         <v>2100</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3312,14 +3311,14 @@
       <c r="A48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="12" t="n">
+      <c r="C48" s="11" t="n">
         <v>2600</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="8" t="s">
         <v>189</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -3330,14 +3329,14 @@
       <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="12" t="n">
+      <c r="C49" s="11" t="n">
         <v>4500</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="8" t="s">
         <v>192</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -3345,74 +3344,74 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="8" t="n">
         <v>7900</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="9" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>208</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -3420,19 +3419,19 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="C54" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>213</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -3443,17 +3442,17 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C55" s="8" t="n">
         <v>1441</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
         <v>216</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -3467,113 +3466,113 @@
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="9" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="9" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="9" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="9" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="9" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="9" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="9" t="n">
+      <c r="C62" s="8" t="n">
         <v>7000</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>237</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -3581,19 +3580,19 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C63" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -3601,192 +3600,192 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="9" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="9" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C66" s="8" t="n">
         <v>6900</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C67" s="9" t="n">
+      <c r="C67" s="8" t="n">
         <v>7200</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="9" t="n">
+      <c r="C68" s="8" t="n">
         <v>5100</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="9" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="9" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="9" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="9" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3794,36 +3793,36 @@
       <c r="A75" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="12" t="n">
+      <c r="C75" s="11" t="n">
         <v>1421</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C76" s="10" t="n">
+      <c r="C76" s="9" t="n">
         <v>5300</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>281</v>
       </c>
       <c r="G76" s="4" t="s">
@@ -3831,19 +3830,19 @@
       </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C77" s="10" t="n">
+      <c r="C77" s="9" t="n">
         <v>5400</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="9" t="s">
         <v>281</v>
       </c>
       <c r="G77" s="4" t="s">
@@ -3851,17 +3850,17 @@
       </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C78" s="9" t="n">
+      <c r="C78" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
         <v>287</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -3872,14 +3871,14 @@
       <c r="A79" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C79" s="12" t="n">
+      <c r="C79" s="11" t="n">
         <v>7300</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="9" t="s">
+      <c r="D79" s="11"/>
+      <c r="E79" s="8" t="s">
         <v>290</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -3887,35 +3886,35 @@
       </c>
     </row>
     <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C80" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="9" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="8" t="s">
         <v>297</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -3923,78 +3922,78 @@
       </c>
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C82" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C84" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="8" t="n">
         <v>7500</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>317</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -4002,112 +4001,112 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C86" s="9" t="n">
+      <c r="C86" s="8" t="n">
         <v>6800</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C87" s="9" t="n">
+      <c r="C87" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="9" t="s">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="9" t="n">
+      <c r="C89" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="9" t="n">
+      <c r="C90" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>340</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -4115,19 +4114,19 @@
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="8" t="s">
         <v>345</v>
       </c>
       <c r="G92" s="4" t="s">
@@ -4138,193 +4137,193 @@
       <c r="A93" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C93" s="10" t="n">
+      <c r="C93" s="9" t="n">
         <v>9100</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="9" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="9" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="9" t="n">
+      <c r="C96" s="8" t="n">
         <v>900</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="9" t="n">
+      <c r="C98" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="9" t="n">
+      <c r="C99" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="9" t="n">
+      <c r="C100" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="9" t="s">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="9" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C103" s="10" t="n">
+      <c r="C103" s="9" t="n">
         <v>9700</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -4338,16 +4337,16 @@
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C104" s="10" t="n">
+      <c r="C104" s="9" t="n">
         <v>9800</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="9" t="s">
         <v>388</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -4358,16 +4357,16 @@
       <c r="A105" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C105" s="10" t="n">
+      <c r="C105" s="9" t="n">
         <v>9400</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="8" t="s">
         <v>392</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -4378,13 +4377,13 @@
       <c r="A106" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C106" s="10" t="n">
+      <c r="C106" s="9" t="n">
         <v>9500</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="16" t="s">
         <v>395</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -4395,13 +4394,13 @@
       <c r="A107" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C107" s="10" t="n">
+      <c r="C107" s="9" t="n">
         <v>9600</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="9" t="s">
         <v>398</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -4409,107 +4408,107 @@
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="9" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="9" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="9" t="n">
+      <c r="C110" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C111" s="9" t="n">
+      <c r="C111" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C112" s="12" t="n">
+      <c r="C112" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="9"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="8"/>
       <c r="G112" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C113" s="9" t="n">
+      <c r="C113" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>421</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -4517,116 +4516,116 @@
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C114" s="9" t="n">
+      <c r="C114" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C115" s="9" t="n">
+      <c r="C115" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="9" t="n">
+      <c r="C116" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C117" s="9" t="n">
+      <c r="C117" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C118" s="9" t="n">
+      <c r="C118" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F118" s="9"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C119" s="9" t="n">
+      <c r="C119" s="8" t="n">
         <v>5500</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8" t="s">
         <v>442</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -4634,19 +4633,19 @@
       </c>
     </row>
     <row r="120" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C120" s="9" t="n">
+      <c r="C120" s="8" t="n">
         <v>5600</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="8" t="s">
         <v>446</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -4654,19 +4653,19 @@
       </c>
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C121" s="9" t="n">
+      <c r="C121" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="8" t="s">
         <v>450</v>
       </c>
       <c r="G121" s="4" t="s">
@@ -4674,19 +4673,19 @@
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C122" s="9" t="n">
+      <c r="C122" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="8" t="s">
         <v>454</v>
       </c>
       <c r="G122" s="4" t="s">
@@ -4694,35 +4693,35 @@
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="9" t="s">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C124" s="9" t="n">
+      <c r="C124" s="8" t="n">
         <v>1000</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="8" t="s">
         <v>359</v>
       </c>
       <c r="G124" s="4" t="s">
@@ -4730,75 +4729,75 @@
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C125" s="9" t="n">
+      <c r="C125" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="9" t="n">
+      <c r="C126" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C127" s="9" t="n">
+      <c r="C127" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C128" s="9" t="n">
+      <c r="C128" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>476</v>
       </c>
       <c r="G128" s="4" t="s">
@@ -4806,19 +4805,19 @@
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C129" s="9" t="n">
+      <c r="C129" s="8" t="n">
         <v>1722</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="8" t="s">
         <v>480</v>
       </c>
       <c r="G129" s="4" t="s">
@@ -4826,19 +4825,19 @@
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C130" s="9" t="n">
+      <c r="C130" s="8" t="n">
         <v>7100</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="8" t="s">
         <v>484</v>
       </c>
       <c r="G130" s="4" t="s">
@@ -4846,66 +4845,66 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="9" t="s">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="F131" s="9"/>
+      <c r="F131" s="8"/>
       <c r="G131" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>489</v>
       </c>
       <c r="C132" s="3"/>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="F132" s="10" t="s">
+      <c r="F132" s="9" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="9" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="8" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="9" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" s="8" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4913,17 +4912,17 @@
       <c r="A135" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12" t="s">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="8" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4931,36 +4930,36 @@
       <c r="A136" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C136" s="10" t="n">
+      <c r="C136" s="9" t="n">
         <v>133</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="9" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C137" s="9" t="n">
+      <c r="C137" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" s="8" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4968,19 +4967,19 @@
       <c r="A138" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C138" s="9" t="n">
+      <c r="C138" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="F138" s="9"/>
+      <c r="F138" s="8"/>
       <c r="G138" s="4" t="s">
         <v>82</v>
       </c>
@@ -4989,19 +4988,19 @@
       <c r="A139" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C139" s="10" t="n">
+      <c r="C139" s="9" t="n">
         <v>2612</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5009,231 +5008,231 @@
       <c r="A140" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>522</v>
       </c>
       <c r="C140" s="3"/>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="9" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F141" s="8" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="F142" s="9"/>
+      <c r="F142" s="8"/>
       <c r="G142" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="C143" s="9" t="n">
+      <c r="C143" s="8" t="n">
         <v>7600</v>
       </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
+      <c r="D143" s="8"/>
+      <c r="E143" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12" t="s">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" s="8" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C145" s="9" t="n">
+      <c r="C145" s="8" t="n">
         <v>6000</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" s="8" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="9" t="s">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" s="8" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="9" t="s">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F147" s="8" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="9" t="s">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="9" t="s">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" s="8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="9" t="s">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" s="8" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C151" s="9" t="n">
+      <c r="C151" s="8" t="n">
         <v>7700</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" s="8" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C152" s="9" t="n">
+      <c r="C152" s="8" t="n">
         <v>7800</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E152" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="F152" s="8" t="s">
         <v>568</v>
       </c>
     </row>
@@ -5241,10 +5240,10 @@
       <c r="A153" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="C153" s="15" t="n">
+      <c r="C153" s="14" t="n">
         <v>10300</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -5258,18 +5257,18 @@
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="9" t="s">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" s="8" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5277,13 +5276,13 @@
       <c r="A155" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C155" s="10" t="n">
+      <c r="C155" s="9" t="n">
         <v>8900</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="12" t="s">
         <v>584</v>
       </c>
       <c r="G155" s="4" t="s">
@@ -5291,57 +5290,57 @@
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C156" s="12" t="n">
+      <c r="C156" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E156" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" s="8" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12" t="s">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F157" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C158" s="9" t="n">
+      <c r="C158" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="8" t="s">
         <v>450</v>
       </c>
       <c r="G158" s="4" t="s">
@@ -5349,57 +5348,57 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="9" t="s">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="F159" s="9"/>
+      <c r="F159" s="8"/>
       <c r="G159" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12" t="s">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E160" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="F160" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C161" s="9" t="n">
+      <c r="C161" s="8" t="n">
         <v>1400</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" s="8" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5407,146 +5406,146 @@
       <c r="A162" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C162" s="9" t="n">
+      <c r="C162" s="8" t="n">
         <v>7400</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F162" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12" t="s">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F163" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C164" s="9" t="n">
+      <c r="C164" s="8" t="n">
         <v>1700</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E164" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F164" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C165" s="9" t="n">
+      <c r="C165" s="8" t="n">
         <v>1800</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F165" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="E166" s="9" t="s">
+      <c r="E166" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="F166" s="9" t="s">
+      <c r="F166" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="D167" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="9" t="s">
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="F168" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12" t="s">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="8" t="s">
         <v>623</v>
       </c>
     </row>
@@ -5557,7 +5556,7 @@
       <c r="B170" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C170" s="15" t="n">
+      <c r="C170" s="14" t="n">
         <v>10100</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -5568,214 +5567,214 @@
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="9" t="s">
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="F171" s="9" t="s">
+      <c r="F171" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="9" t="s">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="F172" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="9" t="s">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="F173" s="9" t="s">
+      <c r="F173" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12" t="s">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="E174" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="F174" s="9" t="s">
+      <c r="F174" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="9" t="s">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="F175" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="9" t="s">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="F176" s="9" t="s">
+      <c r="F176" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="9" t="s">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="F177" s="9" t="s">
+      <c r="F177" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12" t="s">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="E178" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="F178" s="9" t="s">
+      <c r="F178" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="9" t="s">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="9" t="s">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="F180" s="9" t="s">
+      <c r="F180" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="9" t="s">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="F181" s="9" t="s">
+      <c r="F181" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="9" t="s">
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="F182" s="9" t="s">
+      <c r="F182" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="9" t="s">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="F183" s="9" t="s">
+      <c r="F183" s="8" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5783,31 +5782,31 @@
       <c r="A184" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C184" s="10" t="n">
+      <c r="C184" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="E184" s="9" t="s">
+      <c r="E184" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="F184" s="10" t="s">
+      <c r="F184" s="9" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="C185" s="9" t="n">
+      <c r="C185" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
+      <c r="D185" s="8"/>
+      <c r="E185" s="8" t="s">
         <v>672</v>
       </c>
       <c r="G185" s="4" t="s">
@@ -5815,53 +5814,53 @@
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12" t="s">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="E186" s="9" t="s">
+      <c r="E186" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="F186" s="9" t="s">
+      <c r="F186" s="8" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12" t="s">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="F187" s="9" t="s">
+      <c r="F187" s="8" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C188" s="9" t="n">
+      <c r="C188" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9" t="s">
+      <c r="D188" s="8"/>
+      <c r="E188" s="8" t="s">
         <v>454</v>
       </c>
       <c r="G188" s="4" t="s">
@@ -5869,22 +5868,22 @@
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C189" s="9" t="n">
+      <c r="C189" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="F189" s="8" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5892,124 +5891,124 @@
       <c r="A190" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="C190" s="9" t="n">
+      <c r="C190" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F190" s="9" t="s">
+      <c r="F190" s="8" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C191" s="9" t="n">
+      <c r="C191" s="8" t="n">
         <v>8000</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="F191" s="8" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="9" t="s">
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="F192" s="9" t="s">
+      <c r="F192" s="8" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="11" t="s">
+      <c r="A193" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="9" t="s">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="F193" s="9" t="s">
+      <c r="F193" s="8" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12" t="s">
+      <c r="C194" s="11"/>
+      <c r="D194" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="F194" s="9" t="s">
+      <c r="F194" s="8" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C195" s="9" t="n">
+      <c r="C195" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D195" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="F195" s="9" t="s">
+      <c r="F195" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="C196" s="9" t="n">
+      <c r="C196" s="8" t="n">
         <v>2611</v>
       </c>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9" t="s">
+      <c r="D196" s="8"/>
+      <c r="E196" s="8" t="s">
         <v>707</v>
       </c>
       <c r="G196" s="4" t="s">
@@ -6017,17 +6016,17 @@
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C197" s="9" t="n">
+      <c r="C197" s="8" t="n">
         <v>2711</v>
       </c>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9" t="s">
+      <c r="D197" s="8"/>
+      <c r="E197" s="8" t="s">
         <v>710</v>
       </c>
       <c r="G197" s="4" t="s">
@@ -6035,110 +6034,110 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="9" t="s">
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="F198" s="9"/>
+      <c r="F198" s="8"/>
       <c r="G198" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12" t="s">
+      <c r="C199" s="11"/>
+      <c r="D199" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="F199" s="9" t="s">
+      <c r="F199" s="8" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="11" t="s">
+      <c r="A200" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="C200" s="9" t="n">
+      <c r="C200" s="8" t="n">
         <v>3721</v>
       </c>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9" t="s">
+      <c r="D200" s="8"/>
+      <c r="E200" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="F200" s="9" t="s">
+      <c r="F200" s="8" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C201" s="9" t="n">
+      <c r="C201" s="8" t="n">
         <v>6100</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="F201" s="9" t="s">
+      <c r="F201" s="8" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="11" t="s">
+      <c r="A202" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C202" s="12" t="n">
+      <c r="C202" s="11" t="n">
         <v>8400</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="D202" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="F202" s="9" t="s">
+      <c r="F202" s="8" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C203" s="3"/>
-      <c r="E203" s="9" t="s">
+      <c r="E203" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="F203" s="8" t="s">
         <v>733</v>
       </c>
     </row>
@@ -6146,17 +6145,17 @@
       <c r="A204" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C204" s="9" t="n">
+      <c r="C204" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9" t="s">
+      <c r="D204" s="8"/>
+      <c r="E204" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="F204" s="9"/>
+      <c r="F204" s="8"/>
       <c r="G204" s="4" t="s">
         <v>82</v>
       </c>
@@ -6165,51 +6164,51 @@
       <c r="A205" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C205" s="9" t="n">
+      <c r="C205" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="F205" s="9"/>
+      <c r="F205" s="8"/>
       <c r="G205" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11" t="s">
+      <c r="A206" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="9" t="s">
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" s="8" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="11" t="s">
+      <c r="A207" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C207" s="9" t="n">
+      <c r="C207" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9" t="s">
+      <c r="D207" s="8"/>
+      <c r="E207" s="8" t="s">
         <v>742</v>
       </c>
       <c r="G207" s="4" t="s">
@@ -6220,13 +6219,13 @@
       <c r="A208" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E208" s="9" t="s">
+      <c r="E208" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="F208" s="9"/>
+      <c r="F208" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -2437,8 +2437,8 @@
   </sheetPr>
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="749">
   <si>
     <t>Hash</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.bsdi_crypt.html</t>
+  </si>
+  <si>
+    <t>Cisco Type 4</t>
+  </si>
+  <si>
+    <t>^(\$cisco4\$)?[a-z0-9\/.]{43}$/i</t>
+  </si>
+  <si>
+    <t>jHSXiU.oQTuJ/lmrcyVL1on3EL4Jdd5J7S3y34QiQDQ </t>
+  </si>
+  <si>
+    <t>http://www.tobtu.com/cisco4tosha256.php</t>
   </si>
   <si>
     <t>Cisco Type 8</t>
@@ -2435,10 +2447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2734,17 +2746,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="9" t="n">
-        <v>9200</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2759,29 +2768,30 @@
         <v>67</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,143 +2801,143 @@
       <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <v>2410</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="E19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="D20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="8" t="n">
-        <v>5700</v>
-      </c>
-      <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>2400</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>5700</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>90</v>
+      <c r="G21" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="8" t="n">
-        <v>8100</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="n">
+        <v>8100</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
       <c r="E23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="14" t="n">
         <v>10200</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2936,49 +2946,47 @@
         <v>107</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>112</v>
+      <c r="A28" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>106</v>
+      <c r="F28" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,64 +2994,66 @@
         <v>116</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="E29" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="8" t="s">
         <v>127</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,60 +3085,61 @@
         <v>134</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="8" t="n">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="8" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="3"/>
       <c r="E37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3184,261 +3195,253 @@
       <c r="B41" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="3"/>
+      <c r="E41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="8" t="n">
-        <v>800</v>
-      </c>
-      <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="8" t="n">
+        <v>800</v>
+      </c>
+      <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="4" t="s">
-        <v>82</v>
+      <c r="F43" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>8300</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="8" t="s">
         <v>176</v>
       </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="8" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="11" t="n">
+        <v>8300</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="8" t="n">
+      <c r="E47" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="8" t="n">
         <v>2100</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="11" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D48" s="11"/>
       <c r="E48" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>82</v>
+      <c r="F48" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>4500</v>
+        <v>2600</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>193</v>
+      <c r="A50" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="8" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D50" s="8" t="s">
         <v>195</v>
       </c>
+      <c r="C50" s="11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D50" s="11"/>
       <c r="E50" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="G50" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="n">
+        <v>7900</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="E52" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="8" t="n">
-        <v>141</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,70 +3452,77 @@
         <v>215</v>
       </c>
       <c r="C55" s="8" t="n">
-        <v>1441</v>
-      </c>
-      <c r="D55" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="E55" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>217</v>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F56" s="8" t="s">
         <v>220</v>
       </c>
+      <c r="F56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>16</v>
@@ -3520,15 +3530,15 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>16</v>
@@ -3536,89 +3546,88 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="8" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
         <v>238</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="C63" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="D64" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="E64" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" s="8"/>
+        <v>85</v>
+      </c>
       <c r="G64" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>16</v>
@@ -3626,48 +3635,47 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C66" s="8" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>245</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>247</v>
+      <c r="F66" s="8"/>
+      <c r="G66" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="8" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C67" s="8" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D67" s="8"/>
       <c r="E67" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3676,46 +3684,46 @@
         <v>252</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="C68" s="8" t="n">
-        <v>5100</v>
+        <v>7200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="C69" s="8" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D69" s="8"/>
       <c r="E69" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F69" s="8" t="s">
         <v>257</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
-        <v>259</v>
-      </c>
+      <c r="D70" s="11"/>
       <c r="E70" s="8" t="s">
         <v>260</v>
       </c>
@@ -3728,77 +3736,75 @@
         <v>262</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="E71" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C74" s="11"/>
-      <c r="D74" s="11" t="s">
-        <v>271</v>
-      </c>
+      <c r="D74" s="11"/>
       <c r="E74" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>273</v>
+      <c r="A75" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="11" t="n">
-        <v>1421</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
         <v>275</v>
       </c>
@@ -3806,27 +3812,27 @@
         <v>276</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="76" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
+      <c r="B76" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="11" t="n">
+        <v>1421</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="C76" s="9" t="n">
-        <v>5300</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,105 +3843,107 @@
         <v>283</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>284</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+    <row r="78" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="9" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="8" t="n">
+      <c r="G78" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="11" t="n">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="11" t="n">
         <v>7300</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>293</v>
-      </c>
+      <c r="D80" s="11"/>
       <c r="E80" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>295</v>
+      <c r="G80" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="C81" s="8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="E81" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F81" s="2" t="s">
         <v>298</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C82" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D82" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3946,76 +3954,76 @@
       <c r="B83" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>305</v>
+      <c r="C83" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="8" t="n">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B85" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C85" s="8" t="n">
+      <c r="E85" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" s="8" t="n">
         <v>7500</v>
       </c>
-      <c r="D85" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="D86" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C86" s="8" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D86" s="8"/>
       <c r="E86" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>321</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,7 +4034,7 @@
         <v>323</v>
       </c>
       <c r="C87" s="8" t="n">
-        <v>1711</v>
+        <v>6800</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8" t="s">
@@ -4036,41 +4044,39 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="C88" s="8" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="8" t="n">
-        <v>190</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>330</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F89" s="8" t="s">
         <v>332</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,10 +4084,10 @@
         <v>333</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C90" s="8" t="n">
-        <v>3000</v>
+        <v>190</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>334</v>
@@ -4093,85 +4099,89 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
         <v>337</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="E91" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
         <v>341</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="E92" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="G92" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C93" s="9" t="n">
+      <c r="D93" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C94" s="9" t="n">
         <v>9100</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
       <c r="E94" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F94" s="8" t="s">
         <v>352</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -4187,14 +4197,10 @@
         <v>357</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="8" t="n">
-        <v>900</v>
-      </c>
-      <c r="D96" s="8" t="s">
         <v>358</v>
       </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="8" t="s">
         <v>359</v>
       </c>
@@ -4207,170 +4213,170 @@
         <v>361</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="8" t="n">
+        <v>900</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="F97" s="8" t="s">
+    </row>
+    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="98" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="B98" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="8" t="n">
+      <c r="D98" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="8" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="E99" s="8" t="s">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>47</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="C100" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>293</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="D100" s="8"/>
       <c r="E100" s="8" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>295</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>374</v>
+        <v>296</v>
+      </c>
+      <c r="C101" s="8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="D102" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
       <c r="E102" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
+    <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10" t="s">
         <v>381</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C103" s="9" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="C104" s="9" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C104" s="9" t="n">
+      <c r="E104" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="9" t="n">
         <v>9800</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="E105" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C105" s="9" t="n">
-        <v>9400</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,46 +4387,50 @@
         <v>394</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E106" s="16" t="s">
+        <v>9400</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>395</v>
       </c>
+      <c r="E106" s="8" t="s">
+        <v>396</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C107" s="9" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C108" s="9" t="n">
         <v>9600</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="F108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>402</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,73 +4456,69 @@
       <c r="B110" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="8" t="n">
-        <v>131</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="F110" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="8" t="n">
+        <v>131</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C111" s="8" t="n">
-        <v>132</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C112" s="11" t="n">
+      <c r="C112" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="8"/>
-      <c r="G112" s="4" t="s">
-        <v>82</v>
+      <c r="D112" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C113" s="8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C113" s="11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="8"/>
       <c r="G113" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,32 +4526,34 @@
         <v>422</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C114" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C115" s="8" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D115" s="8"/>
+        <v>1731</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>424</v>
+      </c>
       <c r="E115" s="8" t="s">
         <v>427</v>
       </c>
@@ -4558,14 +4566,12 @@
         <v>429</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>119</v>
+        <v>430</v>
       </c>
       <c r="C116" s="8" t="n">
-        <v>200</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>430</v>
-      </c>
+        <v>2811</v>
+      </c>
+      <c r="D116" s="8"/>
       <c r="E116" s="8" t="s">
         <v>431</v>
       </c>
@@ -4574,85 +4580,85 @@
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="10" t="s">
         <v>433</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C117" s="8" t="n">
-        <v>300</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F117" s="8" t="s">
+    </row>
+    <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+      <c r="B118" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>434</v>
       </c>
       <c r="C118" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E118" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C119" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C119" s="8" t="n">
+      <c r="E119" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C120" s="8" t="n">
         <v>5500</v>
       </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C120" s="8" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>445</v>
-      </c>
+      <c r="D120" s="8"/>
       <c r="E120" s="8" t="s">
         <v>446</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
         <v>447</v>
       </c>
@@ -4660,16 +4666,16 @@
         <v>448</v>
       </c>
       <c r="C121" s="8" t="n">
-        <v>101</v>
-      </c>
-      <c r="D121" s="8" t="s">
+        <v>5600</v>
+      </c>
+      <c r="D121" s="12" t="s">
         <v>449</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>450</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4686,7 @@
         <v>452</v>
       </c>
       <c r="C122" s="8" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>453</v>
@@ -4689,7 +4695,7 @@
         <v>454</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,13 +4705,17 @@
       <c r="B123" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="C123" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="E123" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F123" s="8" t="s">
         <v>458</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,66 +4725,64 @@
       <c r="B124" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C124" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>82</v>
+      <c r="F124" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C125" s="8" t="n">
-        <v>112</v>
+        <v>1000</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>466</v>
+        <v>363</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="C126" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D126" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="E126" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>471</v>
+        <v>123</v>
       </c>
       <c r="C127" s="8" t="n">
-        <v>21</v>
+        <v>3100</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8" t="s">
@@ -4789,39 +4797,37 @@
         <v>474</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="C128" s="8" t="n">
-        <v>122</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>475</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="C129" s="8" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D129" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>479</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>480</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +4838,7 @@
         <v>482</v>
       </c>
       <c r="C130" s="8" t="n">
-        <v>7100</v>
+        <v>1722</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>483</v>
@@ -4841,39 +4847,44 @@
         <v>484</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
         <v>485</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="C131" s="8" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="E131" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F131" s="8"/>
+        <v>488</v>
+      </c>
       <c r="G131" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C132" s="3"/>
+        <v>490</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="F132" s="9" t="s">
         <v>491</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,12 +4894,11 @@
       <c r="B133" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="C133" s="3"/>
       <c r="E133" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="9" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4909,173 +4919,171 @@
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="10" t="s">
         <v>500</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>501</v>
       </c>
       <c r="C135" s="11"/>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="11"/>
+      <c r="E135" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="F135" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11" t="s">
         <v>506</v>
-      </c>
-      <c r="C136" s="9" t="n">
-        <v>133</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="8" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D137" s="8" t="s">
         <v>510</v>
+      </c>
+      <c r="C137" s="9" t="n">
+        <v>133</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="10" t="s">
         <v>513</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>514</v>
+        <v>308</v>
       </c>
       <c r="C138" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C139" s="9" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D139" s="9" t="s">
         <v>518</v>
+      </c>
+      <c r="C139" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="F139" s="8" t="s">
-        <v>520</v>
+      <c r="F139" s="8"/>
+      <c r="G139" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="C140" s="9" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C140" s="3"/>
       <c r="E140" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="8" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="3"/>
+      <c r="E141" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="F141" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E141" s="8" t="s">
+    </row>
+    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="B142" s="8" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="s">
+      <c r="C142" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="E142" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="F142" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E142" s="8" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="s">
+      <c r="B143" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="C143" s="8" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D143" s="8"/>
+      <c r="D143" s="11" t="s">
+        <v>538</v>
+      </c>
       <c r="E143" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="F143" s="8" t="s">
         <v>539</v>
+      </c>
+      <c r="F143" s="8"/>
+      <c r="G143" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,12 +5091,12 @@
         <v>540</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11" t="s">
         <v>541</v>
       </c>
+      <c r="C144" s="8" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D144" s="8"/>
       <c r="E144" s="8" t="s">
         <v>542</v>
       </c>
@@ -5101,12 +5109,10 @@
         <v>544</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C145" s="8" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D145" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11" t="s">
         <v>545</v>
       </c>
       <c r="E145" s="8" t="s">
@@ -5121,47 +5127,51 @@
         <v>548</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="C146" s="8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>549</v>
+      </c>
       <c r="E146" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>551</v>
+        <v>248</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,23 +5179,23 @@
         <v>557</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -5203,110 +5213,106 @@
       <c r="B151" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C151" s="8" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D151" s="8" t="s">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="F151" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="C152" s="8" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C152" s="8" t="n">
+      <c r="E152" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C153" s="8" t="n">
         <v>7800</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E152" s="8" t="s">
+      <c r="D153" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="C153" s="14" t="n">
+    </row>
+    <row r="154" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="C154" s="14" t="n">
         <v>10300</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B154" s="8" t="s">
+      <c r="D154" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="10" t="s">
         <v>582</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C155" s="9" t="n">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C156" s="9" t="n">
         <v>8900</v>
       </c>
-      <c r="E155" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="G155" s="4" t="s">
+      <c r="E156" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C156" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,72 +5320,74 @@
         <v>589</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C157" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11" t="s">
+      <c r="E157" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="F157" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F157" s="8" t="s">
+    </row>
+    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="10" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10" t="s">
+      <c r="B158" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C158" s="8" t="n">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C159" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D158" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
+      <c r="D159" s="12" t="s">
+        <v>453</v>
+      </c>
       <c r="E159" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="F159" s="8"/>
+        <v>454</v>
+      </c>
       <c r="G159" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C160" s="11"/>
-      <c r="D160" s="11" t="s">
-        <v>598</v>
-      </c>
+      <c r="D160" s="11"/>
       <c r="E160" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="F160" s="8" t="s">
         <v>600</v>
+      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,30 +5395,28 @@
         <v>601</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C161" s="8" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D161" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11" t="s">
         <v>602</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>603</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>604</v>
+      <c r="A162" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>605</v>
+        <v>248</v>
       </c>
       <c r="C162" s="8" t="n">
-        <v>7400</v>
+        <v>1400</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>606</v>
@@ -5419,25 +5425,27 @@
         <v>607</v>
       </c>
       <c r="F162" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
+      <c r="B163" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="C163" s="8" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11" t="s">
+      <c r="E163" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="F163" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,30 +5453,28 @@
         <v>613</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C164" s="8" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D164" s="8" t="s">
         <v>614</v>
       </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11" t="s">
+        <v>615</v>
+      </c>
       <c r="E164" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>617</v>
+        <v>558</v>
       </c>
       <c r="C165" s="8" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>618</v>
@@ -5477,42 +5483,42 @@
         <v>619</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="E166" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D167" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="E167" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="F167" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,66 +5526,70 @@
         <v>628</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
+        <v>248</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>630</v>
+      </c>
       <c r="E168" s="8" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="C169" s="11"/>
-      <c r="D169" s="11" t="s">
-        <v>631</v>
-      </c>
+      <c r="D169" s="11"/>
       <c r="E169" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="170" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B170" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C170" s="14" t="n">
+      <c r="B170" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C171" s="14" t="n">
         <v>10100</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="F171" s="8" t="s">
+      <c r="E171" s="2" t="s">
         <v>639</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,248 +5597,246 @@
         <v>640</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>244</v>
+        <v>558</v>
       </c>
       <c r="C174" s="11"/>
-      <c r="D174" s="11" t="s">
-        <v>645</v>
-      </c>
+      <c r="D174" s="11"/>
       <c r="E174" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
+      <c r="D175" s="11" t="s">
+        <v>649</v>
+      </c>
       <c r="E175" s="8" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>554</v>
+        <v>272</v>
       </c>
       <c r="C178" s="11"/>
-      <c r="D178" s="11" t="s">
-        <v>654</v>
-      </c>
+      <c r="D178" s="11"/>
       <c r="E178" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>188</v>
+        <v>558</v>
       </c>
       <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
+      <c r="D179" s="11" t="s">
+        <v>658</v>
+      </c>
       <c r="E179" s="8" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="8" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>610</v>
+        <v>248</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="8" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
-        <v>666</v>
+      <c r="A184" s="10" t="s">
+        <v>668</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="C184" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
       <c r="E184" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="F184" s="9" t="s">
         <v>669</v>
       </c>
+      <c r="F184" s="8" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="C185" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="D185" s="8"/>
+      <c r="C185" s="9" t="n">
+        <v>23</v>
+      </c>
       <c r="E185" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="G185" s="4" t="s">
-        <v>82</v>
+      <c r="F185" s="9" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11" t="s">
-        <v>674</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="C186" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D186" s="8"/>
       <c r="E186" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F186" s="8" t="s">
         <v>676</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,17 +5844,17 @@
         <v>677</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>678</v>
+        <v>192</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E187" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="F187" s="8" t="s">
         <v>680</v>
-      </c>
-      <c r="F187" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,229 +5864,229 @@
       <c r="B188" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C188" s="8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D188" s="8"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11" t="s">
+        <v>683</v>
+      </c>
       <c r="E188" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>82</v>
+        <v>684</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>323</v>
+        <v>686</v>
       </c>
       <c r="C189" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C190" s="8" t="n">
+      <c r="D190" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C191" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="D190" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="B191" s="8" t="s">
+      <c r="D191" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C191" s="8" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D191" s="8" t="s">
+      <c r="E191" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="F191" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+      <c r="C192" s="8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>696</v>
+      </c>
       <c r="E192" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="C194" s="11"/>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="11"/>
+      <c r="E194" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="E194" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C195" s="8" t="n">
+        <v>269</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C196" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D195" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C196" s="8" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D196" s="8"/>
+      <c r="D196" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="E196" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>82</v>
+        <v>708</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C197" s="8" t="n">
-        <v>2711</v>
+        <v>2611</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+        <v>713</v>
+      </c>
+      <c r="C198" s="8" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D198" s="8"/>
       <c r="E198" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="F198" s="8"/>
+        <v>714</v>
+      </c>
       <c r="G198" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>714</v>
+        <v>248</v>
       </c>
       <c r="C199" s="11"/>
-      <c r="D199" s="11" t="s">
-        <v>715</v>
-      </c>
+      <c r="D199" s="11"/>
       <c r="E199" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="F199" s="8" t="s">
-        <v>717</v>
+      <c r="F199" s="8"/>
+      <c r="G199" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="C200" s="11"/>
+      <c r="D200" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C200" s="8" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D200" s="8"/>
       <c r="E200" s="8" t="s">
         <v>720</v>
       </c>
@@ -6091,14 +6099,12 @@
         <v>722</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>554</v>
+        <v>723</v>
       </c>
       <c r="C201" s="8" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>723</v>
-      </c>
+        <v>3721</v>
+      </c>
+      <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
         <v>724</v>
       </c>
@@ -6111,121 +6117,141 @@
         <v>726</v>
       </c>
       <c r="B202" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C202" s="8" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D202" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C202" s="11" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D202" s="11" t="s">
+      <c r="E202" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="F202" s="8" t="s">
         <v>729</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="C203" s="11" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C203" s="3"/>
-      <c r="E203" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C204" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D204" s="8"/>
+      <c r="C204" s="3"/>
       <c r="E204" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="4" t="s">
-        <v>82</v>
+        <v>736</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>514</v>
+        <v>308</v>
       </c>
       <c r="C205" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>510</v>
-      </c>
+      <c r="D205" s="8"/>
       <c r="E205" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F205" s="8"/>
       <c r="G205" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="10" t="s">
-        <v>738</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
+        <v>518</v>
+      </c>
+      <c r="C206" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>514</v>
+      </c>
       <c r="E206" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="F206" s="8"/>
+      <c r="G206" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C207" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C208" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>188</v>
-      </c>
+      <c r="D208" s="8"/>
       <c r="E208" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="F208" s="8"/>
+        <v>746</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F209" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="749">
   <si>
     <t>Hash</t>
   </si>
@@ -209,7 +209,7 @@
     <t>^(\$cisco4\$)?[a-z0-9\/.]{43}$/i</t>
   </si>
   <si>
-    <t>jHSXiU.oQTuJ/lmrcyVL1on3EL4Jdd5J7S3y34QiQDQ </t>
+    <t>jHSXiU.oQTuJ/lmrcyVL1on3EL4Jdd5J7S3y34QiQDQ</t>
   </si>
   <si>
     <t>http://www.tobtu.com/cisco4tosha256.php</t>
@@ -662,7 +662,7 @@
     <t>EPiServer 6.x &lt; v4</t>
   </si>
   <si>
-    <t>^\$episerver\$\*0\*[a-z0-9*\/=+]{52,53}$/i</t>
+    <t>^\$episerver\$\*0\*[a-z0-9\/=+]+\*[a-z0-9\/=+]{27,28}$/i</t>
   </si>
   <si>
     <t>episerver</t>
@@ -674,7 +674,7 @@
     <t>EPiServer 6.x ≥ v4</t>
   </si>
   <si>
-    <t>^\$episerver\$\*1\*[a-z0-9=*+]{68}$/i</t>
+    <t>^\$episerver\$\*1\*[a-z0-9\/=+]+\*[a-z0-9\/=+]{42,43}$/i</t>
   </si>
   <si>
     <t>$episerver$*1*MDEyMzQ1Njc4OWFiY2RlZg==*lRjiU46qHA7S6ZE7RfKUcYhB85ofArj1j7TrCtu3u6Y</t>
@@ -2449,8 +2449,8 @@
   </sheetPr>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2746,7 +2746,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -3463,9 +3463,6 @@
       <c r="F55" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
@@ -3483,9 +3480,6 @@
       </c>
       <c r="F56" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -776,7 +776,7 @@
     <t>GRUB 2</t>
   </si>
   <si>
-    <t>^grub\.pbkdf2\.sha512\.[0-9]+\.[a-f0-9]{128,2048}\.[a-f0-9]{128}$/i</t>
+    <t>^grub\.pbkdf2\.sha512\.[0-9]+\.([a-f0-9]{128,2048}|[0-9]+)?\.[a-f0-9]{128}$/i</t>
   </si>
   <si>
     <t>grub.pbkdf2.sha512.10000.7d391ef48645f626b427b1fae06a7219b5b54f4f02b2621f86b5e36e83ae492bd1db60871e45bc07925cecb46ff8ba3db31c723c0c6acbd4f06f60c5b246ecbf.26d59c52b50df90d043f070bd9cbcd92a74424da42b3666fdeb08f1a54b8f1d2f4f56cf436f9382419c26798dc2c209a86003982b1e5a9fcef905f4dfaa4c524</t>
@@ -2449,8 +2449,8 @@
   </sheetPr>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3444,7 +3444,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
         <v>214</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
         <v>218</v>
       </c>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="750">
   <si>
     <t>Hash</t>
   </si>
@@ -776,7 +776,7 @@
     <t>GRUB 2</t>
   </si>
   <si>
-    <t>^grub\.pbkdf2\.sha512\.[0-9]+\.([a-f0-9]{128,2048}|[0-9]+)?\.[a-f0-9]{128}$/i</t>
+    <t>^grub\.pbkdf2\.sha512\.[0-9]+\.([a-f0-9]{128,2048}\.|[0-9]+\.)?[a-f0-9]{128}$/i</t>
   </si>
   <si>
     <t>grub.pbkdf2.sha512.10000.7d391ef48645f626b427b1fae06a7219b5b54f4f02b2621f86b5e36e83ae492bd1db60871e45bc07925cecb46ff8ba3db31c723c0c6acbd4f06f60c5b246ecbf.26d59c52b50df90d043f070bd9cbcd92a74424da42b3666fdeb08f1a54b8f1d2f4f56cf436f9382419c26798dc2c209a86003982b1e5a9fcef905f4dfaa4c524</t>
@@ -1281,6 +1281,9 @@
   </si>
   <si>
     <t>MSSQL(2008)</t>
+  </si>
+  <si>
+    <t>mssql05 </t>
   </si>
   <si>
     <t>MSSQL(2012)</t>
@@ -2449,8 +2452,8 @@
   </sheetPr>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4499,7 +4502,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
         <v>421</v>
       </c>
@@ -4509,7 +4512,9 @@
       <c r="C113" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="D113" s="11"/>
+      <c r="D113" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="E113" s="8"/>
       <c r="G113" s="4" t="s">
         <v>86</v>
@@ -4517,19 +4522,19 @@
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C114" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>86</v>
@@ -4537,45 +4542,45 @@
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C115" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C116" s="8" t="n">
         <v>2811</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>123</v>
@@ -4584,50 +4589,50 @@
         <v>200</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C118" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C119" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="4" t="s">
@@ -4636,17 +4641,17 @@
     </row>
     <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C120" s="8" t="n">
         <v>5500</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>86</v>
@@ -4654,19 +4659,19 @@
     </row>
     <row r="121" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C121" s="8" t="n">
         <v>5600</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>86</v>
@@ -4674,19 +4679,19 @@
     </row>
     <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C122" s="8" t="n">
         <v>101</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>86</v>
@@ -4694,19 +4699,19 @@
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C123" s="8" t="n">
         <v>111</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>86</v>
@@ -4714,32 +4719,32 @@
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C125" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>363</v>
@@ -4750,27 +4755,27 @@
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C126" s="8" t="n">
         <v>112</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>123</v>
@@ -4780,33 +4785,33 @@
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C128" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>269</v>
@@ -4815,10 +4820,10 @@
         <v>122</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>86</v>
@@ -4826,19 +4831,19 @@
     </row>
     <row r="130" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C130" s="8" t="n">
         <v>1722</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>86</v>
@@ -4846,19 +4851,19 @@
     </row>
     <row r="131" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C131" s="8" t="n">
         <v>7100</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>86</v>
@@ -4866,15 +4871,15 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="4" t="s">
@@ -4883,89 +4888,89 @@
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C133" s="3"/>
       <c r="E133" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C137" s="9" t="n">
         <v>133</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>308</v>
@@ -4974,30 +4979,30 @@
         <v>400</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C139" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="4" t="s">
@@ -5006,74 +5011,74 @@
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C140" s="9" t="n">
         <v>2612</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C141" s="3"/>
       <c r="E141" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="4" t="s">
@@ -5082,43 +5087,43 @@
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C144" s="8" t="n">
         <v>7600</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>195</v>
@@ -5127,18 +5132,18 @@
         <v>6000</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>248</v>
@@ -5146,164 +5151,164 @@
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C152" s="8" t="n">
         <v>7700</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C153" s="8" t="n">
         <v>7800</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C154" s="14" t="n">
         <v>10300</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C156" s="9" t="n">
         <v>8900</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>11</v>
@@ -5311,7 +5316,7 @@
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>195</v>
@@ -5320,48 +5325,48 @@
         <v>100</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C159" s="8" t="n">
         <v>101</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>86</v>
@@ -5369,7 +5374,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>269</v>
@@ -5377,7 +5382,7 @@
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="4" t="s">
@@ -5386,25 +5391,25 @@
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>248</v>
@@ -5413,174 +5418,174 @@
         <v>1400</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C163" s="8" t="n">
         <v>7400</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C165" s="8" t="n">
         <v>1700</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C166" s="8" t="n">
         <v>1800</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C167" s="3"/>
       <c r="E167" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C171" s="14" t="n">
         <v>10100</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>86</v>
@@ -5588,73 +5593,73 @@
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>192</v>
@@ -5662,15 +5667,15 @@
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>195</v>
@@ -5678,15 +5683,15 @@
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>272</v>
@@ -5694,33 +5699,33 @@
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>192</v>
@@ -5728,15 +5733,15 @@
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>195</v>
@@ -5744,15 +5749,15 @@
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>272</v>
@@ -5760,15 +5765,15 @@
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>248</v>
@@ -5776,58 +5781,58 @@
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C185" s="9" t="n">
         <v>23</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C186" s="8" t="n">
         <v>121</v>
       </c>
       <c r="D186" s="8"/>
       <c r="E186" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>86</v>
@@ -5835,53 +5840,53 @@
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C189" s="8" t="n">
         <v>111</v>
       </c>
       <c r="D189" s="8"/>
       <c r="E189" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>86</v>
@@ -5889,7 +5894,7 @@
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>327</v>
@@ -5898,7 +5903,7 @@
         <v>1711</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>328</v>
@@ -5909,47 +5914,47 @@
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C191" s="8" t="n">
         <v>3300</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C192" s="8" t="n">
         <v>8000</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>192</v>
@@ -5957,15 +5962,15 @@
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>195</v>
@@ -5973,33 +5978,33 @@
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>142</v>
@@ -6011,7 +6016,7 @@
         <v>143</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F196" s="8" t="s">
         <v>145</v>
@@ -6019,17 +6024,17 @@
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C197" s="8" t="n">
         <v>2611</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>86</v>
@@ -6037,17 +6042,17 @@
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C198" s="8" t="n">
         <v>2711</v>
       </c>
       <c r="D198" s="8"/>
       <c r="E198" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>86</v>
@@ -6055,7 +6060,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>248</v>
@@ -6063,7 +6068,7 @@
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F199" s="8"/>
       <c r="G199" s="4" t="s">
@@ -6072,98 +6077,98 @@
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C201" s="8" t="n">
         <v>3721</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C202" s="8" t="n">
         <v>6100</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C203" s="11" t="n">
         <v>8400</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C204" s="3"/>
       <c r="E204" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>308</v>
@@ -6173,7 +6178,7 @@
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F205" s="8"/>
       <c r="G205" s="4" t="s">
@@ -6182,19 +6187,19 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C206" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F206" s="8"/>
       <c r="G206" s="4" t="s">
@@ -6203,7 +6208,7 @@
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>16</v>
@@ -6211,25 +6216,25 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C208" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>86</v>
@@ -6237,13 +6242,13 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>192</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F209" s="8"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="765">
   <si>
     <t>Hash</t>
   </si>
@@ -209,7 +209,10 @@
     <t>^(\$cisco4\$)?[a-z0-9\/.]{43}$/i</t>
   </si>
   <si>
-    <t>jHSXiU.oQTuJ/lmrcyVL1on3EL4Jdd5J7S3y34QiQDQ</t>
+    <t>cisco4</t>
+  </si>
+  <si>
+    <t>$cisco4$jHSXiU.oQTuJ/lmrcyVL1on3EL4Jdd5J7S3y34QiQDQ</t>
   </si>
   <si>
     <t>http://www.tobtu.com/cisco4tosha256.php</t>
@@ -221,7 +224,10 @@
     <t>^\$8\$[a-z0-9\/.]{14}\$[a-z0-9\/.]{43}$/i</t>
   </si>
   <si>
-    <t>$8$TnGX/fE4KGHOVU$pEhnEvxrvaynpi8j4f.EMHr6M.FzU8xnZnBr/tJdFWk</t>
+    <t>cisco8</t>
+  </si>
+  <si>
+    <t>$8$BlV23O2yWA.Qrb$wGsPC6b6KxfjBHdq3RHQCEGrx27.cucxi9cmtyRKczQ</t>
   </si>
   <si>
     <t>http://hashcat.net/forum/thread-3803.html</t>
@@ -231,6 +237,9 @@
   </si>
   <si>
     <t>^\$9\$[a-z0-9\/.]{14}\$[a-z0-9\/.]{43}$/i</t>
+  </si>
+  <si>
+    <t>cisco9</t>
   </si>
   <si>
     <t>$9$2MJBozw/9R3UsU$2lFhcKvpghcyw8deP25GOfyZaagyUOGBymkryvOdfo6</t>
@@ -2488,8 +2497,8 @@
   </sheetPr>
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2792,263 +2801,272 @@
       <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="9" t="n">
         <v>9200</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="9" t="n">
         <v>9300</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>2410</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C20" s="8" t="n">
         <v>500</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>5700</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" s="8" t="n">
         <v>2400</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="8" t="n">
         <v>8100</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C25" s="14" t="n">
         <v>10200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>16</v>
@@ -3056,410 +3074,410 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C36" s="8" t="n">
         <v>3100</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C37" s="8" t="n">
         <v>1500</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>10000</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>8300</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C48" s="8" t="n">
         <v>1100</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C49" s="8" t="n">
         <v>2100</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>2600</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>4500</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C52" s="8" t="n">
         <v>7900</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>16</v>
@@ -3467,105 +3485,105 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C55" s="8" t="n">
         <v>123</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C56" s="8" t="n">
         <v>141</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C57" s="8" t="n">
         <v>1441</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>16</v>
@@ -3573,15 +3591,15 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>16</v>
@@ -3589,15 +3607,15 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>16</v>
@@ -3605,72 +3623,72 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C64" s="8" t="n">
         <v>7000</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C65" s="8" t="n">
         <v>500</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>16</v>
@@ -3678,16 +3696,16 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>16</v>
@@ -3695,204 +3713,204 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C68" s="8" t="n">
         <v>6900</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C69" s="8" t="n">
         <v>7200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C70" s="8" t="n">
         <v>5100</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C77" s="11" t="n">
         <v>1421</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C78" s="9" t="n">
         <v>5300</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>11</v>
@@ -3900,19 +3918,19 @@
     </row>
     <row r="79" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C79" s="9" t="n">
         <v>5400</v>
       </c>
       <c r="E79" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>11</v>
@@ -3920,63 +3938,63 @@
     </row>
     <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C80" s="8" t="n">
         <v>2811</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C81" s="11" t="n">
         <v>7300</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C82" s="8" t="n">
         <v>4800</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>16</v>
@@ -3984,86 +4002,86 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C84" s="8" t="n">
         <v>11</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C86" s="8" t="n">
         <v>22</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C87" s="8" t="n">
         <v>7500</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>11</v>
@@ -4071,249 +4089,249 @@
     </row>
     <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C88" s="8" t="n">
         <v>6800</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C89" s="8" t="n">
         <v>1711</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C91" s="8" t="n">
         <v>190</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C92" s="8" t="n">
         <v>3000</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C95" s="9" t="n">
         <v>9100</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C98" s="8" t="n">
         <v>900</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C100" s="8" t="n">
         <v>500</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>45</v>
@@ -4331,1056 +4349,1056 @@
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C102" s="8" t="n">
         <v>4800</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C105" s="9" t="n">
         <v>9700</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C106" s="9" t="n">
         <v>9800</v>
       </c>
       <c r="E106" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C107" s="9" t="n">
         <v>9400</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C108" s="9" t="n">
         <v>9500</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C109" s="9" t="n">
         <v>9600</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C112" s="8" t="n">
         <v>131</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C113" s="8" t="n">
         <v>132</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C114" s="11" t="n">
         <v>132</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E114" s="8"/>
       <c r="G114" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C115" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="C116" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C117" s="8" t="n">
         <v>2811</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C118" s="8" t="n">
         <v>200</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C119" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C120" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C121" s="8" t="n">
         <v>5500</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C122" s="8" t="n">
         <v>5600</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C123" s="8" t="n">
         <v>101</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C124" s="8" t="n">
         <v>111</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C126" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C127" s="8" t="n">
         <v>112</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C128" s="8" t="n">
         <v>3100</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C129" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C130" s="8" t="n">
         <v>122</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C131" s="8" t="n">
         <v>1722</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C132" s="8" t="n">
         <v>7100</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C137" s="3"/>
       <c r="E137" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C140" s="9" t="n">
         <v>133</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C141" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C142" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C143" s="9" t="n">
         <v>2612</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C147" s="8" t="n">
         <v>7600</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C149" s="8" t="n">
         <v>6000</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="8" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C155" s="8" t="n">
         <v>7700</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C156" s="8" t="n">
         <v>7800</v>
       </c>
       <c r="D156" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F156" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C157" s="14" t="n">
         <v>10300</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C159" s="9" t="n">
         <v>8900</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>11</v>
@@ -5388,897 +5406,897 @@
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C160" s="11" t="n">
         <v>100</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C162" s="8" t="n">
         <v>101</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="8" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C165" s="8" t="n">
         <v>1400</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E165" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F165" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C166" s="8" t="n">
         <v>7400</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C168" s="8" t="n">
         <v>1700</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C169" s="8" t="n">
         <v>1800</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D171" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="F171" s="8" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="8" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C174" s="14" t="n">
         <v>10100</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="8" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="8" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="8" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="8" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="8" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="8" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="8" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C188" s="9" t="n">
         <v>23</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C189" s="8" t="n">
         <v>121</v>
       </c>
       <c r="D189" s="8"/>
       <c r="E189" s="8" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="F191" s="8" t="s">
         <v>697</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C192" s="8" t="n">
         <v>111</v>
       </c>
       <c r="D192" s="8"/>
       <c r="E192" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C193" s="8" t="n">
         <v>1711</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C194" s="8" t="n">
         <v>3300</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C195" s="8" t="n">
         <v>8000</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="8" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="8" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C199" s="8" t="n">
         <v>1500</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C200" s="8" t="n">
         <v>2611</v>
       </c>
       <c r="D200" s="8"/>
       <c r="E200" s="8" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C201" s="8" t="n">
         <v>2711</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="8" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F202" s="8"/>
       <c r="G202" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C204" s="8" t="n">
         <v>3721</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C205" s="8" t="n">
         <v>6100</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C206" s="11" t="n">
         <v>8400</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C208" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F208" s="8"/>
       <c r="G208" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C209" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F209" s="8"/>
       <c r="G209" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>16</v>
@@ -6286,39 +6304,39 @@
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="8" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C211" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D211" s="8"/>
       <c r="E211" s="8" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F212" s="8"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="769">
   <si>
     <t>Hash</t>
   </si>
@@ -1638,6 +1638,18 @@
   </si>
   <si>
     <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/PHPS_fmt_plug.c</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>^(\$postgres\$.[^\*]+[*:])?[a-f0-9]{1,32}[*:][a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>$postgres$postgres*3677456e*00280f7a10b1c1f09c2053c9f0f5c0ea</t>
   </si>
   <si>
     <t>PostgreSQL MD5</t>
@@ -2495,10 +2507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A143" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5120,77 +5132,79 @@
         <v>540</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="C144" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="E144" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="G144" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="1" t="s">
         <v>545</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="E145" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="E145" s="8" t="s">
+    </row>
+    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="B146" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="s">
+      <c r="C146" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="E146" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="F146" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="E146" s="8" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="4" t="s">
+      <c r="B147" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C147" s="8" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,12 +5212,12 @@
         <v>560</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11" t="s">
         <v>561</v>
       </c>
+      <c r="C148" s="8" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
         <v>562</v>
       </c>
@@ -5216,12 +5230,10 @@
         <v>564</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C149" s="8" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D149" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11" t="s">
         <v>565</v>
       </c>
       <c r="E149" s="8" t="s">
@@ -5236,47 +5248,51 @@
         <v>568</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+        <v>203</v>
+      </c>
+      <c r="C150" s="8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>569</v>
+      </c>
       <c r="E150" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>571</v>
+        <v>256</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5284,23 +5300,23 @@
         <v>577</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -5318,110 +5334,106 @@
       <c r="B155" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C155" s="8" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D155" s="8" t="s">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="F155" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="C156" s="8" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C156" s="8" t="n">
+      <c r="E156" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C157" s="8" t="n">
         <v>7800</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="E156" s="8" t="s">
+      <c r="D157" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F156" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="C157" s="14" t="n">
+    </row>
+    <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="C158" s="14" t="n">
         <v>10300</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="B158" s="8" t="s">
+      <c r="D158" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F158" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="10" t="s">
         <v>602</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="C159" s="9" t="n">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C160" s="9" t="n">
         <v>8900</v>
       </c>
-      <c r="E159" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="G159" s="4" t="s">
+      <c r="E160" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="G160" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C160" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,72 +5441,74 @@
         <v>609</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D161" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11" t="s">
+      <c r="E161" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="F161" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F161" s="8" t="s">
+    </row>
+    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="162" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10" t="s">
+      <c r="B162" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="C162" s="8" t="n">
+      <c r="E162" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C163" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D163" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E163" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="F163" s="8"/>
       <c r="G163" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C164" s="11"/>
-      <c r="D164" s="11" t="s">
-        <v>619</v>
-      </c>
+      <c r="D164" s="11"/>
       <c r="E164" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="F164" s="8" t="s">
         <v>621</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,30 +5516,28 @@
         <v>622</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C165" s="8" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D165" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11" t="s">
         <v>623</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>624</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>625</v>
+      <c r="A166" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>626</v>
+        <v>256</v>
       </c>
       <c r="C166" s="8" t="n">
-        <v>7400</v>
+        <v>1400</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>627</v>
@@ -5534,25 +5546,27 @@
         <v>628</v>
       </c>
       <c r="F166" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10" t="s">
+      <c r="B167" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="C167" s="8" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11" t="s">
+      <c r="E167" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="F167" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,30 +5574,28 @@
         <v>634</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C168" s="8" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D168" s="8" t="s">
         <v>635</v>
       </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11" t="s">
+        <v>636</v>
+      </c>
       <c r="E168" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>638</v>
+        <v>578</v>
       </c>
       <c r="C169" s="8" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>639</v>
@@ -5592,41 +5604,41 @@
         <v>640</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>280</v>
+      <c r="C170" s="8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="D171" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E171" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="F171" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="F171" s="8" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,66 +5646,70 @@
         <v>649</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>651</v>
+      </c>
       <c r="E172" s="8" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
       <c r="C173" s="11"/>
-      <c r="D173" s="11" t="s">
-        <v>652</v>
-      </c>
+      <c r="D173" s="11"/>
       <c r="E173" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="174" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B174" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="C174" s="14" t="n">
+      <c r="B174" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C175" s="14" t="n">
         <v>10100</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G174" s="4" t="s">
+      <c r="E175" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,248 +5717,246 @@
         <v>661</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
       <c r="C178" s="11"/>
-      <c r="D178" s="11" t="s">
-        <v>666</v>
-      </c>
+      <c r="D178" s="11"/>
       <c r="E178" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
+      <c r="D179" s="11" t="s">
+        <v>670</v>
+      </c>
       <c r="E179" s="8" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>574</v>
+        <v>280</v>
       </c>
       <c r="C182" s="11"/>
-      <c r="D182" s="11" t="s">
-        <v>675</v>
-      </c>
+      <c r="D182" s="11"/>
       <c r="E182" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
+      <c r="D183" s="11" t="s">
+        <v>679</v>
+      </c>
       <c r="E183" s="8" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="8" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>631</v>
+        <v>256</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>687</v>
+      <c r="A188" s="10" t="s">
+        <v>689</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C188" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
       <c r="E188" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="F188" s="9" t="s">
         <v>690</v>
       </c>
+      <c r="F188" s="8" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C189" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="D189" s="8"/>
+      <c r="C189" s="9" t="n">
+        <v>23</v>
+      </c>
       <c r="E189" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>89</v>
+      <c r="F189" s="9" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11" t="s">
-        <v>695</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="C190" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D190" s="8"/>
       <c r="E190" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="F190" s="8" t="s">
         <v>697</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,17 +5964,17 @@
         <v>698</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>699</v>
+        <v>200</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E191" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="F191" s="8" t="s">
         <v>701</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,231 +5982,231 @@
         <v>702</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C192" s="8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D192" s="8"/>
+        <v>703</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11" t="s">
+        <v>704</v>
+      </c>
       <c r="E192" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>89</v>
+        <v>705</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C193" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C193" s="8" t="n">
+      <c r="C194" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D193" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="E193" s="8" t="s">
+      <c r="D194" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F194" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C194" s="8" t="n">
+    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C195" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="B195" s="8" t="s">
+      <c r="D195" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="C195" s="8" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D195" s="8" t="s">
+      <c r="E195" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="E195" s="8" t="s">
+      <c r="F195" s="8" t="s">
         <v>713</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
+      <c r="C196" s="8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="E196" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11" t="s">
+      <c r="C199" s="11"/>
+      <c r="D199" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F199" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B199" s="8" t="s">
+    </row>
+    <row r="200" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C199" s="8" t="n">
+      <c r="C200" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D199" s="12" t="s">
+      <c r="D200" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E199" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="F199" s="8" t="s">
+      <c r="E200" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F200" s="8" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="C200" s="8" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C201" s="8" t="n">
-        <v>2711</v>
+        <v>2611</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+        <v>733</v>
+      </c>
+      <c r="C202" s="8" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D202" s="8"/>
       <c r="E202" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="F202" s="8"/>
+        <v>734</v>
+      </c>
       <c r="G202" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>734</v>
+        <v>256</v>
       </c>
       <c r="C203" s="11"/>
-      <c r="D203" s="11" t="s">
-        <v>735</v>
-      </c>
+      <c r="D203" s="11"/>
       <c r="E203" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="F203" s="8" t="s">
-        <v>737</v>
+      <c r="F203" s="8"/>
+      <c r="G203" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="C204" s="11"/>
+      <c r="D204" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="C204" s="8" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D204" s="8"/>
       <c r="E204" s="8" t="s">
         <v>740</v>
       </c>
@@ -6205,14 +6219,12 @@
         <v>742</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>574</v>
+        <v>743</v>
       </c>
       <c r="C205" s="8" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>743</v>
-      </c>
+        <v>3721</v>
+      </c>
+      <c r="D205" s="8"/>
       <c r="E205" s="8" t="s">
         <v>744</v>
       </c>
@@ -6225,120 +6237,140 @@
         <v>746</v>
       </c>
       <c r="B206" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C206" s="8" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D206" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C206" s="11" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D206" s="11" t="s">
+      <c r="E206" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="E206" s="8" t="s">
+      <c r="F206" s="8" t="s">
         <v>749</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="C207" s="11" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E207" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C208" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D208" s="8"/>
       <c r="E208" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="F208" s="8"/>
-      <c r="G208" s="4" t="s">
-        <v>89</v>
+        <v>756</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>534</v>
+        <v>316</v>
       </c>
       <c r="C209" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D209" s="8" t="s">
-        <v>530</v>
-      </c>
+      <c r="D209" s="8"/>
       <c r="E209" s="8" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F209" s="8"/>
       <c r="G209" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="210" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10" t="s">
-        <v>758</v>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
+        <v>534</v>
+      </c>
+      <c r="C210" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>530</v>
+      </c>
       <c r="E210" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
+      </c>
+      <c r="F210" s="8"/>
+      <c r="G210" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B211" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C211" s="8" t="n">
+      <c r="C212" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="G211" s="4" t="s">
+      <c r="D212" s="8"/>
+      <c r="E212" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="G212" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B212" s="8" t="s">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B213" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E212" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="F212" s="8"/>
+      <c r="E213" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="F213" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="770">
   <si>
     <t>Hash</t>
   </si>
@@ -1118,7 +1118,10 @@
     <t>^(\$md2\$)?[a-f0-9]{32}$/i</t>
   </si>
   <si>
-    <t>8350e5a3e24c153df2275c9f80692773</t>
+    <t>rawmd2</t>
+  </si>
+  <si>
+    <t>fcdcaaa9794d753db7da35230ef5dd7a</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MD2_%28cryptography%29</t>
@@ -2509,8 +2512,8 @@
   </sheetPr>
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A143" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4273,17 +4276,19 @@
         <v>366</v>
       </c>
       <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="D97" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="E97" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>200</v>
@@ -4292,38 +4297,38 @@
         <v>900</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>86</v>
@@ -4335,15 +4340,15 @@
         <v>87</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>45</v>
@@ -4361,7 +4366,7 @@
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>304</v>
@@ -4381,215 +4386,215 @@
     </row>
     <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C105" s="9" t="n">
         <v>9700</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C106" s="9" t="n">
         <v>9800</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C107" s="9" t="n">
         <v>9400</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C108" s="9" t="n">
         <v>9500</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C109" s="9" t="n">
         <v>9600</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C112" s="8" t="n">
         <v>131</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C113" s="8" t="n">
         <v>132</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C114" s="11" t="n">
         <v>132</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E114" s="8"/>
       <c r="G114" s="4" t="s">
@@ -4598,19 +4603,19 @@
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C115" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>89</v>
@@ -4618,45 +4623,45 @@
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C116" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C117" s="8" t="n">
         <v>2811</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>126</v>
@@ -4665,50 +4670,50 @@
         <v>200</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C119" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C120" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="4" t="s">
@@ -4717,17 +4722,17 @@
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C121" s="8" t="n">
         <v>5500</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>89</v>
@@ -4735,19 +4740,19 @@
     </row>
     <row r="122" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C122" s="8" t="n">
         <v>5600</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>89</v>
@@ -4755,19 +4760,19 @@
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C123" s="8" t="n">
         <v>101</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>89</v>
@@ -4775,19 +4780,19 @@
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C124" s="8" t="n">
         <v>111</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>89</v>
@@ -4795,35 +4800,35 @@
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C126" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>89</v>
@@ -4831,27 +4836,27 @@
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C127" s="8" t="n">
         <v>112</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>126</v>
@@ -4861,33 +4866,33 @@
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C129" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>277</v>
@@ -4896,10 +4901,10 @@
         <v>122</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>89</v>
@@ -4907,19 +4912,19 @@
     </row>
     <row r="131" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C131" s="8" t="n">
         <v>1722</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>89</v>
@@ -4927,19 +4932,19 @@
     </row>
     <row r="132" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C132" s="8" t="n">
         <v>7100</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>89</v>
@@ -4947,15 +4952,15 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="4" t="s">
@@ -4964,116 +4969,116 @@
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C137" s="3"/>
       <c r="E137" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C140" s="9" t="n">
         <v>133</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>316</v>
@@ -5082,30 +5087,30 @@
         <v>400</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C142" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="4" t="s">
@@ -5114,39 +5119,39 @@
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C143" s="9" t="n">
         <v>2612</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C144" s="3" t="n">
         <v>12</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>89</v>
@@ -5154,53 +5159,53 @@
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="4" t="s">
@@ -5209,43 +5214,43 @@
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C148" s="8" t="n">
         <v>7600</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>203</v>
@@ -5254,18 +5259,18 @@
         <v>6000</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>256</v>
@@ -5273,164 +5278,164 @@
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C156" s="8" t="n">
         <v>7700</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C157" s="8" t="n">
         <v>7800</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C158" s="14" t="n">
         <v>10300</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C160" s="9" t="n">
         <v>8900</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>11</v>
@@ -5438,7 +5443,7 @@
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>203</v>
@@ -5447,48 +5452,48 @@
         <v>100</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C163" s="8" t="n">
         <v>101</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>89</v>
@@ -5496,7 +5501,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>277</v>
@@ -5504,7 +5509,7 @@
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="4" t="s">
@@ -5513,25 +5518,25 @@
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>256</v>
@@ -5540,173 +5545,173 @@
         <v>1400</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C167" s="8" t="n">
         <v>7400</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C169" s="8" t="n">
         <v>1700</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C170" s="8" t="n">
         <v>1800</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>280</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C175" s="14" t="n">
         <v>10100</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>89</v>
@@ -5714,73 +5719,73 @@
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>200</v>
@@ -5788,15 +5793,15 @@
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>203</v>
@@ -5804,15 +5809,15 @@
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>280</v>
@@ -5820,33 +5825,33 @@
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>200</v>
@@ -5854,15 +5859,15 @@
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>203</v>
@@ -5870,15 +5875,15 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>280</v>
@@ -5886,15 +5891,15 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>256</v>
@@ -5902,58 +5907,58 @@
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C189" s="9" t="n">
         <v>23</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C190" s="8" t="n">
         <v>121</v>
       </c>
       <c r="D190" s="8"/>
       <c r="E190" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>89</v>
@@ -5961,53 +5966,53 @@
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C193" s="8" t="n">
         <v>111</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>89</v>
@@ -6015,7 +6020,7 @@
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>335</v>
@@ -6024,7 +6029,7 @@
         <v>1711</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>336</v>
@@ -6035,47 +6040,47 @@
     </row>
     <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C195" s="8" t="n">
         <v>3300</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C196" s="8" t="n">
         <v>8000</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>200</v>
@@ -6083,15 +6088,15 @@
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>203</v>
@@ -6099,33 +6104,33 @@
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>145</v>
@@ -6137,7 +6142,7 @@
         <v>146</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F200" s="8" t="s">
         <v>148</v>
@@ -6145,17 +6150,17 @@
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C201" s="8" t="n">
         <v>2611</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>89</v>
@@ -6163,17 +6168,17 @@
     </row>
     <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C202" s="8" t="n">
         <v>2711</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>89</v>
@@ -6181,7 +6186,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>256</v>
@@ -6189,7 +6194,7 @@
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F203" s="8"/>
       <c r="G203" s="4" t="s">
@@ -6198,97 +6203,97 @@
     </row>
     <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C205" s="8" t="n">
         <v>3721</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C206" s="8" t="n">
         <v>6100</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C207" s="11" t="n">
         <v>8400</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>316</v>
@@ -6298,7 +6303,7 @@
       </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F209" s="8"/>
       <c r="G209" s="4" t="s">
@@ -6307,19 +6312,19 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C210" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F210" s="8"/>
       <c r="G210" s="4" t="s">
@@ -6328,7 +6333,7 @@
     </row>
     <row r="211" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>16</v>
@@ -6336,25 +6341,25 @@
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="212" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C212" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D212" s="8"/>
       <c r="E212" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>89</v>
@@ -6362,13 +6367,13 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>200</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F213" s="8"/>
     </row>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="775">
   <si>
     <t>Hash</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt_sha256.html</t>
+  </si>
+  <si>
+    <t>BigCrypt</t>
+  </si>
+  <si>
+    <t>^[a-z0-9\/.]{13,}$/i</t>
+  </si>
+  <si>
+    <t>bigcrypt</t>
+  </si>
+  <si>
+    <t>aqOVVs0V.cVbQ</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.bigcrypt.html</t>
   </si>
   <si>
     <t>Blowfish(OpenBSD)</t>
@@ -2510,10 +2525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2771,35 +2786,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="8" t="n">
-        <v>3200</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2810,36 +2824,34 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>9200</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2854,7 +2866,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>74</v>
@@ -2863,46 +2875,46 @@
         <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>2410</v>
-      </c>
-      <c r="D19" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>85</v>
       </c>
@@ -2910,19 +2922,19 @@
         <v>86</v>
       </c>
       <c r="C20" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
         <v>90</v>
       </c>
@@ -2930,34 +2942,34 @@
         <v>91</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>5700</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>500</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="E21" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>5700</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>2400</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,7 +2980,7 @@
         <v>99</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>8100</v>
+        <v>2400</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>100</v>
@@ -2987,315 +2999,315 @@
       <c r="B24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="8" t="n">
+        <v>8100</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="F24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="14" t="n">
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="14" t="n">
         <v>10200</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>119</v>
+      <c r="A29" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="E30" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="8" t="n">
+        <v>145</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="8" t="n">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="2" t="s">
         <v>156</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D43" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -3312,82 +3324,82 @@
       <c r="B44" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4" t="s">
-        <v>89</v>
+        <v>182</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>8300</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>189</v>
+      <c r="A48" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="8" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D48" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="C48" s="11" t="n">
+        <v>8300</v>
+      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="8" t="s">
         <v>192</v>
       </c>
@@ -3403,7 +3415,7 @@
         <v>195</v>
       </c>
       <c r="C49" s="8" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>196</v>
@@ -3416,113 +3428,113 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="11" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D50" s="11"/>
+      <c r="C50" s="8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="E50" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>89</v>
+        <v>202</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>4500</v>
+        <v>2600</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>205</v>
+      <c r="A52" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="8" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="8" t="n">
+        <v>7900</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="E54" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="8" t="n">
-        <v>123</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>219</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="8" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3534,7 +3546,7 @@
         <v>223</v>
       </c>
       <c r="C56" s="8" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>224</v>
@@ -3543,78 +3555,82 @@
         <v>225</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>141</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" s="8" t="n">
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="8" t="n">
         <v>1441</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>233</v>
+      <c r="A59" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>16</v>
@@ -3622,15 +3638,15 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>16</v>
@@ -3638,89 +3654,88 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="8" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>248</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="C65" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="D66" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="E66" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" s="8"/>
+        <v>93</v>
+      </c>
       <c r="G66" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>16</v>
@@ -3728,31 +3743,28 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C68" s="8" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>257</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F68" s="8" t="s">
         <v>259</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,248 +3775,248 @@
         <v>261</v>
       </c>
       <c r="C69" s="8" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D69" s="8"/>
+        <v>6900</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="E69" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F69" s="9" t="s">
         <v>263</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="C70" s="8" t="n">
-        <v>5100</v>
+        <v>7200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="C71" s="8" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
-        <v>271</v>
-      </c>
+      <c r="D72" s="11"/>
       <c r="E72" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="E73" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C76" s="11"/>
-      <c r="D76" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="D76" s="11"/>
       <c r="E76" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>285</v>
+      <c r="A77" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C77" s="11" t="n">
-        <v>1421</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="9" t="n">
-        <v>5300</v>
+      <c r="C78" s="11" t="n">
+        <v>1421</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F78" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>11</v>
+      <c r="F78" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
-        <v>297</v>
+    <row r="80" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="9" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C80" s="8" t="n">
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C81" s="11" t="n">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="11" t="n">
         <v>7300</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="D82" s="11"/>
       <c r="E82" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F82" s="8" t="s">
         <v>307</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,44 +4024,46 @@
         <v>308</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+        <v>309</v>
+      </c>
+      <c r="C83" s="8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="E83" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C84" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D84" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F84" s="8" t="s">
         <v>314</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" s="8" t="s">
         <v>317</v>
+      </c>
+      <c r="C85" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
@@ -4066,20 +4080,18 @@
       <c r="B86" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C86" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>322</v>
       </c>
+      <c r="D86" s="8"/>
       <c r="E86" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
         <v>325</v>
       </c>
@@ -4087,9 +4099,9 @@
         <v>326</v>
       </c>
       <c r="C87" s="8" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D87" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>327</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -4098,11 +4110,8 @@
       <c r="F87" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
         <v>330</v>
       </c>
@@ -4110,175 +4119,180 @@
         <v>331</v>
       </c>
       <c r="C88" s="8" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D88" s="8"/>
+        <v>7500</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>332</v>
+      </c>
       <c r="E88" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F88" s="8" t="s">
         <v>333</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C89" s="8" t="n">
-        <v>1711</v>
+        <v>6800</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+        <v>340</v>
+      </c>
+      <c r="C90" s="8" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="8" t="n">
-        <v>190</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C92" s="8" t="n">
+        <v>190</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="8" t="s">
         <v>351</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="14" t="s">
         <v>356</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>357</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C95" s="9" t="n">
+      <c r="C95" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C96" s="9" t="n">
         <v>9100</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
       <c r="E96" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="C97" s="11"/>
-      <c r="D97" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="D97" s="11"/>
       <c r="E97" s="8" t="s">
         <v>368</v>
       </c>
@@ -4291,30 +4305,28 @@
         <v>370</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="8" t="n">
-        <v>900</v>
-      </c>
-      <c r="D98" s="8" t="s">
         <v>371</v>
       </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="E98" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>375</v>
+        <v>205</v>
+      </c>
+      <c r="C99" s="8" t="n">
+        <v>900</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>376</v>
@@ -4326,117 +4338,117 @@
         <v>378</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
         <v>379</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="8" t="n">
+        <v>205</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="8" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D101" s="8"/>
+      <c r="D101" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="E101" s="8" t="s">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="C102" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>305</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="D102" s="8"/>
       <c r="E102" s="8" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>387</v>
+        <v>309</v>
+      </c>
+      <c r="C103" s="8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="C104" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="D104" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="E104" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F104" s="9" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="105" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="s">
+      <c r="F104" s="8" t="s">
         <v>394</v>
       </c>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="B105" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C105" s="9" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D105" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="9" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4448,114 +4460,114 @@
         <v>400</v>
       </c>
       <c r="C106" s="9" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C107" s="9" t="n">
         <v>9800</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B107" s="8" t="s">
+      <c r="E107" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C107" s="9" t="n">
-        <v>9400</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>408</v>
+        <v>9400</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C109" s="9" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C110" s="9" t="n">
         <v>9600</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>415</v>
+      <c r="E110" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C112" s="8" t="n">
-        <v>131</v>
-      </c>
-      <c r="D112" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="8" t="s">
         <v>423</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>426</v>
       </c>
       <c r="C113" s="8" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>427</v>
@@ -4583,111 +4595,111 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
         <v>430</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C114" s="11" t="n">
+        <v>431</v>
+      </c>
+      <c r="C114" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="G114" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="C115" s="8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>434</v>
-      </c>
+      <c r="E115" s="8"/>
       <c r="G115" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C116" s="8" t="n">
         <v>1731</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C117" s="8" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C117" s="8" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D117" s="8"/>
       <c r="E117" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>126</v>
+        <v>444</v>
       </c>
       <c r="C118" s="8" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="8" t="n">
         <v>200</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C119" s="8" t="n">
-        <v>300</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>448</v>
@@ -4699,159 +4711,159 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C120" s="8" t="n">
         <v>300</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E120" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
+      <c r="C121" s="8" t="n">
+        <v>300</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C121" s="8" t="n">
+      <c r="E121" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C122" s="8" t="n">
         <v>5500</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C122" s="8" t="n">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C123" s="8" t="n">
         <v>5600</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C123" s="8" t="n">
-        <v>101</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>462</v>
+      <c r="D123" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C124" s="8" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+        <v>470</v>
+      </c>
+      <c r="C125" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="E125" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C126" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D126" s="8" t="s">
         <v>474</v>
       </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
       <c r="E126" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>89</v>
+        <v>475</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C127" s="8" t="n">
-        <v>112</v>
+        <v>1000</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>479</v>
+        <v>377</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,508 +4871,508 @@
         <v>480</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="C128" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D128" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>482</v>
+      </c>
       <c r="E128" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>484</v>
+        <v>131</v>
       </c>
       <c r="C129" s="8" t="n">
-        <v>21</v>
+        <v>3100</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>277</v>
+        <v>489</v>
       </c>
       <c r="C130" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C131" s="8" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>492</v>
+      <c r="D131" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C132" s="8" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C133" s="8" t="n">
         <v>7100</v>
       </c>
-      <c r="D132" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="D133" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="E133" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F133" s="8"/>
+        <v>502</v>
+      </c>
       <c r="G133" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E134" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="B134" s="8" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="135" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D135" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>512</v>
       </c>
+      <c r="E136" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="F136" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B137" s="8" t="s">
+      <c r="A137" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="E137" s="8" t="s">
+      <c r="B137" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="E137" s="2" t="s">
         <v>517</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+        <v>520</v>
+      </c>
+      <c r="C138" s="3"/>
       <c r="E138" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="F138" s="8" t="s">
         <v>521</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>526</v>
+      <c r="A140" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C140" s="9" t="n">
+        <v>528</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" s="9" t="n">
         <v>133</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C141" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>531</v>
-      </c>
       <c r="E141" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="F141" s="8" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="F141" s="9" t="s">
         <v>534</v>
       </c>
+    </row>
+    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="10" t="s">
+        <v>535</v>
+      </c>
       <c r="B142" s="8" t="s">
-        <v>535</v>
+        <v>321</v>
       </c>
       <c r="C142" s="8" t="n">
         <v>400</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E142" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C143" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C143" s="9" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>539</v>
-      </c>
       <c r="E143" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F143" s="8" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="8"/>
+      <c r="G143" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="9" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C145" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="F145" s="9" t="s">
+      <c r="D145" s="3" t="s">
         <v>549</v>
       </c>
+      <c r="E145" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="s">
-        <v>550</v>
+      <c r="A146" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C146" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="E146" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="F146" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="F146" s="8" t="s">
+    </row>
+    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="10" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="s">
+      <c r="B147" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="D147" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="F147" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
         <v>561</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C148" s="8" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D148" s="8"/>
+      <c r="C148" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="E148" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="F148" s="8"/>
+      <c r="G148" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11" t="s">
-        <v>566</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C149" s="8" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D149" s="8"/>
       <c r="E149" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C150" s="8" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>570</v>
+        <v>205</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="C151" s="8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="E151" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>576</v>
+        <v>261</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C156" s="8" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D156" s="8" t="s">
         <v>591</v>
       </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
       <c r="E156" s="8" t="s">
         <v>592</v>
       </c>
@@ -5376,7 +5388,7 @@
         <v>595</v>
       </c>
       <c r="C157" s="8" t="n">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>596</v>
@@ -5385,90 +5397,92 @@
         <v>597</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="158" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B158" s="17" t="s">
+    </row>
+    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C158" s="14" t="n">
+      <c r="B158" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C158" s="8" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="C159" s="14" t="n">
         <v>10300</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="8" t="s">
+      <c r="D159" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="E159" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="160" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+      <c r="F159" s="2" t="s">
         <v>607</v>
       </c>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="10" t="s">
+        <v>608</v>
+      </c>
       <c r="B160" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="C160" s="9" t="n">
+        <v>609</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C161" s="9" t="n">
         <v>8900</v>
       </c>
-      <c r="E160" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="G160" s="4" t="s">
+      <c r="E161" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="G161" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C161" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C162" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="C162" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="D162" s="11" t="s">
         <v>616</v>
       </c>
@@ -5479,157 +5493,155 @@
         <v>618</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
         <v>619</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="C163" s="8" t="n">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C164" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D163" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
+      <c r="D164" s="12" t="s">
+        <v>467</v>
+      </c>
       <c r="E164" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="F164" s="8"/>
+        <v>468</v>
+      </c>
       <c r="G164" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C165" s="11"/>
-      <c r="D165" s="11" t="s">
-        <v>624</v>
-      </c>
+      <c r="D165" s="11"/>
       <c r="E165" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
+      </c>
+      <c r="F165" s="8"/>
+      <c r="G165" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C166" s="8" t="n">
+        <v>285</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C167" s="8" t="n">
         <v>1400</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B167" s="8" t="s">
+      <c r="D167" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F167" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C167" s="8" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11" t="s">
+      <c r="C168" s="8" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>637</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>638</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C169" s="8" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="C170" s="8" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,357 +5649,359 @@
         <v>647</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>280</v>
+        <v>648</v>
+      </c>
+      <c r="C171" s="8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>649</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>652</v>
+        <v>285</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>653</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="C174" s="11"/>
-      <c r="D174" s="11" t="s">
-        <v>657</v>
-      </c>
+      <c r="D174" s="11"/>
       <c r="E174" s="8" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C175" s="14" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C176" s="14" t="n">
         <v>10100</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>665</v>
+      <c r="E176" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="8" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="F179" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="D180" s="11" t="s">
+        <v>676</v>
+      </c>
       <c r="E180" s="8" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="8" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>579</v>
+        <v>285</v>
       </c>
       <c r="C183" s="11"/>
-      <c r="D183" s="11" t="s">
-        <v>680</v>
-      </c>
+      <c r="D183" s="11"/>
       <c r="E183" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>200</v>
+        <v>584</v>
       </c>
       <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
+      <c r="D184" s="11" t="s">
+        <v>685</v>
+      </c>
       <c r="E184" s="8" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="8" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="8" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="8" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>636</v>
+        <v>261</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="8" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>692</v>
+      <c r="A189" s="10" t="s">
+        <v>695</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="C189" s="9" t="n">
+        <v>641</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C190" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="E189" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="C190" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="D190" s="8"/>
       <c r="E190" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>89</v>
+        <v>699</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11" t="s">
-        <v>700</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="C191" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D191" s="8"/>
       <c r="E191" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>704</v>
+        <v>205</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11" t="s">
@@ -5997,76 +6011,74 @@
         <v>706</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F193" s="8" t="s">
         <v>707</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C193" s="8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="C194" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C195" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="C195" s="8" t="n">
-        <v>3300</v>
-      </c>
       <c r="D195" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>713</v>
+        <v>341</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>714</v>
+        <v>342</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>716</v>
       </c>
       <c r="C196" s="8" t="n">
-        <v>8000</v>
+        <v>3300</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>717</v>
@@ -6083,140 +6095,142 @@
         <v>720</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+        <v>721</v>
+      </c>
+      <c r="C197" s="8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>722</v>
+      </c>
       <c r="E197" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="C199" s="11"/>
-      <c r="D199" s="11" t="s">
-        <v>726</v>
-      </c>
+      <c r="D199" s="11"/>
       <c r="E199" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="F199" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="F199" s="8" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C200" s="8" t="n">
+        <v>282</v>
+      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C201" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D200" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="C201" s="8" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D201" s="8"/>
+      <c r="D201" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="E201" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>89</v>
+        <v>734</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C202" s="8" t="n">
-        <v>2711</v>
+        <v>2611</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
+        <v>739</v>
+      </c>
+      <c r="C203" s="8" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D203" s="8"/>
       <c r="E203" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="F203" s="8"/>
+        <v>740</v>
+      </c>
       <c r="G203" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>739</v>
+        <v>261</v>
       </c>
       <c r="C204" s="11"/>
-      <c r="D204" s="11" t="s">
-        <v>740</v>
-      </c>
+      <c r="D204" s="11"/>
       <c r="E204" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="F204" s="8" t="s">
         <v>742</v>
+      </c>
+      <c r="F204" s="8"/>
+      <c r="G204" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6226,48 +6240,46 @@
       <c r="B205" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="C205" s="8" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D205" s="8"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11" t="s">
+        <v>745</v>
+      </c>
       <c r="E205" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>579</v>
+        <v>749</v>
       </c>
       <c r="C206" s="8" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>748</v>
-      </c>
+        <v>3721</v>
+      </c>
+      <c r="D206" s="8"/>
       <c r="E206" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="C207" s="11" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D207" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C207" s="8" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D207" s="8" t="s">
         <v>753</v>
       </c>
       <c r="E207" s="8" t="s">
@@ -6282,100 +6294,120 @@
         <v>756</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>53</v>
+        <v>757</v>
+      </c>
+      <c r="C208" s="11" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>758</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="10" t="s">
+        <v>761</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C209" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D209" s="8"/>
+        <v>58</v>
+      </c>
       <c r="E209" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="F209" s="8"/>
-      <c r="G209" s="4" t="s">
-        <v>89</v>
+        <v>762</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>535</v>
+        <v>321</v>
       </c>
       <c r="C210" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D210" s="8" t="s">
-        <v>531</v>
-      </c>
+      <c r="D210" s="8"/>
       <c r="E210" s="8" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F210" s="8"/>
       <c r="G210" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="211" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10" t="s">
-        <v>763</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
+        <v>540</v>
+      </c>
+      <c r="C211" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E211" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
+      </c>
+      <c r="F211" s="8"/>
+      <c r="G211" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="212" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C212" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="213" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C213" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="D213" s="8"/>
       <c r="E213" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="F213" s="8"/>
+        <v>772</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="F214" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -98,7 +98,7 @@
     <t>aix-ssha1</t>
   </si>
   <si>
-    <t>{ssha1}06$0123456789abcdef$pPDynUWwKgFKx8N5CP.d8D5C.wZ</t>
+    <t>{ssha1}06$0XBHm9SZpIYoMh4O$mYuhpJ405Vx4az8zelu4AaCZ.Ew</t>
   </si>
   <si>
     <t>AIX(ssha256)</t>
@@ -110,7 +110,7 @@
     <t>aix-ssha256</t>
   </si>
   <si>
-    <t>{ssha256}06$0123456789abcdef$9zHeDVOh2swHIvL1O9LPvTDeWwv0zbsB5n531R3J.UP</t>
+    <t>{ssha256}06$Rtyh5TThkOJILkUU$s.CmqkoEIasFVCrEQ2zqs5Xj3EbE4IniMaq52CK5.cs</t>
   </si>
   <si>
     <t>AIX(ssha512)</t>
@@ -122,7 +122,7 @@
     <t>aix-ssha512</t>
   </si>
   <si>
-    <t>{ssha512}06$otYx2eSXx.OkEY4F$71vDkRp8S0GNO96tgcvKDz7y8YYEenW8/mltpQsHuiueaHxSEMl1LMzQZTGQt7w.NLWoyb0WKZZfLuVtFIK...</t>
+    <t>{ssha512}06$BNlRyJFIRwc5fbdl$nHi24Li3fLfxEnEf2lnh9uJbsxM9iAPSIZDOr7fqBcQmK7yswabvzWbnmJ8lFfNMfWeB/GIZUcU1yHMIfDIQ..</t>
   </si>
   <si>
     <t>Android FDE ≤ 4.3</t>
@@ -2528,7 +2528,7 @@
   <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -92,7 +92,7 @@
     <t>AIX(ssha1)</t>
   </si>
   <si>
-    <t>^{ssha1}[a-z0-9$\/.]{47}$/i</t>
+    <t>^{ssha1}[0-9]{2}\$[a-z0-9$\/.]{44}$/i</t>
   </si>
   <si>
     <t>aix-ssha1</t>
@@ -104,7 +104,7 @@
     <t>AIX(ssha256)</t>
   </si>
   <si>
-    <t>^{ssha256}[a-z0-9$\/.]{63}$/i</t>
+    <t>^{ssha256}[0-9]{2}\$[a-z0-9$\/.]{60}$/i</t>
   </si>
   <si>
     <t>aix-ssha256</t>
@@ -2528,7 +2528,7 @@
   <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/doc/hashinfo.xlsx
+++ b/doc/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="782">
   <si>
     <t>Hash</t>
   </si>
@@ -674,6 +674,9 @@
     <t>+3nynz1ThEqm.</t>
   </si>
   <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/BFEgg_fmt_plug.c</t>
+  </si>
+  <si>
     <t>ELF-32</t>
   </si>
   <si>
@@ -782,6 +785,9 @@
     <t>AK1AAECAwQFBgcICRARNGqgeC3is8gv2xWWRony9NJnDgEA</t>
   </si>
   <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/FGT_fmt_plug.c</t>
+  </si>
+  <si>
     <t>FreeBSD MD5</t>
   </si>
   <si>
@@ -1337,6 +1343,9 @@
     <t>0x02000102030434ea1b17802fd95ea6316bd61d2c94622ca3812793e8fb1672487b5c904a45a31b2ab4a78890d563d2fcf5663e46fe797d71550494be50cf4915d3f4d55ec375</t>
   </si>
   <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/mssql12_fmt_plug.c</t>
+  </si>
+  <si>
     <t>MSSQL(2014)</t>
   </si>
   <si>
@@ -1499,7 +1508,10 @@
     <t>xsha</t>
   </si>
   <si>
-    <t>1430823483d07626ef8be3fda2ff056d0dfd818dbfe47683</t>
+    <t>31474835450D8103E7AEB9E7DFAC5C8CFE4A9F9F900F151D</t>
+  </si>
+  <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/XSHA_fmt_plug.c</t>
   </si>
   <si>
     <t>OSX v10.7</t>
@@ -1511,7 +1523,10 @@
     <t>xsha512</t>
   </si>
   <si>
-    <t>648742485c9b0acd786a233b2330197223118111b481abfa0ab8b3e8ede5f014fc7c523991c007db6882680b09962d16fd9c45568260531bdb34804a5e31c22b4cfeb32d</t>
+    <t>4c665543c5a19b495a987e95c014cfd5158af9042df969a6c43e7d8b00d641436ac6136eb4b8d9166772dd1422104448521246ecb3881b416639e5e70c84d27f3413e311</t>
+  </si>
+  <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/XSHA512_fmt_plug.c</t>
   </si>
   <si>
     <t>OSX v10.8-10.9</t>
@@ -1520,9 +1535,6 @@
     <t>^\$ml\$[0-9]+\$[a-f0-9]{64}\$[a-f0-9]{128}$/i</t>
   </si>
   <si>
-    <t>pbkdf2-hmac-sha512</t>
-  </si>
-  <si>
     <t>$ml$35460$93a94bd24b5de64d79a5e49fa372827e739f4d7b6975c752c9a0ff1e5cf72e05$752351df64dd2ce9dc9c64a72ad91de6581a15c19176266b44d98919dfa81f0f96cbcb20a1ffb400718c20382030f637892f776627d34e021bad4f81b7de8222</t>
   </si>
   <si>
@@ -1670,6 +1682,9 @@
     <t>$postgres$postgres*3677456e*00280f7a10b1c1f09c2053c9f0f5c0ea</t>
   </si>
   <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/postgres_fmt_plug.c</t>
+  </si>
+  <si>
     <t>PostgreSQL MD5</t>
   </si>
   <si>
@@ -1715,6 +1730,9 @@
     <t>6d0bb00954ceb7fbee436bb55a8397a9</t>
   </si>
   <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/radmin_fmt_plug.c</t>
+  </si>
+  <si>
     <t>Redmine Project Management Web App</t>
   </si>
   <si>
@@ -2016,6 +2034,9 @@
   </si>
   <si>
     <t>ad61d78c06037cd9:2:4:81533218127174468417660201434054</t>
+  </si>
+  <si>
+    <t>https://131002.net/siphash/</t>
   </si>
   <si>
     <t>Skein-1024</t>
@@ -2527,8 +2548,8 @@
   </sheetPr>
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2934,7 +2955,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
         <v>90</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>95</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>108</v>
       </c>
@@ -3447,7 +3468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>204</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>207</v>
       </c>
@@ -3517,14 +3538,13 @@
       <c r="E54" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="4" t="s">
-        <v>94</v>
+      <c r="F54" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>16</v>
@@ -3532,89 +3552,89 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C56" s="8" t="n">
         <v>123</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C57" s="8" t="n">
         <v>141</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C58" s="8" t="n">
         <v>1441</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>116</v>
@@ -3622,15 +3642,15 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>16</v>
@@ -3638,15 +3658,15 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>16</v>
@@ -3654,15 +3674,15 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>16</v>
@@ -3670,7 +3690,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="4" t="s">
@@ -3679,7 +3699,7 @@
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>131</v>
@@ -3687,35 +3707,35 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C65" s="8" t="n">
         <v>7000</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>91</v>
@@ -3735,7 +3755,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>16</v>
@@ -3743,7 +3763,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="4" t="s">
@@ -3752,7 +3772,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>16</v>
@@ -3760,7 +3780,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="4" t="s">
@@ -3769,45 +3789,45 @@
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C69" s="8" t="n">
         <v>6900</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C70" s="8" t="n">
         <v>7200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>131</v>
@@ -3817,15 +3837,15 @@
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>208</v>
@@ -3833,33 +3853,33 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>208</v>
@@ -3867,97 +3887,97 @@
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C78" s="11" t="n">
         <v>1421</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C79" s="9" t="n">
         <v>5300</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>11</v>
@@ -3965,55 +3985,55 @@
     </row>
     <row r="80" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C80" s="9" t="n">
         <v>5400</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C81" s="8" t="n">
         <v>2811</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C82" s="11" t="n">
         <v>7300</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>94</v>
@@ -4021,27 +4041,27 @@
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C83" s="8" t="n">
         <v>4800</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>16</v>
@@ -4049,86 +4069,86 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C85" s="8" t="n">
         <v>11</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C87" s="8" t="n">
         <v>22</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C88" s="8" t="n">
         <v>7500</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>11</v>
@@ -4136,51 +4156,51 @@
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C89" s="8" t="n">
         <v>6800</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C90" s="8" t="n">
         <v>1711</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="4" t="s">
@@ -4189,7 +4209,7 @@
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>208</v>
@@ -4198,18 +4218,18 @@
         <v>190</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>205</v>
@@ -4218,50 +4238,50 @@
         <v>3000</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>94</v>
@@ -4269,24 +4289,24 @@
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C96" s="9" t="n">
         <v>9100</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>208</v>
@@ -4294,33 +4314,33 @@
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>205</v>
@@ -4329,38 +4349,38 @@
         <v>900</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>91</v>
@@ -4372,15 +4392,15 @@
         <v>92</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>45</v>
@@ -4398,302 +4418,302 @@
     </row>
     <row r="103" s="1" customFormat="true" 